--- a/03.要件定義/〇×ゲーム_要件定義書.xlsx
+++ b/03.要件定義/〇×ゲーム_要件定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahari\Documents\arahari_seika\要件定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DORAMI\public\新人研修\2017\03.社内プロジェクト\10.要件定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$K$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">要件定義書!$A$1:$CS$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">要件定義書!$A$1:$CS$92</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>・開発ツール</t>
     <rPh sb="1" eb="3">
@@ -196,14 +196,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>0.1版の修正とシステム概要図追加</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シート【要件定義書】</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レビュー指摘事項を反映</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -216,9 +208,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>当システムは、アプリケーション間通信を使用し2つのマシン間で○×ゲームを行うシステムである。</t>
-  </si>
-  <si>
     <t>アプリケーション間通信方法</t>
     <rPh sb="8" eb="9">
       <t>カン</t>
@@ -280,60 +269,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・サーバープログラムと通信を行う。</t>
     <rPh sb="11" eb="13">
       <t>ツウシン</t>
     </rPh>
     <rPh sb="14" eb="15">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・盤面データを受信し、次の手を決定する。</t>
-    <rPh sb="1" eb="3">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・次の手を決定するロジックは、各個人により容易に変更可能とする。</t>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>カクコジン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -423,9 +364,6 @@
       <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>：勝敗データ</t>
   </si>
   <si>
     <t>システム概要図</t>
@@ -453,19 +391,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・指し手データをサーバプログラムに送信する。</t>
-    <rPh sb="1" eb="2">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・クライアントプログラムから指し手データを受信する。</t>
     <rPh sb="14" eb="15">
       <t>サ</t>
@@ -475,45 +400,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ジュシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・指し手データと勝敗データをデータベースに送信する。</t>
-    <rPh sb="1" eb="2">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>：指し手データ</t>
-    <rPh sb="1" eb="2">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>指し手データ、勝敗データ</t>
-    <rPh sb="0" eb="1">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウハイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -524,25 +410,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>テ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・指し手データを元に盤面データを作成。</t>
-    <rPh sb="1" eb="2">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -614,12 +481,525 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>・3台以上の同時起動は行わないものとする。</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・次の手を決定するロジック（Brain）は、クライアントプログラムのプラグインとして稼動するようにする。</t>
+    <rPh sb="1" eb="2">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.3版の修正</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・次の手を決定するロジック（Brain）で決定した手を反映させた盤面データを、サーバプログラムに送信する。</t>
+    <rPh sb="21" eb="23">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・クライアントから取得した盤面データを元にサーバー内の盤面データを更新。</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・クライアントから取得した盤面データ、サーバー内盤面データを元に指し手データを作成。</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・指し手データと勝敗データをデータベースに送信する。</t>
+    <rPh sb="1" eb="2">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5.6.16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・開発言語</t>
+    <rPh sb="1" eb="3">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jdk1.8.0_131</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>ptc 金山</t>
+    <rPh sb="4" eb="6">
+      <t>カナヤマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●三目並べとは</t>
+    <rPh sb="1" eb="2">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>井の字型の盤面に2人の指し手が交互に○と×を置いていき、縦横斜めのいずれかの列で</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タテヨコ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>：ロジック情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>：試合結果データ</t>
+    <rPh sb="1" eb="3">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>：指し手情報データ</t>
+    <rPh sb="1" eb="2">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指し手情報データ、試合結果データ</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロジック情報データ</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>：先攻後攻判定</t>
+    <rPh sb="1" eb="3">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>当システムは、アプリケーション間通信を使用し2つのマシン間で○×ゲーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(三目並べ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を行うシステムである。</t>
+    </r>
+    <rPh sb="36" eb="37">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クライアントプログラムがサーバープログラムから</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>盤面データを受信し、次の手を決定する。</t>
+    </r>
+    <rPh sb="24" eb="26">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>同じ図形を先に3つ並べた指し手の勝利となる。なお、盤面が埋まっても決着がつかなかった場合は引き分けとする。</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケッチャク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.概要
+三目並べのルール追記
+3 機能要件
+主語の追記と機能、DB登録項目追記
+4 システム概要図
+細かな修正</t>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【開発環境】
+開発言語とmysqlのバージョン情報を追加。
+【機能要件】・【システム概要図】
+「指し手データ」→「（クライアントの）盤面データ」に変更。</t>
+    <rPh sb="1" eb="3">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シート
+【要件定義書】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シート
+【要件定義書】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.1版の修正
+システム概要図追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -676,6 +1056,13 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -912,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -966,6 +1353,17 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,12 +1406,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1038,13 +1430,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1095,13 +1487,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1144,7 +1536,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>クライアント１</a:t>
+            <a:t>クライアント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" strike="sngStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>１</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1155,13 +1555,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1207,10 +1607,26 @@
             <a:t>クライアント</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>2</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" strike="sngStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>２</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" strike="sngStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1220,13 +1636,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1301,68 +1717,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6076950" y="10934700"/>
-          <a:ext cx="885825" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="127000">
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1403,13 +1766,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1450,13 +1813,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1500,13 +1863,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1547,13 +1910,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1597,13 +1960,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1667,13 +2030,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1715,22 +2078,19 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Brain</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>次の手を決定するロジック</a:t>
+            <a:t>１</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>A</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1740,13 +2100,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1788,22 +2148,19 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Brain</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>次の手を決定するロジック</a:t>
+            <a:t>２</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>B</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1813,13 +2170,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1875,13 +2232,13 @@
     <xdr:from>
       <xdr:col>63</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>76350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1932,13 +2289,13 @@
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>76350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1989,13 +2346,13 @@
     <xdr:from>
       <xdr:col>69</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>76350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2046,13 +2403,13 @@
     <xdr:from>
       <xdr:col>63</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2103,13 +2460,13 @@
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2160,13 +2517,13 @@
     <xdr:from>
       <xdr:col>69</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2217,13 +2574,13 @@
     <xdr:from>
       <xdr:col>63</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>152550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2274,13 +2631,13 @@
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>152550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2331,13 +2688,13 @@
     <xdr:from>
       <xdr:col>69</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>152550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2388,13 +2745,13 @@
     <xdr:from>
       <xdr:col>64</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>15975</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>44550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2450,13 +2807,13 @@
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>92175</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>168375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2512,13 +2869,13 @@
     <xdr:from>
       <xdr:col>69</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
       <xdr:colOff>82650</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>168375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2574,13 +2931,13 @@
     <xdr:from>
       <xdr:col>64</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>6450</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>101700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2636,13 +2993,13 @@
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2698,13 +3055,13 @@
     <xdr:from>
       <xdr:col>69</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2760,13 +3117,13 @@
     <xdr:from>
       <xdr:col>64</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2822,13 +3179,13 @@
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2884,13 +3241,13 @@
     <xdr:from>
       <xdr:col>69</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2912,6 +3269,129 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="U ターン矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6191250" y="12201524"/>
+          <a:ext cx="504825" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="12496800"/>
+          <a:ext cx="1209675" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3208,10 +3688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3281,7 +3761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="C6" s="7">
         <v>2</v>
       </c>
@@ -3291,46 +3771,124 @@
       <c r="E6" s="8">
         <v>42935</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="7" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="C7" s="7">
         <v>3</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E7" s="8">
         <v>42935</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>35</v>
+      <c r="J7" s="9" t="s">
+        <v>60</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>36</v>
+    </row>
+    <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="C8" s="7">
+        <v>4</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>72</v>
+      <c r="D8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="8">
+        <v>42940</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="90" x14ac:dyDescent="0.15">
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42942</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.15">
+      <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="8">
+        <v>42947</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3349,10 +3907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR82"/>
+  <dimension ref="A1:CR91"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BP49" sqref="BP49"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3362,408 +3920,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28" t="s">
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="28"/>
-      <c r="BR1" s="28"/>
-      <c r="BS1" s="28"/>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="28"/>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="28"/>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="28"/>
-      <c r="CC1" s="28"/>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="28"/>
-      <c r="CF1" s="28"/>
-      <c r="CG1" s="28"/>
-      <c r="CH1" s="28"/>
-      <c r="CI1" s="28"/>
-      <c r="CJ1" s="28"/>
-      <c r="CK1" s="28"/>
-      <c r="CL1" s="28"/>
-      <c r="CM1" s="28"/>
-      <c r="CN1" s="28"/>
-      <c r="CO1" s="28"/>
-      <c r="CP1" s="28"/>
-      <c r="CQ1" s="28"/>
-      <c r="CR1" s="31"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="33"/>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="33"/>
+      <c r="CE1" s="33"/>
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
+      <c r="CJ1" s="33"/>
+      <c r="CK1" s="33"/>
+      <c r="CL1" s="33"/>
+      <c r="CM1" s="33"/>
+      <c r="CN1" s="33"/>
+      <c r="CO1" s="33"/>
+      <c r="CP1" s="33"/>
+      <c r="CQ1" s="33"/>
+      <c r="CR1" s="36"/>
     </row>
     <row r="2" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="30"/>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="30"/>
-      <c r="BU2" s="30"/>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="30"/>
-      <c r="CB2" s="30"/>
-      <c r="CC2" s="30"/>
-      <c r="CD2" s="30"/>
-      <c r="CE2" s="30"/>
-      <c r="CF2" s="30"/>
-      <c r="CG2" s="30"/>
-      <c r="CH2" s="30"/>
-      <c r="CI2" s="30"/>
-      <c r="CJ2" s="30"/>
-      <c r="CK2" s="30"/>
-      <c r="CL2" s="30"/>
-      <c r="CM2" s="30"/>
-      <c r="CN2" s="30"/>
-      <c r="CO2" s="30"/>
-      <c r="CP2" s="30"/>
-      <c r="CQ2" s="30"/>
-      <c r="CR2" s="32"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="35"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
+      <c r="BP2" s="35"/>
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="35"/>
+      <c r="BV2" s="35"/>
+      <c r="BW2" s="35"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CA2" s="35"/>
+      <c r="CB2" s="35"/>
+      <c r="CC2" s="35"/>
+      <c r="CD2" s="35"/>
+      <c r="CE2" s="35"/>
+      <c r="CF2" s="35"/>
+      <c r="CG2" s="35"/>
+      <c r="CH2" s="35"/>
+      <c r="CI2" s="35"/>
+      <c r="CJ2" s="35"/>
+      <c r="CK2" s="35"/>
+      <c r="CL2" s="35"/>
+      <c r="CM2" s="35"/>
+      <c r="CN2" s="35"/>
+      <c r="CO2" s="35"/>
+      <c r="CP2" s="35"/>
+      <c r="CQ2" s="35"/>
+      <c r="CR2" s="37"/>
     </row>
     <row r="3" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="37" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37" t="s">
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="37"/>
-      <c r="BW3" s="37"/>
-      <c r="BX3" s="37"/>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="37"/>
-      <c r="CA3" s="37"/>
-      <c r="CB3" s="37"/>
-      <c r="CC3" s="37"/>
-      <c r="CD3" s="37"/>
-      <c r="CE3" s="37"/>
-      <c r="CF3" s="37"/>
-      <c r="CG3" s="37"/>
-      <c r="CH3" s="37"/>
-      <c r="CI3" s="37"/>
-      <c r="CJ3" s="37"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="37"/>
-      <c r="CM3" s="37"/>
-      <c r="CN3" s="37"/>
-      <c r="CO3" s="37"/>
-      <c r="CP3" s="37"/>
-      <c r="CQ3" s="37"/>
-      <c r="CR3" s="39"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42"/>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="44"/>
     </row>
     <row r="4" spans="1:96" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38"/>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38"/>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="40"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="43"/>
+      <c r="BF4" s="43"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="43"/>
+      <c r="BO4" s="43"/>
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="43"/>
+      <c r="BR4" s="43"/>
+      <c r="BS4" s="43"/>
+      <c r="BT4" s="43"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="43"/>
+      <c r="BW4" s="43"/>
+      <c r="BX4" s="43"/>
+      <c r="BY4" s="43"/>
+      <c r="BZ4" s="43"/>
+      <c r="CA4" s="43"/>
+      <c r="CB4" s="43"/>
+      <c r="CC4" s="43"/>
+      <c r="CD4" s="43"/>
+      <c r="CE4" s="43"/>
+      <c r="CF4" s="43"/>
+      <c r="CG4" s="43"/>
+      <c r="CH4" s="43"/>
+      <c r="CI4" s="43"/>
+      <c r="CJ4" s="43"/>
+      <c r="CK4" s="43"/>
+      <c r="CL4" s="43"/>
+      <c r="CM4" s="43"/>
+      <c r="CN4" s="43"/>
+      <c r="CO4" s="43"/>
+      <c r="CP4" s="43"/>
+      <c r="CQ4" s="43"/>
+      <c r="CR4" s="45"/>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
@@ -4066,7 +4624,7 @@
     <row r="8" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4263,56 +4821,56 @@
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>39</v>
+      <c r="B10" s="30" t="s">
+        <v>75</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="30"/>
       <c r="AX10" s="13"/>
       <c r="AY10" s="13"/>
       <c r="AZ10" s="13"/>
@@ -4363,56 +4921,56 @@
     </row>
     <row r="11" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>40</v>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30" t="s">
+        <v>76</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="30"/>
       <c r="AX11" s="13"/>
       <c r="AY11" s="13"/>
       <c r="AZ11" s="13"/>
@@ -4463,54 +5021,56 @@
     </row>
     <row r="12" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="30"/>
+      <c r="AW12" s="30"/>
       <c r="AX12" s="13"/>
       <c r="AY12" s="13"/>
       <c r="AZ12" s="13"/>
@@ -4561,9 +5121,7 @@
     </row>
     <row r="13" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -4662,7 +5220,9 @@
     <row r="14" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4760,10 +5320,10 @@
     <row r="15" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
-        <v>59</v>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>37</v>
       </c>
-      <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -4860,9 +5420,7 @@
     <row r="16" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4959,10 +5517,10 @@
     </row>
     <row r="17" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
-        <v>42</v>
+      <c r="B17" s="13" t="s">
+        <v>38</v>
       </c>
+      <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -5060,9 +5618,7 @@
     <row r="18" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -5160,7 +5716,9 @@
     <row r="19" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -5256,111 +5814,111 @@
       <c r="CR19" s="15"/>
     </row>
     <row r="20" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
-        <v>2</v>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>53</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
-      <c r="BI20" s="17"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="17"/>
-      <c r="BL20" s="17"/>
-      <c r="BM20" s="17"/>
-      <c r="BN20" s="17"/>
-      <c r="BO20" s="17"/>
-      <c r="BP20" s="17"/>
-      <c r="BQ20" s="17"/>
-      <c r="BR20" s="17"/>
-      <c r="BS20" s="17"/>
-      <c r="BT20" s="17"/>
-      <c r="BU20" s="17"/>
-      <c r="BV20" s="17"/>
-      <c r="BW20" s="17"/>
-      <c r="BX20" s="17"/>
-      <c r="BY20" s="17"/>
-      <c r="BZ20" s="17"/>
-      <c r="CA20" s="17"/>
-      <c r="CB20" s="17"/>
-      <c r="CC20" s="17"/>
-      <c r="CD20" s="17"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="17"/>
-      <c r="CG20" s="17"/>
-      <c r="CH20" s="17"/>
-      <c r="CI20" s="17"/>
-      <c r="CJ20" s="17"/>
-      <c r="CK20" s="17"/>
-      <c r="CL20" s="17"/>
-      <c r="CM20" s="17"/>
-      <c r="CN20" s="17"/>
-      <c r="CO20" s="17"/>
-      <c r="CP20" s="17"/>
-      <c r="CQ20" s="17"/>
-      <c r="CR20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="13"/>
+      <c r="BE20" s="13"/>
+      <c r="BF20" s="13"/>
+      <c r="BG20" s="13"/>
+      <c r="BH20" s="13"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="13"/>
+      <c r="BK20" s="13"/>
+      <c r="BL20" s="13"/>
+      <c r="BM20" s="13"/>
+      <c r="BN20" s="13"/>
+      <c r="BO20" s="13"/>
+      <c r="BP20" s="13"/>
+      <c r="BQ20" s="13"/>
+      <c r="BR20" s="13"/>
+      <c r="BS20" s="13"/>
+      <c r="BT20" s="13"/>
+      <c r="BU20" s="13"/>
+      <c r="BV20" s="13"/>
+      <c r="BW20" s="13"/>
+      <c r="BX20" s="13"/>
+      <c r="BY20" s="13"/>
+      <c r="BZ20" s="13"/>
+      <c r="CA20" s="13"/>
+      <c r="CB20" s="13"/>
+      <c r="CC20" s="13"/>
+      <c r="CD20" s="13"/>
+      <c r="CE20" s="13"/>
+      <c r="CF20" s="13"/>
+      <c r="CG20" s="13"/>
+      <c r="CH20" s="13"/>
+      <c r="CI20" s="13"/>
+      <c r="CJ20" s="13"/>
+      <c r="CK20" s="13"/>
+      <c r="CL20" s="13"/>
+      <c r="CM20" s="13"/>
+      <c r="CN20" s="13"/>
+      <c r="CO20" s="13"/>
+      <c r="CP20" s="13"/>
+      <c r="CQ20" s="13"/>
+      <c r="CR20" s="15"/>
     </row>
     <row r="21" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -5457,10 +6015,10 @@
     </row>
     <row r="22" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
-        <v>22</v>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>40</v>
       </c>
-      <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -5478,9 +6036,7 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -5493,9 +6049,7 @@
       <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
       <c r="AG22" s="13"/>
-      <c r="AH22" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
       <c r="AK22" s="13"/>
@@ -5561,9 +6115,7 @@
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
-        <v>0</v>
-      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -5582,9 +6134,7 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -5597,9 +6147,7 @@
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
-      <c r="AH23" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
       <c r="AK23" s="13"/>
@@ -5664,108 +6212,106 @@
       <c r="CR23" s="15"/>
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
-        <v>44</v>
+      <c r="A24" s="16">
+        <v>2</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13" t="s">
-        <v>45</v>
+      <c r="B24" s="17" t="s">
+        <v>2</v>
       </c>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="13"/>
-      <c r="BF24" s="13"/>
-      <c r="BG24" s="13"/>
-      <c r="BH24" s="13"/>
-      <c r="BI24" s="13"/>
-      <c r="BJ24" s="13"/>
-      <c r="BK24" s="13"/>
-      <c r="BL24" s="13"/>
-      <c r="BM24" s="13"/>
-      <c r="BN24" s="13"/>
-      <c r="BO24" s="13"/>
-      <c r="BP24" s="13"/>
-      <c r="BQ24" s="13"/>
-      <c r="BR24" s="13"/>
-      <c r="BS24" s="13"/>
-      <c r="BT24" s="13"/>
-      <c r="BU24" s="13"/>
-      <c r="BV24" s="13"/>
-      <c r="BW24" s="13"/>
-      <c r="BX24" s="13"/>
-      <c r="BY24" s="13"/>
-      <c r="BZ24" s="13"/>
-      <c r="CA24" s="13"/>
-      <c r="CB24" s="13"/>
-      <c r="CC24" s="13"/>
-      <c r="CD24" s="13"/>
-      <c r="CE24" s="13"/>
-      <c r="CF24" s="13"/>
-      <c r="CG24" s="13"/>
-      <c r="CH24" s="13"/>
-      <c r="CI24" s="13"/>
-      <c r="CJ24" s="13"/>
-      <c r="CK24" s="13"/>
-      <c r="CL24" s="13"/>
-      <c r="CM24" s="13"/>
-      <c r="CN24" s="13"/>
-      <c r="CO24" s="13"/>
-      <c r="CP24" s="13"/>
-      <c r="CQ24" s="13"/>
-      <c r="CR24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="17"/>
+      <c r="BL24" s="17"/>
+      <c r="BM24" s="17"/>
+      <c r="BN24" s="17"/>
+      <c r="BO24" s="17"/>
+      <c r="BP24" s="17"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
+      <c r="BS24" s="17"/>
+      <c r="BT24" s="17"/>
+      <c r="BU24" s="17"/>
+      <c r="BV24" s="17"/>
+      <c r="BW24" s="17"/>
+      <c r="BX24" s="17"/>
+      <c r="BY24" s="17"/>
+      <c r="BZ24" s="17"/>
+      <c r="CA24" s="17"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="17"/>
+      <c r="CD24" s="17"/>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="17"/>
+      <c r="CG24" s="17"/>
+      <c r="CH24" s="17"/>
+      <c r="CI24" s="17"/>
+      <c r="CJ24" s="17"/>
+      <c r="CK24" s="17"/>
+      <c r="CL24" s="17"/>
+      <c r="CM24" s="17"/>
+      <c r="CN24" s="17"/>
+      <c r="CO24" s="17"/>
+      <c r="CP24" s="17"/>
+      <c r="CQ24" s="17"/>
+      <c r="CR24" s="18"/>
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
@@ -5774,7 +6320,7 @@
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="19"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -5866,111 +6412,114 @@
       <c r="CR25" s="15"/>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
-        <v>3</v>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
+        <v>22</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>3</v>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13" t="s">
+        <v>23</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
-      <c r="AW26" s="17"/>
-      <c r="AX26" s="17"/>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="17"/>
-      <c r="BA26" s="17"/>
-      <c r="BB26" s="17"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="17"/>
-      <c r="BE26" s="17"/>
-      <c r="BF26" s="17"/>
-      <c r="BG26" s="17"/>
-      <c r="BH26" s="17"/>
-      <c r="BI26" s="17"/>
-      <c r="BJ26" s="17"/>
-      <c r="BK26" s="17"/>
-      <c r="BL26" s="17"/>
-      <c r="BM26" s="17"/>
-      <c r="BN26" s="17"/>
-      <c r="BO26" s="17"/>
-      <c r="BP26" s="17"/>
-      <c r="BQ26" s="17"/>
-      <c r="BR26" s="17"/>
-      <c r="BS26" s="17"/>
-      <c r="BT26" s="17"/>
-      <c r="BU26" s="17"/>
-      <c r="BV26" s="17"/>
-      <c r="BW26" s="17"/>
-      <c r="BX26" s="17"/>
-      <c r="BY26" s="17"/>
-      <c r="BZ26" s="17"/>
-      <c r="CA26" s="17"/>
-      <c r="CB26" s="17"/>
-      <c r="CC26" s="17"/>
-      <c r="CD26" s="17"/>
-      <c r="CE26" s="17"/>
-      <c r="CF26" s="17"/>
-      <c r="CG26" s="17"/>
-      <c r="CH26" s="17"/>
-      <c r="CI26" s="17"/>
-      <c r="CJ26" s="17"/>
-      <c r="CK26" s="17"/>
-      <c r="CL26" s="17"/>
-      <c r="CM26" s="17"/>
-      <c r="CN26" s="17"/>
-      <c r="CO26" s="17"/>
-      <c r="CP26" s="17"/>
-      <c r="CQ26" s="17"/>
-      <c r="CR26" s="18"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="13"/>
+      <c r="BA26" s="13"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="13"/>
+      <c r="BD26" s="13"/>
+      <c r="BE26" s="13"/>
+      <c r="BF26" s="13"/>
+      <c r="BG26" s="13"/>
+      <c r="BH26" s="13"/>
+      <c r="BI26" s="13"/>
+      <c r="BJ26" s="13"/>
+      <c r="BK26" s="13"/>
+      <c r="BL26" s="13"/>
+      <c r="BM26" s="13"/>
+      <c r="BN26" s="13"/>
+      <c r="BO26" s="13"/>
+      <c r="BP26" s="13"/>
+      <c r="BQ26" s="13"/>
+      <c r="BR26" s="13"/>
+      <c r="BS26" s="13"/>
+      <c r="BT26" s="13"/>
+      <c r="BU26" s="13"/>
+      <c r="BV26" s="13"/>
+      <c r="BW26" s="13"/>
+      <c r="BX26" s="13"/>
+      <c r="BY26" s="13"/>
+      <c r="BZ26" s="13"/>
+      <c r="CA26" s="13"/>
+      <c r="CB26" s="13"/>
+      <c r="CC26" s="13"/>
+      <c r="CD26" s="13"/>
+      <c r="CE26" s="13"/>
+      <c r="CF26" s="13"/>
+      <c r="CG26" s="13"/>
+      <c r="CH26" s="13"/>
+      <c r="CI26" s="13"/>
+      <c r="CJ26" s="13"/>
+      <c r="CK26" s="13"/>
+      <c r="CL26" s="13"/>
+      <c r="CM26" s="13"/>
+      <c r="CN26" s="13"/>
+      <c r="CO26" s="13"/>
+      <c r="CP26" s="13"/>
+      <c r="CQ26" s="13"/>
+      <c r="CR26" s="15"/>
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -5988,7 +6537,9 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
+      <c r="U27" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
@@ -6001,7 +6552,9 @@
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
+      <c r="AH27" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
       <c r="AK27" s="13"/>
@@ -6068,11 +6621,9 @@
     <row r="28" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -6090,7 +6641,9 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
+      <c r="U28" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
@@ -6103,7 +6656,9 @@
       <c r="AE28" s="13"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
+      <c r="AH28" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
       <c r="AK28" s="13"/>
@@ -6169,10 +6724,10 @@
     </row>
     <row r="29" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
-        <v>47</v>
+      <c r="B29" s="13" t="s">
+        <v>41</v>
       </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -6190,7 +6745,9 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
+      <c r="U29" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
@@ -6203,7 +6760,9 @@
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
+      <c r="AH29" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
       <c r="AK29" s="13"/>
@@ -6270,16 +6829,14 @@
     <row r="30" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -6368,118 +6925,118 @@
       <c r="CR30" s="15"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
-        <v>61</v>
+      <c r="A31" s="16">
+        <v>3</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="13"/>
-      <c r="AS31" s="13"/>
-      <c r="AT31" s="13"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="13"/>
-      <c r="BA31" s="13"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="13"/>
-      <c r="BD31" s="13"/>
-      <c r="BE31" s="13"/>
-      <c r="BF31" s="13"/>
-      <c r="BG31" s="13"/>
-      <c r="BH31" s="13"/>
-      <c r="BI31" s="13"/>
-      <c r="BJ31" s="13"/>
-      <c r="BK31" s="13"/>
-      <c r="BL31" s="13"/>
-      <c r="BM31" s="13"/>
-      <c r="BN31" s="13"/>
-      <c r="BO31" s="13"/>
-      <c r="BP31" s="13"/>
-      <c r="BQ31" s="13"/>
-      <c r="BR31" s="13"/>
-      <c r="BS31" s="13"/>
-      <c r="BT31" s="13"/>
-      <c r="BU31" s="13"/>
-      <c r="BV31" s="13"/>
-      <c r="BW31" s="13"/>
-      <c r="BX31" s="13"/>
-      <c r="BY31" s="13"/>
-      <c r="BZ31" s="13"/>
-      <c r="CA31" s="13"/>
-      <c r="CB31" s="13"/>
-      <c r="CC31" s="13"/>
-      <c r="CD31" s="13"/>
-      <c r="CE31" s="13"/>
-      <c r="CF31" s="13"/>
-      <c r="CG31" s="13"/>
-      <c r="CH31" s="13"/>
-      <c r="CI31" s="13"/>
-      <c r="CJ31" s="13"/>
-      <c r="CK31" s="13"/>
-      <c r="CL31" s="13"/>
-      <c r="CM31" s="13"/>
-      <c r="CN31" s="13"/>
-      <c r="CO31" s="13"/>
-      <c r="CP31" s="13"/>
-      <c r="CQ31" s="13"/>
-      <c r="CR31" s="15"/>
+      <c r="B31" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="17"/>
+      <c r="AQ31" s="17"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="17"/>
+      <c r="AT31" s="17"/>
+      <c r="AU31" s="17"/>
+      <c r="AV31" s="17"/>
+      <c r="AW31" s="17"/>
+      <c r="AX31" s="17"/>
+      <c r="AY31" s="17"/>
+      <c r="AZ31" s="17"/>
+      <c r="BA31" s="17"/>
+      <c r="BB31" s="17"/>
+      <c r="BC31" s="17"/>
+      <c r="BD31" s="17"/>
+      <c r="BE31" s="17"/>
+      <c r="BF31" s="17"/>
+      <c r="BG31" s="17"/>
+      <c r="BH31" s="17"/>
+      <c r="BI31" s="17"/>
+      <c r="BJ31" s="17"/>
+      <c r="BK31" s="17"/>
+      <c r="BL31" s="17"/>
+      <c r="BM31" s="17"/>
+      <c r="BN31" s="17"/>
+      <c r="BO31" s="17"/>
+      <c r="BP31" s="17"/>
+      <c r="BQ31" s="17"/>
+      <c r="BR31" s="17"/>
+      <c r="BS31" s="17"/>
+      <c r="BT31" s="17"/>
+      <c r="BU31" s="17"/>
+      <c r="BV31" s="17"/>
+      <c r="BW31" s="17"/>
+      <c r="BX31" s="17"/>
+      <c r="BY31" s="17"/>
+      <c r="BZ31" s="17"/>
+      <c r="CA31" s="17"/>
+      <c r="CB31" s="17"/>
+      <c r="CC31" s="17"/>
+      <c r="CD31" s="17"/>
+      <c r="CE31" s="17"/>
+      <c r="CF31" s="17"/>
+      <c r="CG31" s="17"/>
+      <c r="CH31" s="17"/>
+      <c r="CI31" s="17"/>
+      <c r="CJ31" s="17"/>
+      <c r="CK31" s="17"/>
+      <c r="CL31" s="17"/>
+      <c r="CM31" s="17"/>
+      <c r="CN31" s="17"/>
+      <c r="CO31" s="17"/>
+      <c r="CP31" s="17"/>
+      <c r="CQ31" s="17"/>
+      <c r="CR31" s="18"/>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -6569,15 +7126,19 @@
     </row>
     <row r="33" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -6667,10 +7228,10 @@
     </row>
     <row r="34" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
-        <v>30</v>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>43</v>
       </c>
-      <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -6769,15 +7330,15 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
@@ -6869,14 +7430,15 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
+      <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -6967,15 +7529,16 @@
     <row r="37" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>68</v>
+      <c r="C37" s="13" t="s">
+        <v>62</v>
       </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -7066,15 +7629,16 @@
     <row r="38" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>51</v>
+      <c r="C38" s="13" t="s">
+        <v>61</v>
       </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -7166,14 +7730,13 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="E39" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -7263,10 +7826,10 @@
     </row>
     <row r="40" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
+      <c r="B40" s="13" t="s">
+        <v>30</v>
       </c>
+      <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -7365,7 +7928,7 @@
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -7465,9 +8028,8 @@
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
-      <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -7565,8 +8127,9 @@
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="E43" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -7661,12 +8224,11 @@
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
-      <c r="B44" s="13" t="s">
-        <v>54</v>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="E44" s="30" t="s">
+        <v>82</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -7762,11 +8324,10 @@
     <row r="45" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="13" t="s">
-        <v>69</v>
+      <c r="C45" s="13"/>
+      <c r="E45" s="13" t="s">
+        <v>45</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -7863,8 +8424,9 @@
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="E46" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
@@ -7959,11 +8521,9 @@
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>31</v>
+      <c r="B47" s="13"/>
+      <c r="C47" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -8063,7 +8623,7 @@
       <c r="A48" s="12"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -8162,10 +8722,10 @@
     <row r="49" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13" t="s">
-        <v>64</v>
+      <c r="C49" s="1" t="s">
+        <v>68</v>
       </c>
+      <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -8262,10 +8822,10 @@
     <row r="50" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="1" t="s">
-        <v>56</v>
+      <c r="C50" s="13" t="s">
+        <v>47</v>
       </c>
+      <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -8362,7 +8922,7 @@
     <row r="51" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -8457,111 +9017,110 @@
       <c r="CR51" s="15"/>
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A52" s="16">
-        <v>4</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17"/>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
-      <c r="AG52" s="17"/>
-      <c r="AH52" s="17"/>
-      <c r="AI52" s="17"/>
-      <c r="AJ52" s="17"/>
-      <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
-      <c r="AM52" s="17"/>
-      <c r="AN52" s="17"/>
-      <c r="AO52" s="17"/>
-      <c r="AP52" s="17"/>
-      <c r="AQ52" s="17"/>
-      <c r="AR52" s="17"/>
-      <c r="AS52" s="17"/>
-      <c r="AT52" s="17"/>
-      <c r="AU52" s="17"/>
-      <c r="AV52" s="17"/>
-      <c r="AW52" s="17"/>
-      <c r="AX52" s="17"/>
-      <c r="AY52" s="17"/>
-      <c r="AZ52" s="17"/>
-      <c r="BA52" s="17"/>
-      <c r="BB52" s="17"/>
-      <c r="BC52" s="17"/>
-      <c r="BD52" s="17"/>
-      <c r="BE52" s="17"/>
-      <c r="BF52" s="17"/>
-      <c r="BG52" s="17"/>
-      <c r="BH52" s="17"/>
-      <c r="BI52" s="17"/>
-      <c r="BJ52" s="17"/>
-      <c r="BK52" s="17"/>
-      <c r="BL52" s="17"/>
-      <c r="BM52" s="17"/>
-      <c r="BN52" s="17"/>
-      <c r="BO52" s="17"/>
-      <c r="BP52" s="17"/>
-      <c r="BQ52" s="17"/>
-      <c r="BR52" s="17"/>
-      <c r="BS52" s="17"/>
-      <c r="BT52" s="17"/>
-      <c r="BU52" s="17"/>
-      <c r="BV52" s="17"/>
-      <c r="BW52" s="17"/>
-      <c r="BX52" s="17"/>
-      <c r="BY52" s="17"/>
-      <c r="BZ52" s="17"/>
-      <c r="CA52" s="17"/>
-      <c r="CB52" s="17"/>
-      <c r="CC52" s="17"/>
-      <c r="CD52" s="17"/>
-      <c r="CE52" s="17"/>
-      <c r="CF52" s="17"/>
-      <c r="CG52" s="17"/>
-      <c r="CH52" s="17"/>
-      <c r="CI52" s="17"/>
-      <c r="CJ52" s="17"/>
-      <c r="CK52" s="17"/>
-      <c r="CL52" s="17"/>
-      <c r="CM52" s="17"/>
-      <c r="CN52" s="17"/>
-      <c r="CO52" s="17"/>
-      <c r="CP52" s="17"/>
-      <c r="CQ52" s="17"/>
-      <c r="CR52" s="18"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="13"/>
+      <c r="AL52" s="13"/>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="13"/>
+      <c r="AO52" s="13"/>
+      <c r="AP52" s="13"/>
+      <c r="AQ52" s="13"/>
+      <c r="AR52" s="13"/>
+      <c r="AS52" s="13"/>
+      <c r="AT52" s="13"/>
+      <c r="AU52" s="13"/>
+      <c r="AV52" s="13"/>
+      <c r="AW52" s="13"/>
+      <c r="AX52" s="13"/>
+      <c r="AY52" s="13"/>
+      <c r="AZ52" s="13"/>
+      <c r="BA52" s="13"/>
+      <c r="BB52" s="13"/>
+      <c r="BC52" s="13"/>
+      <c r="BD52" s="13"/>
+      <c r="BE52" s="13"/>
+      <c r="BF52" s="13"/>
+      <c r="BG52" s="13"/>
+      <c r="BH52" s="13"/>
+      <c r="BI52" s="13"/>
+      <c r="BJ52" s="13"/>
+      <c r="BK52" s="13"/>
+      <c r="BL52" s="13"/>
+      <c r="BM52" s="13"/>
+      <c r="BN52" s="13"/>
+      <c r="BO52" s="13"/>
+      <c r="BP52" s="13"/>
+      <c r="BQ52" s="13"/>
+      <c r="BR52" s="13"/>
+      <c r="BS52" s="13"/>
+      <c r="BT52" s="13"/>
+      <c r="BU52" s="13"/>
+      <c r="BV52" s="13"/>
+      <c r="BW52" s="13"/>
+      <c r="BX52" s="13"/>
+      <c r="BY52" s="13"/>
+      <c r="BZ52" s="13"/>
+      <c r="CA52" s="13"/>
+      <c r="CB52" s="13"/>
+      <c r="CC52" s="13"/>
+      <c r="CD52" s="13"/>
+      <c r="CE52" s="13"/>
+      <c r="CF52" s="13"/>
+      <c r="CG52" s="13"/>
+      <c r="CH52" s="13"/>
+      <c r="CI52" s="13"/>
+      <c r="CJ52" s="13"/>
+      <c r="CK52" s="13"/>
+      <c r="CL52" s="13"/>
+      <c r="CM52" s="13"/>
+      <c r="CN52" s="13"/>
+      <c r="CO52" s="13"/>
+      <c r="CP52" s="13"/>
+      <c r="CQ52" s="13"/>
+      <c r="CR52" s="15"/>
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
+      <c r="B53" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -8658,7 +9217,10 @@
     <row r="54" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -8752,10 +9314,11 @@
       <c r="CQ54" s="13"/>
       <c r="CR54" s="15"/>
     </row>
-    <row r="55" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -8773,6 +9336,7 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
       <c r="W55" s="13"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
@@ -8812,17 +9376,17 @@
       <c r="BG55" s="13"/>
       <c r="BH55" s="13"/>
       <c r="BI55" s="13"/>
-      <c r="BJ55" s="41"/>
-      <c r="BK55" s="41"/>
-      <c r="BL55" s="41"/>
-      <c r="BM55" s="41"/>
-      <c r="BN55" s="41"/>
-      <c r="BO55" s="41"/>
-      <c r="BP55" s="41"/>
-      <c r="BQ55" s="41"/>
-      <c r="BR55" s="41"/>
-      <c r="BS55" s="41"/>
-      <c r="BT55" s="41"/>
+      <c r="BJ55" s="13"/>
+      <c r="BK55" s="13"/>
+      <c r="BL55" s="13"/>
+      <c r="BM55" s="13"/>
+      <c r="BN55" s="13"/>
+      <c r="BO55" s="13"/>
+      <c r="BP55" s="13"/>
+      <c r="BQ55" s="13"/>
+      <c r="BR55" s="13"/>
+      <c r="BS55" s="13"/>
+      <c r="BT55" s="13"/>
       <c r="BU55" s="13"/>
       <c r="BV55" s="13"/>
       <c r="BW55" s="13"/>
@@ -8848,10 +9412,15 @@
       <c r="CQ55" s="13"/>
       <c r="CR55" s="15"/>
     </row>
-    <row r="56" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
+      <c r="B56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -8909,17 +9478,17 @@
       <c r="BG56" s="13"/>
       <c r="BH56" s="13"/>
       <c r="BI56" s="13"/>
-      <c r="BJ56" s="41"/>
-      <c r="BK56" s="41"/>
-      <c r="BL56" s="41"/>
-      <c r="BM56" s="41"/>
-      <c r="BN56" s="41"/>
-      <c r="BO56" s="41"/>
-      <c r="BP56" s="41"/>
-      <c r="BQ56" s="41"/>
-      <c r="BR56" s="41"/>
-      <c r="BS56" s="41"/>
-      <c r="BT56" s="41"/>
+      <c r="BJ56" s="13"/>
+      <c r="BK56" s="13"/>
+      <c r="BL56" s="13"/>
+      <c r="BM56" s="13"/>
+      <c r="BN56" s="13"/>
+      <c r="BO56" s="13"/>
+      <c r="BP56" s="13"/>
+      <c r="BQ56" s="13"/>
+      <c r="BR56" s="13"/>
+      <c r="BS56" s="13"/>
+      <c r="BT56" s="13"/>
       <c r="BU56" s="13"/>
       <c r="BV56" s="13"/>
       <c r="BW56" s="13"/>
@@ -8948,7 +9517,10 @@
     <row r="57" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -8966,9 +9538,7 @@
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
-      <c r="V57" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="V57" s="13"/>
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
@@ -9009,15 +9579,15 @@
       <c r="BH57" s="13"/>
       <c r="BI57" s="13"/>
       <c r="BJ57" s="13"/>
-      <c r="BK57" s="42"/>
-      <c r="BL57" s="42"/>
-      <c r="BM57" s="42"/>
-      <c r="BN57" s="42"/>
-      <c r="BO57" s="42"/>
-      <c r="BP57" s="42"/>
-      <c r="BQ57" s="42"/>
-      <c r="BR57" s="42"/>
-      <c r="BS57" s="42"/>
+      <c r="BK57" s="13"/>
+      <c r="BL57" s="13"/>
+      <c r="BM57" s="13"/>
+      <c r="BN57" s="13"/>
+      <c r="BO57" s="13"/>
+      <c r="BP57" s="13"/>
+      <c r="BQ57" s="13"/>
+      <c r="BR57" s="13"/>
+      <c r="BS57" s="13"/>
       <c r="BT57" s="13"/>
       <c r="BU57" s="13"/>
       <c r="BV57" s="13"/>
@@ -9048,6 +9618,9 @@
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -9106,15 +9679,15 @@
       <c r="BH58" s="13"/>
       <c r="BI58" s="13"/>
       <c r="BJ58" s="13"/>
-      <c r="BK58" s="42"/>
-      <c r="BL58" s="42"/>
-      <c r="BM58" s="42"/>
-      <c r="BN58" s="42"/>
-      <c r="BO58" s="42"/>
-      <c r="BP58" s="42"/>
-      <c r="BQ58" s="42"/>
-      <c r="BR58" s="42"/>
-      <c r="BS58" s="42"/>
+      <c r="BK58" s="13"/>
+      <c r="BL58" s="13"/>
+      <c r="BM58" s="13"/>
+      <c r="BN58" s="13"/>
+      <c r="BO58" s="13"/>
+      <c r="BP58" s="13"/>
+      <c r="BQ58" s="13"/>
+      <c r="BR58" s="13"/>
+      <c r="BS58" s="13"/>
       <c r="BT58" s="13"/>
       <c r="BU58" s="13"/>
       <c r="BV58" s="13"/>
@@ -9145,6 +9718,9 @@
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
+      <c r="D59" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
@@ -9203,15 +9779,15 @@
       <c r="BH59" s="13"/>
       <c r="BI59" s="13"/>
       <c r="BJ59" s="13"/>
-      <c r="BK59" s="42"/>
-      <c r="BL59" s="42"/>
-      <c r="BM59" s="42"/>
-      <c r="BN59" s="42"/>
-      <c r="BO59" s="42"/>
-      <c r="BP59" s="42"/>
-      <c r="BQ59" s="42"/>
-      <c r="BR59" s="42"/>
-      <c r="BS59" s="42"/>
+      <c r="BK59" s="13"/>
+      <c r="BL59" s="13"/>
+      <c r="BM59" s="13"/>
+      <c r="BN59" s="13"/>
+      <c r="BO59" s="13"/>
+      <c r="BP59" s="13"/>
+      <c r="BQ59" s="13"/>
+      <c r="BR59" s="13"/>
+      <c r="BS59" s="13"/>
       <c r="BT59" s="13"/>
       <c r="BU59" s="13"/>
       <c r="BV59" s="13"/>
@@ -9242,6 +9818,9 @@
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
+      <c r="D60" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -9300,15 +9879,15 @@
       <c r="BH60" s="13"/>
       <c r="BI60" s="13"/>
       <c r="BJ60" s="13"/>
-      <c r="BK60" s="42"/>
-      <c r="BL60" s="42"/>
-      <c r="BM60" s="42"/>
-      <c r="BN60" s="42"/>
-      <c r="BO60" s="42"/>
-      <c r="BP60" s="42"/>
-      <c r="BQ60" s="42"/>
-      <c r="BR60" s="42"/>
-      <c r="BS60" s="42"/>
+      <c r="BK60" s="13"/>
+      <c r="BL60" s="13"/>
+      <c r="BM60" s="13"/>
+      <c r="BN60" s="13"/>
+      <c r="BO60" s="13"/>
+      <c r="BP60" s="13"/>
+      <c r="BQ60" s="13"/>
+      <c r="BR60" s="13"/>
+      <c r="BS60" s="13"/>
       <c r="BT60" s="13"/>
       <c r="BU60" s="13"/>
       <c r="BV60" s="13"/>
@@ -9336,103 +9915,106 @@
       <c r="CR60" s="15"/>
     </row>
     <row r="61" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="13"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="13"/>
-      <c r="AG61" s="13"/>
-      <c r="AH61" s="13"/>
-      <c r="AI61" s="13"/>
-      <c r="AJ61" s="13"/>
-      <c r="AK61" s="13"/>
-      <c r="AL61" s="13"/>
-      <c r="AM61" s="13"/>
-      <c r="AN61" s="13"/>
-      <c r="AO61" s="13"/>
-      <c r="AP61" s="13"/>
-      <c r="AQ61" s="13"/>
-      <c r="AR61" s="13"/>
-      <c r="AS61" s="13"/>
-      <c r="AT61" s="13"/>
-      <c r="AU61" s="13"/>
-      <c r="AV61" s="13"/>
-      <c r="AW61" s="13"/>
-      <c r="AX61" s="13"/>
-      <c r="AY61" s="13"/>
-      <c r="AZ61" s="13"/>
-      <c r="BA61" s="13" t="s">
-        <v>66</v>
+      <c r="A61" s="16">
+        <v>4</v>
       </c>
-      <c r="BB61" s="13"/>
-      <c r="BC61" s="13"/>
-      <c r="BD61" s="13"/>
-      <c r="BE61" s="13"/>
-      <c r="BF61" s="13"/>
-      <c r="BG61" s="13"/>
-      <c r="BH61" s="13"/>
-      <c r="BI61" s="13"/>
-      <c r="BJ61" s="13"/>
-      <c r="BK61" s="42"/>
-      <c r="BL61" s="42"/>
-      <c r="BM61" s="42"/>
-      <c r="BN61" s="42"/>
-      <c r="BO61" s="42"/>
-      <c r="BP61" s="42"/>
-      <c r="BQ61" s="42"/>
-      <c r="BR61" s="42"/>
-      <c r="BS61" s="42"/>
-      <c r="BT61" s="13"/>
-      <c r="BU61" s="13"/>
-      <c r="BV61" s="13"/>
-      <c r="BW61" s="13"/>
-      <c r="BX61" s="13"/>
-      <c r="BY61" s="13"/>
-      <c r="BZ61" s="13"/>
-      <c r="CA61" s="13"/>
-      <c r="CB61" s="13"/>
-      <c r="CC61" s="13"/>
-      <c r="CD61" s="13"/>
-      <c r="CE61" s="13"/>
-      <c r="CF61" s="13"/>
-      <c r="CG61" s="13"/>
-      <c r="CH61" s="13"/>
-      <c r="CI61" s="13"/>
-      <c r="CJ61" s="13"/>
-      <c r="CK61" s="13"/>
-      <c r="CL61" s="13"/>
-      <c r="CM61" s="13"/>
-      <c r="CN61" s="13"/>
-      <c r="CO61" s="13"/>
-      <c r="CP61" s="13"/>
-      <c r="CQ61" s="13"/>
-      <c r="CR61" s="15"/>
+      <c r="B61" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="17"/>
+      <c r="AH61" s="17"/>
+      <c r="AI61" s="17"/>
+      <c r="AJ61" s="17"/>
+      <c r="AK61" s="17"/>
+      <c r="AL61" s="17"/>
+      <c r="AM61" s="17"/>
+      <c r="AN61" s="17"/>
+      <c r="AO61" s="17"/>
+      <c r="AP61" s="17"/>
+      <c r="AQ61" s="17"/>
+      <c r="AR61" s="17"/>
+      <c r="AS61" s="17"/>
+      <c r="AT61" s="17"/>
+      <c r="AU61" s="17"/>
+      <c r="AV61" s="17"/>
+      <c r="AW61" s="17"/>
+      <c r="AX61" s="17"/>
+      <c r="AY61" s="17"/>
+      <c r="AZ61" s="17"/>
+      <c r="BA61" s="17"/>
+      <c r="BB61" s="17"/>
+      <c r="BC61" s="17"/>
+      <c r="BD61" s="17"/>
+      <c r="BE61" s="17"/>
+      <c r="BF61" s="17"/>
+      <c r="BG61" s="17"/>
+      <c r="BH61" s="17"/>
+      <c r="BI61" s="17"/>
+      <c r="BJ61" s="17"/>
+      <c r="BK61" s="17"/>
+      <c r="BL61" s="17"/>
+      <c r="BM61" s="17"/>
+      <c r="BN61" s="17"/>
+      <c r="BO61" s="17"/>
+      <c r="BP61" s="17"/>
+      <c r="BQ61" s="17"/>
+      <c r="BR61" s="17"/>
+      <c r="BS61" s="17"/>
+      <c r="BT61" s="17"/>
+      <c r="BU61" s="17"/>
+      <c r="BV61" s="17"/>
+      <c r="BW61" s="17"/>
+      <c r="BX61" s="17"/>
+      <c r="BY61" s="17"/>
+      <c r="BZ61" s="17"/>
+      <c r="CA61" s="17"/>
+      <c r="CB61" s="17"/>
+      <c r="CC61" s="17"/>
+      <c r="CD61" s="17"/>
+      <c r="CE61" s="17"/>
+      <c r="CF61" s="17"/>
+      <c r="CG61" s="17"/>
+      <c r="CH61" s="17"/>
+      <c r="CI61" s="17"/>
+      <c r="CJ61" s="17"/>
+      <c r="CK61" s="17"/>
+      <c r="CL61" s="17"/>
+      <c r="CM61" s="17"/>
+      <c r="CN61" s="17"/>
+      <c r="CO61" s="17"/>
+      <c r="CP61" s="17"/>
+      <c r="CQ61" s="17"/>
+      <c r="CR61" s="18"/>
     </row>
     <row r="62" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
@@ -9496,15 +10078,15 @@
       <c r="BH62" s="13"/>
       <c r="BI62" s="13"/>
       <c r="BJ62" s="13"/>
-      <c r="BK62" s="42"/>
-      <c r="BL62" s="42"/>
-      <c r="BM62" s="42"/>
-      <c r="BN62" s="42"/>
-      <c r="BO62" s="42"/>
-      <c r="BP62" s="42"/>
-      <c r="BQ62" s="42"/>
-      <c r="BR62" s="42"/>
-      <c r="BS62" s="42"/>
+      <c r="BK62" s="13"/>
+      <c r="BL62" s="13"/>
+      <c r="BM62" s="13"/>
+      <c r="BN62" s="13"/>
+      <c r="BO62" s="13"/>
+      <c r="BP62" s="13"/>
+      <c r="BQ62" s="13"/>
+      <c r="BR62" s="13"/>
+      <c r="BS62" s="13"/>
       <c r="BT62" s="13"/>
       <c r="BU62" s="13"/>
       <c r="BV62" s="13"/>
@@ -9628,16 +10210,14 @@
       <c r="CQ63" s="13"/>
       <c r="CR63" s="15"/>
     </row>
-    <row r="64" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
@@ -9651,11 +10231,8 @@
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
       <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
       <c r="W64" s="13"/>
-      <c r="X64" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
       <c r="AA64" s="13"/>
@@ -9693,17 +10270,17 @@
       <c r="BG64" s="13"/>
       <c r="BH64" s="13"/>
       <c r="BI64" s="13"/>
-      <c r="BJ64" s="13"/>
-      <c r="BK64" s="13"/>
-      <c r="BL64" s="13"/>
-      <c r="BM64" s="13"/>
-      <c r="BN64" s="13"/>
-      <c r="BO64" s="13"/>
-      <c r="BP64" s="13"/>
-      <c r="BQ64" s="13"/>
-      <c r="BR64" s="13"/>
-      <c r="BS64" s="13"/>
-      <c r="BT64" s="13"/>
+      <c r="BJ64" s="27"/>
+      <c r="BK64" s="27"/>
+      <c r="BL64" s="27"/>
+      <c r="BM64" s="27"/>
+      <c r="BN64" s="27"/>
+      <c r="BO64" s="27"/>
+      <c r="BP64" s="27"/>
+      <c r="BQ64" s="27"/>
+      <c r="BR64" s="27"/>
+      <c r="BS64" s="27"/>
+      <c r="BT64" s="27"/>
       <c r="BU64" s="13"/>
       <c r="BV64" s="13"/>
       <c r="BW64" s="13"/>
@@ -9729,7 +10306,7 @@
       <c r="CQ64" s="13"/>
       <c r="CR64" s="15"/>
     </row>
-    <row r="65" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -9750,7 +10327,9 @@
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
+      <c r="V65" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="W65" s="13"/>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
@@ -9790,17 +10369,17 @@
       <c r="BG65" s="13"/>
       <c r="BH65" s="13"/>
       <c r="BI65" s="13"/>
-      <c r="BJ65" s="13"/>
-      <c r="BK65" s="13"/>
-      <c r="BL65" s="13"/>
-      <c r="BM65" s="13"/>
-      <c r="BN65" s="13"/>
-      <c r="BO65" s="13"/>
-      <c r="BP65" s="13"/>
-      <c r="BQ65" s="13"/>
-      <c r="BR65" s="13"/>
-      <c r="BS65" s="13"/>
-      <c r="BT65" s="13"/>
+      <c r="BJ65" s="27"/>
+      <c r="BK65" s="27"/>
+      <c r="BL65" s="27"/>
+      <c r="BM65" s="27"/>
+      <c r="BN65" s="27"/>
+      <c r="BO65" s="27"/>
+      <c r="BP65" s="27"/>
+      <c r="BQ65" s="27"/>
+      <c r="BR65" s="27"/>
+      <c r="BS65" s="27"/>
+      <c r="BT65" s="27"/>
       <c r="BU65" s="13"/>
       <c r="BV65" s="13"/>
       <c r="BW65" s="13"/>
@@ -9847,7 +10426,9 @@
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
       <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
+      <c r="V66" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="W66" s="13"/>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -9888,15 +10469,15 @@
       <c r="BH66" s="13"/>
       <c r="BI66" s="13"/>
       <c r="BJ66" s="13"/>
-      <c r="BK66" s="13"/>
-      <c r="BL66" s="13"/>
-      <c r="BM66" s="13"/>
-      <c r="BN66" s="13"/>
-      <c r="BO66" s="13"/>
-      <c r="BP66" s="13"/>
-      <c r="BQ66" s="13"/>
-      <c r="BR66" s="13"/>
-      <c r="BS66" s="13"/>
+      <c r="BK66" s="28"/>
+      <c r="BL66" s="28"/>
+      <c r="BM66" s="28"/>
+      <c r="BN66" s="28"/>
+      <c r="BO66" s="28"/>
+      <c r="BP66" s="28"/>
+      <c r="BQ66" s="28"/>
+      <c r="BR66" s="28"/>
+      <c r="BS66" s="28"/>
       <c r="BT66" s="13"/>
       <c r="BU66" s="13"/>
       <c r="BV66" s="13"/>
@@ -9985,15 +10566,15 @@
       <c r="BH67" s="13"/>
       <c r="BI67" s="13"/>
       <c r="BJ67" s="13"/>
-      <c r="BK67" s="13"/>
-      <c r="BL67" s="13"/>
-      <c r="BM67" s="13"/>
-      <c r="BN67" s="13"/>
-      <c r="BO67" s="13"/>
-      <c r="BP67" s="13"/>
-      <c r="BQ67" s="13"/>
-      <c r="BR67" s="13"/>
-      <c r="BS67" s="13"/>
+      <c r="BK67" s="28"/>
+      <c r="BL67" s="28"/>
+      <c r="BM67" s="28"/>
+      <c r="BN67" s="28"/>
+      <c r="BO67" s="28"/>
+      <c r="BP67" s="28"/>
+      <c r="BQ67" s="28"/>
+      <c r="BR67" s="28"/>
+      <c r="BS67" s="28"/>
       <c r="BT67" s="13"/>
       <c r="BU67" s="13"/>
       <c r="BV67" s="13"/>
@@ -10082,15 +10663,15 @@
       <c r="BH68" s="13"/>
       <c r="BI68" s="13"/>
       <c r="BJ68" s="13"/>
-      <c r="BK68" s="13"/>
-      <c r="BL68" s="13"/>
-      <c r="BM68" s="13"/>
-      <c r="BN68" s="13"/>
-      <c r="BO68" s="13"/>
-      <c r="BP68" s="13"/>
-      <c r="BQ68" s="13"/>
-      <c r="BR68" s="13"/>
-      <c r="BS68" s="13"/>
+      <c r="BK68" s="28"/>
+      <c r="BL68" s="28"/>
+      <c r="BM68" s="28"/>
+      <c r="BN68" s="28"/>
+      <c r="BO68" s="28"/>
+      <c r="BP68" s="28"/>
+      <c r="BQ68" s="28"/>
+      <c r="BR68" s="28"/>
+      <c r="BS68" s="28"/>
       <c r="BT68" s="13"/>
       <c r="BU68" s="13"/>
       <c r="BV68" s="13"/>
@@ -10179,15 +10760,15 @@
       <c r="BH69" s="13"/>
       <c r="BI69" s="13"/>
       <c r="BJ69" s="13"/>
-      <c r="BK69" s="13"/>
-      <c r="BL69" s="13"/>
-      <c r="BM69" s="13"/>
-      <c r="BN69" s="13"/>
-      <c r="BO69" s="13"/>
-      <c r="BP69" s="13"/>
-      <c r="BQ69" s="13"/>
-      <c r="BR69" s="13"/>
-      <c r="BS69" s="13"/>
+      <c r="BK69" s="28"/>
+      <c r="BL69" s="28"/>
+      <c r="BM69" s="28"/>
+      <c r="BN69" s="28"/>
+      <c r="BO69" s="28"/>
+      <c r="BP69" s="28"/>
+      <c r="BQ69" s="28"/>
+      <c r="BR69" s="28"/>
+      <c r="BS69" s="28"/>
       <c r="BT69" s="13"/>
       <c r="BU69" s="13"/>
       <c r="BV69" s="13"/>
@@ -10266,7 +10847,9 @@
       <c r="AX70" s="13"/>
       <c r="AY70" s="13"/>
       <c r="AZ70" s="13"/>
-      <c r="BA70" s="13"/>
+      <c r="BA70" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="BB70" s="13"/>
       <c r="BC70" s="13"/>
       <c r="BD70" s="13"/>
@@ -10276,15 +10859,15 @@
       <c r="BH70" s="13"/>
       <c r="BI70" s="13"/>
       <c r="BJ70" s="13"/>
-      <c r="BK70" s="13"/>
-      <c r="BL70" s="13"/>
-      <c r="BM70" s="13"/>
-      <c r="BN70" s="13"/>
-      <c r="BO70" s="13"/>
-      <c r="BP70" s="13"/>
-      <c r="BQ70" s="13"/>
-      <c r="BR70" s="13"/>
-      <c r="BS70" s="13"/>
+      <c r="BK70" s="28"/>
+      <c r="BL70" s="28"/>
+      <c r="BM70" s="28"/>
+      <c r="BN70" s="28"/>
+      <c r="BO70" s="28"/>
+      <c r="BP70" s="28"/>
+      <c r="BQ70" s="28"/>
+      <c r="BR70" s="28"/>
+      <c r="BS70" s="28"/>
       <c r="BT70" s="13"/>
       <c r="BU70" s="13"/>
       <c r="BV70" s="13"/>
@@ -10313,9 +10896,7 @@
     </row>
     <row r="71" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
-      <c r="B71" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -10333,9 +10914,7 @@
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
-      <c r="U71" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="U71" s="13"/>
       <c r="V71" s="13"/>
       <c r="W71" s="13"/>
       <c r="X71" s="13"/>
@@ -10377,15 +10956,15 @@
       <c r="BH71" s="13"/>
       <c r="BI71" s="13"/>
       <c r="BJ71" s="13"/>
-      <c r="BK71" s="13"/>
-      <c r="BL71" s="13"/>
-      <c r="BM71" s="13"/>
-      <c r="BN71" s="13"/>
-      <c r="BO71" s="13"/>
-      <c r="BP71" s="13"/>
-      <c r="BQ71" s="13"/>
-      <c r="BR71" s="13"/>
-      <c r="BS71" s="13"/>
+      <c r="BK71" s="28"/>
+      <c r="BL71" s="28"/>
+      <c r="BM71" s="28"/>
+      <c r="BN71" s="28"/>
+      <c r="BO71" s="28"/>
+      <c r="BP71" s="28"/>
+      <c r="BQ71" s="28"/>
+      <c r="BR71" s="28"/>
+      <c r="BS71" s="28"/>
       <c r="BT71" s="13"/>
       <c r="BU71" s="13"/>
       <c r="BV71" s="13"/>
@@ -10516,7 +11095,9 @@
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="H73" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
@@ -10532,7 +11113,9 @@
       <c r="U73" s="13"/>
       <c r="V73" s="13"/>
       <c r="W73" s="13"/>
-      <c r="X73" s="13"/>
+      <c r="X73" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
       <c r="AA73" s="13"/>
@@ -11190,7 +11773,9 @@
     </row>
     <row r="80" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
+      <c r="B80" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
@@ -11208,7 +11793,9 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
+      <c r="U80" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="V80" s="13"/>
       <c r="W80" s="13"/>
       <c r="X80" s="13"/>
@@ -11382,103 +11969,976 @@
       <c r="CQ81" s="13"/>
       <c r="CR81" s="15"/>
     </row>
-    <row r="82" spans="1:96" ht="15.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="22"/>
-      <c r="Z82" s="22"/>
-      <c r="AA82" s="22"/>
-      <c r="AB82" s="22"/>
-      <c r="AC82" s="22"/>
-      <c r="AD82" s="22"/>
-      <c r="AE82" s="22"/>
-      <c r="AF82" s="22"/>
-      <c r="AG82" s="22"/>
-      <c r="AH82" s="22"/>
-      <c r="AI82" s="22"/>
-      <c r="AJ82" s="22"/>
-      <c r="AK82" s="22"/>
-      <c r="AL82" s="22"/>
-      <c r="AM82" s="22"/>
-      <c r="AN82" s="22"/>
-      <c r="AO82" s="22"/>
-      <c r="AP82" s="22"/>
-      <c r="AQ82" s="22"/>
-      <c r="AR82" s="22"/>
-      <c r="AS82" s="22"/>
-      <c r="AT82" s="22"/>
-      <c r="AU82" s="22"/>
-      <c r="AV82" s="22"/>
-      <c r="AW82" s="22"/>
-      <c r="AX82" s="22"/>
-      <c r="AY82" s="22"/>
-      <c r="AZ82" s="22"/>
-      <c r="BA82" s="22"/>
-      <c r="BB82" s="22"/>
-      <c r="BC82" s="22"/>
-      <c r="BD82" s="22"/>
-      <c r="BE82" s="22"/>
-      <c r="BF82" s="22"/>
-      <c r="BG82" s="22"/>
-      <c r="BH82" s="22"/>
-      <c r="BI82" s="22"/>
-      <c r="BJ82" s="22"/>
-      <c r="BK82" s="22"/>
-      <c r="BL82" s="22"/>
-      <c r="BM82" s="22"/>
-      <c r="BN82" s="22"/>
-      <c r="BO82" s="22"/>
-      <c r="BP82" s="22"/>
-      <c r="BQ82" s="22"/>
-      <c r="BR82" s="22"/>
-      <c r="BS82" s="22"/>
-      <c r="BT82" s="22"/>
-      <c r="BU82" s="22"/>
-      <c r="BV82" s="22"/>
-      <c r="BW82" s="22"/>
-      <c r="BX82" s="22"/>
-      <c r="BY82" s="22"/>
-      <c r="BZ82" s="22"/>
-      <c r="CA82" s="22"/>
-      <c r="CB82" s="22"/>
-      <c r="CC82" s="22"/>
-      <c r="CD82" s="22"/>
-      <c r="CE82" s="22"/>
-      <c r="CF82" s="22"/>
-      <c r="CG82" s="22"/>
-      <c r="CH82" s="22"/>
-      <c r="CI82" s="22"/>
-      <c r="CJ82" s="22"/>
-      <c r="CK82" s="22"/>
-      <c r="CL82" s="22"/>
-      <c r="CM82" s="22"/>
-      <c r="CN82" s="22"/>
-      <c r="CO82" s="22"/>
-      <c r="CP82" s="22"/>
-      <c r="CQ82" s="22"/>
-      <c r="CR82" s="23"/>
+    <row r="82" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
+      <c r="Y82" s="13"/>
+      <c r="Z82" s="13"/>
+      <c r="AA82" s="13"/>
+      <c r="AB82" s="13"/>
+      <c r="AC82" s="13"/>
+      <c r="AD82" s="13"/>
+      <c r="AE82" s="13"/>
+      <c r="AF82" s="13"/>
+      <c r="AG82" s="13"/>
+      <c r="AH82" s="13"/>
+      <c r="AI82" s="13"/>
+      <c r="AJ82" s="13"/>
+      <c r="AK82" s="13"/>
+      <c r="AL82" s="13"/>
+      <c r="AM82" s="13"/>
+      <c r="AN82" s="13"/>
+      <c r="AO82" s="13"/>
+      <c r="AP82" s="13"/>
+      <c r="AQ82" s="13"/>
+      <c r="AR82" s="13"/>
+      <c r="AS82" s="13"/>
+      <c r="AT82" s="13"/>
+      <c r="AU82" s="13"/>
+      <c r="AV82" s="13"/>
+      <c r="AW82" s="13"/>
+      <c r="AX82" s="13"/>
+      <c r="AY82" s="13"/>
+      <c r="AZ82" s="13"/>
+      <c r="BA82" s="13"/>
+      <c r="BB82" s="13"/>
+      <c r="BC82" s="13"/>
+      <c r="BD82" s="13"/>
+      <c r="BE82" s="13"/>
+      <c r="BF82" s="13"/>
+      <c r="BG82" s="13"/>
+      <c r="BH82" s="13"/>
+      <c r="BI82" s="13"/>
+      <c r="BJ82" s="13"/>
+      <c r="BK82" s="13"/>
+      <c r="BL82" s="13"/>
+      <c r="BM82" s="13"/>
+      <c r="BN82" s="13"/>
+      <c r="BO82" s="13"/>
+      <c r="BP82" s="13"/>
+      <c r="BQ82" s="13"/>
+      <c r="BR82" s="13"/>
+      <c r="BS82" s="13"/>
+      <c r="BT82" s="13"/>
+      <c r="BU82" s="13"/>
+      <c r="BV82" s="13"/>
+      <c r="BW82" s="13"/>
+      <c r="BX82" s="13"/>
+      <c r="BY82" s="13"/>
+      <c r="BZ82" s="13"/>
+      <c r="CA82" s="13"/>
+      <c r="CB82" s="13"/>
+      <c r="CC82" s="13"/>
+      <c r="CD82" s="13"/>
+      <c r="CE82" s="13"/>
+      <c r="CF82" s="13"/>
+      <c r="CG82" s="13"/>
+      <c r="CH82" s="13"/>
+      <c r="CI82" s="13"/>
+      <c r="CJ82" s="13"/>
+      <c r="CK82" s="13"/>
+      <c r="CL82" s="13"/>
+      <c r="CM82" s="13"/>
+      <c r="CN82" s="13"/>
+      <c r="CO82" s="13"/>
+      <c r="CP82" s="13"/>
+      <c r="CQ82" s="13"/>
+      <c r="CR82" s="15"/>
+    </row>
+    <row r="83" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
+      <c r="Z83" s="13"/>
+      <c r="AA83" s="13"/>
+      <c r="AB83" s="13"/>
+      <c r="AC83" s="13"/>
+      <c r="AD83" s="13"/>
+      <c r="AE83" s="13"/>
+      <c r="AF83" s="13"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="13"/>
+      <c r="AI83" s="13"/>
+      <c r="AJ83" s="13"/>
+      <c r="AK83" s="13"/>
+      <c r="AL83" s="13"/>
+      <c r="AM83" s="13"/>
+      <c r="AN83" s="13"/>
+      <c r="AO83" s="13"/>
+      <c r="AP83" s="13"/>
+      <c r="AQ83" s="13"/>
+      <c r="AR83" s="13"/>
+      <c r="AS83" s="13"/>
+      <c r="AT83" s="13"/>
+      <c r="AU83" s="13"/>
+      <c r="AV83" s="13"/>
+      <c r="AW83" s="13"/>
+      <c r="AX83" s="13"/>
+      <c r="AY83" s="13"/>
+      <c r="AZ83" s="13"/>
+      <c r="BA83" s="13"/>
+      <c r="BB83" s="13"/>
+      <c r="BC83" s="13"/>
+      <c r="BD83" s="13"/>
+      <c r="BE83" s="13"/>
+      <c r="BF83" s="13"/>
+      <c r="BG83" s="13"/>
+      <c r="BH83" s="13"/>
+      <c r="BI83" s="13"/>
+      <c r="BJ83" s="13"/>
+      <c r="BK83" s="13"/>
+      <c r="BL83" s="13"/>
+      <c r="BM83" s="13"/>
+      <c r="BN83" s="13"/>
+      <c r="BO83" s="13"/>
+      <c r="BP83" s="13"/>
+      <c r="BQ83" s="13"/>
+      <c r="BR83" s="13"/>
+      <c r="BS83" s="13"/>
+      <c r="BT83" s="13"/>
+      <c r="BU83" s="13"/>
+      <c r="BV83" s="13"/>
+      <c r="BW83" s="13"/>
+      <c r="BX83" s="13"/>
+      <c r="BY83" s="13"/>
+      <c r="BZ83" s="13"/>
+      <c r="CA83" s="13"/>
+      <c r="CB83" s="13"/>
+      <c r="CC83" s="13"/>
+      <c r="CD83" s="13"/>
+      <c r="CE83" s="13"/>
+      <c r="CF83" s="13"/>
+      <c r="CG83" s="13"/>
+      <c r="CH83" s="13"/>
+      <c r="CI83" s="13"/>
+      <c r="CJ83" s="13"/>
+      <c r="CK83" s="13"/>
+      <c r="CL83" s="13"/>
+      <c r="CM83" s="13"/>
+      <c r="CN83" s="13"/>
+      <c r="CO83" s="13"/>
+      <c r="CP83" s="13"/>
+      <c r="CQ83" s="13"/>
+      <c r="CR83" s="15"/>
+    </row>
+    <row r="84" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="13"/>
+      <c r="AC84" s="13"/>
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13"/>
+      <c r="AF84" s="13"/>
+      <c r="AG84" s="13"/>
+      <c r="AH84" s="13"/>
+      <c r="AI84" s="13"/>
+      <c r="AJ84" s="13"/>
+      <c r="AK84" s="13"/>
+      <c r="AL84" s="13"/>
+      <c r="AM84" s="13"/>
+      <c r="AN84" s="13"/>
+      <c r="AO84" s="13"/>
+      <c r="AP84" s="13"/>
+      <c r="AQ84" s="13"/>
+      <c r="AR84" s="13"/>
+      <c r="AS84" s="13"/>
+      <c r="AT84" s="13"/>
+      <c r="AU84" s="13"/>
+      <c r="AV84" s="13"/>
+      <c r="AW84" s="13"/>
+      <c r="AX84" s="13"/>
+      <c r="AY84" s="13"/>
+      <c r="AZ84" s="13"/>
+      <c r="BA84" s="13"/>
+      <c r="BB84" s="13"/>
+      <c r="BC84" s="13"/>
+      <c r="BD84" s="13"/>
+      <c r="BE84" s="13"/>
+      <c r="BF84" s="13"/>
+      <c r="BG84" s="13"/>
+      <c r="BH84" s="13"/>
+      <c r="BI84" s="13"/>
+      <c r="BJ84" s="13"/>
+      <c r="BK84" s="13"/>
+      <c r="BL84" s="13"/>
+      <c r="BM84" s="13"/>
+      <c r="BN84" s="13"/>
+      <c r="BO84" s="13"/>
+      <c r="BP84" s="13"/>
+      <c r="BQ84" s="13"/>
+      <c r="BR84" s="13"/>
+      <c r="BS84" s="13"/>
+      <c r="BT84" s="13"/>
+      <c r="BU84" s="13"/>
+      <c r="BV84" s="13"/>
+      <c r="BW84" s="13"/>
+      <c r="BX84" s="13"/>
+      <c r="BY84" s="13"/>
+      <c r="BZ84" s="13"/>
+      <c r="CA84" s="13"/>
+      <c r="CB84" s="13"/>
+      <c r="CC84" s="13"/>
+      <c r="CD84" s="13"/>
+      <c r="CE84" s="13"/>
+      <c r="CF84" s="13"/>
+      <c r="CG84" s="13"/>
+      <c r="CH84" s="13"/>
+      <c r="CI84" s="13"/>
+      <c r="CJ84" s="13"/>
+      <c r="CK84" s="13"/>
+      <c r="CL84" s="13"/>
+      <c r="CM84" s="13"/>
+      <c r="CN84" s="13"/>
+      <c r="CO84" s="13"/>
+      <c r="CP84" s="13"/>
+      <c r="CQ84" s="13"/>
+      <c r="CR84" s="15"/>
+    </row>
+    <row r="85" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
+      <c r="Z85" s="13"/>
+      <c r="AA85" s="13"/>
+      <c r="AB85" s="13"/>
+      <c r="AC85" s="13"/>
+      <c r="AD85" s="13"/>
+      <c r="AE85" s="13"/>
+      <c r="AF85" s="13"/>
+      <c r="AG85" s="13"/>
+      <c r="AH85" s="13"/>
+      <c r="AI85" s="13"/>
+      <c r="AJ85" s="13"/>
+      <c r="AK85" s="13"/>
+      <c r="AL85" s="13"/>
+      <c r="AM85" s="13"/>
+      <c r="AN85" s="13"/>
+      <c r="AO85" s="13"/>
+      <c r="AP85" s="13"/>
+      <c r="AQ85" s="13"/>
+      <c r="AR85" s="13"/>
+      <c r="AS85" s="13"/>
+      <c r="AT85" s="13"/>
+      <c r="AU85" s="13"/>
+      <c r="AV85" s="13"/>
+      <c r="AW85" s="13"/>
+      <c r="AX85" s="13"/>
+      <c r="AY85" s="13"/>
+      <c r="AZ85" s="13"/>
+      <c r="BA85" s="13"/>
+      <c r="BB85" s="13"/>
+      <c r="BC85" s="13"/>
+      <c r="BD85" s="13"/>
+      <c r="BE85" s="13"/>
+      <c r="BF85" s="13"/>
+      <c r="BG85" s="13"/>
+      <c r="BH85" s="13"/>
+      <c r="BI85" s="13"/>
+      <c r="BJ85" s="13"/>
+      <c r="BK85" s="13"/>
+      <c r="BL85" s="13"/>
+      <c r="BM85" s="13"/>
+      <c r="BN85" s="13"/>
+      <c r="BO85" s="13"/>
+      <c r="BP85" s="13"/>
+      <c r="BQ85" s="13"/>
+      <c r="BR85" s="13"/>
+      <c r="BS85" s="13"/>
+      <c r="BT85" s="13"/>
+      <c r="BU85" s="13"/>
+      <c r="BV85" s="13"/>
+      <c r="BW85" s="13"/>
+      <c r="BX85" s="13"/>
+      <c r="BY85" s="13"/>
+      <c r="BZ85" s="13"/>
+      <c r="CA85" s="13"/>
+      <c r="CB85" s="13"/>
+      <c r="CC85" s="13"/>
+      <c r="CD85" s="13"/>
+      <c r="CE85" s="13"/>
+      <c r="CF85" s="13"/>
+      <c r="CG85" s="13"/>
+      <c r="CH85" s="13"/>
+      <c r="CI85" s="13"/>
+      <c r="CJ85" s="13"/>
+      <c r="CK85" s="13"/>
+      <c r="CL85" s="13"/>
+      <c r="CM85" s="13"/>
+      <c r="CN85" s="13"/>
+      <c r="CO85" s="13"/>
+      <c r="CP85" s="13"/>
+      <c r="CQ85" s="13"/>
+      <c r="CR85" s="15"/>
+    </row>
+    <row r="86" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="13"/>
+      <c r="X86" s="13"/>
+      <c r="Y86" s="13"/>
+      <c r="Z86" s="13"/>
+      <c r="AA86" s="13"/>
+      <c r="AB86" s="13"/>
+      <c r="AC86" s="13"/>
+      <c r="AD86" s="13"/>
+      <c r="AE86" s="13"/>
+      <c r="AF86" s="13"/>
+      <c r="AG86" s="13"/>
+      <c r="AH86" s="13"/>
+      <c r="AI86" s="13"/>
+      <c r="AJ86" s="13"/>
+      <c r="AK86" s="13"/>
+      <c r="AL86" s="13"/>
+      <c r="AM86" s="13"/>
+      <c r="AN86" s="13"/>
+      <c r="AO86" s="13"/>
+      <c r="AP86" s="13"/>
+      <c r="AQ86" s="13"/>
+      <c r="AR86" s="13"/>
+      <c r="AS86" s="13"/>
+      <c r="AT86" s="13"/>
+      <c r="AU86" s="13"/>
+      <c r="AV86" s="13"/>
+      <c r="AW86" s="13"/>
+      <c r="AX86" s="13"/>
+      <c r="AY86" s="13"/>
+      <c r="AZ86" s="13"/>
+      <c r="BA86" s="13"/>
+      <c r="BB86" s="13"/>
+      <c r="BC86" s="13"/>
+      <c r="BD86" s="13"/>
+      <c r="BE86" s="13"/>
+      <c r="BF86" s="13"/>
+      <c r="BG86" s="13"/>
+      <c r="BH86" s="13"/>
+      <c r="BI86" s="13"/>
+      <c r="BJ86" s="13"/>
+      <c r="BK86" s="13"/>
+      <c r="BL86" s="13"/>
+      <c r="BM86" s="13"/>
+      <c r="BN86" s="13"/>
+      <c r="BO86" s="13"/>
+      <c r="BP86" s="13"/>
+      <c r="BQ86" s="13"/>
+      <c r="BR86" s="13"/>
+      <c r="BS86" s="13"/>
+      <c r="BT86" s="13"/>
+      <c r="BU86" s="13"/>
+      <c r="BV86" s="13"/>
+      <c r="BW86" s="13"/>
+      <c r="BX86" s="13"/>
+      <c r="BY86" s="13"/>
+      <c r="BZ86" s="13"/>
+      <c r="CA86" s="13"/>
+      <c r="CB86" s="13"/>
+      <c r="CC86" s="13"/>
+      <c r="CD86" s="13"/>
+      <c r="CE86" s="13"/>
+      <c r="CF86" s="13"/>
+      <c r="CG86" s="13"/>
+      <c r="CH86" s="13"/>
+      <c r="CI86" s="13"/>
+      <c r="CJ86" s="13"/>
+      <c r="CK86" s="13"/>
+      <c r="CL86" s="13"/>
+      <c r="CM86" s="13"/>
+      <c r="CN86" s="13"/>
+      <c r="CO86" s="13"/>
+      <c r="CP86" s="13"/>
+      <c r="CQ86" s="13"/>
+      <c r="CR86" s="15"/>
+    </row>
+    <row r="87" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="13"/>
+      <c r="X87" s="13"/>
+      <c r="Y87" s="13"/>
+      <c r="Z87" s="13"/>
+      <c r="AA87" s="13"/>
+      <c r="AB87" s="13"/>
+      <c r="AC87" s="13"/>
+      <c r="AD87" s="13"/>
+      <c r="AE87" s="13"/>
+      <c r="AF87" s="13"/>
+      <c r="AG87" s="13"/>
+      <c r="AH87" s="13"/>
+      <c r="AI87" s="13"/>
+      <c r="AJ87" s="13"/>
+      <c r="AK87" s="13"/>
+      <c r="AL87" s="13"/>
+      <c r="AM87" s="13"/>
+      <c r="AN87" s="13"/>
+      <c r="AO87" s="13"/>
+      <c r="AP87" s="13"/>
+      <c r="AQ87" s="13"/>
+      <c r="AR87" s="13"/>
+      <c r="AS87" s="13"/>
+      <c r="AT87" s="13"/>
+      <c r="AU87" s="13"/>
+      <c r="AV87" s="13"/>
+      <c r="AW87" s="13"/>
+      <c r="AX87" s="13"/>
+      <c r="AY87" s="13"/>
+      <c r="AZ87" s="13"/>
+      <c r="BA87" s="13"/>
+      <c r="BB87" s="13"/>
+      <c r="BC87" s="13"/>
+      <c r="BD87" s="13"/>
+      <c r="BE87" s="13"/>
+      <c r="BF87" s="13"/>
+      <c r="BG87" s="13"/>
+      <c r="BH87" s="13"/>
+      <c r="BI87" s="13"/>
+      <c r="BJ87" s="13"/>
+      <c r="BK87" s="13"/>
+      <c r="BL87" s="13"/>
+      <c r="BM87" s="13"/>
+      <c r="BN87" s="13"/>
+      <c r="BO87" s="13"/>
+      <c r="BP87" s="13"/>
+      <c r="BQ87" s="13"/>
+      <c r="BR87" s="13"/>
+      <c r="BS87" s="13"/>
+      <c r="BT87" s="13"/>
+      <c r="BU87" s="13"/>
+      <c r="BV87" s="13"/>
+      <c r="BW87" s="13"/>
+      <c r="BX87" s="13"/>
+      <c r="BY87" s="13"/>
+      <c r="BZ87" s="13"/>
+      <c r="CA87" s="13"/>
+      <c r="CB87" s="13"/>
+      <c r="CC87" s="13"/>
+      <c r="CD87" s="13"/>
+      <c r="CE87" s="13"/>
+      <c r="CF87" s="13"/>
+      <c r="CG87" s="13"/>
+      <c r="CH87" s="13"/>
+      <c r="CI87" s="13"/>
+      <c r="CJ87" s="13"/>
+      <c r="CK87" s="13"/>
+      <c r="CL87" s="13"/>
+      <c r="CM87" s="13"/>
+      <c r="CN87" s="13"/>
+      <c r="CO87" s="13"/>
+      <c r="CP87" s="13"/>
+      <c r="CQ87" s="13"/>
+      <c r="CR87" s="15"/>
+    </row>
+    <row r="88" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="13"/>
+      <c r="Z88" s="13"/>
+      <c r="AA88" s="13"/>
+      <c r="AB88" s="13"/>
+      <c r="AC88" s="13"/>
+      <c r="AD88" s="13"/>
+      <c r="AE88" s="13"/>
+      <c r="AF88" s="13"/>
+      <c r="AG88" s="13"/>
+      <c r="AH88" s="13"/>
+      <c r="AI88" s="13"/>
+      <c r="AJ88" s="13"/>
+      <c r="AK88" s="13"/>
+      <c r="AL88" s="13"/>
+      <c r="AM88" s="13"/>
+      <c r="AN88" s="13"/>
+      <c r="AO88" s="13"/>
+      <c r="AP88" s="13"/>
+      <c r="AQ88" s="13"/>
+      <c r="AR88" s="13"/>
+      <c r="AS88" s="13"/>
+      <c r="AT88" s="13"/>
+      <c r="AU88" s="13"/>
+      <c r="AV88" s="13"/>
+      <c r="AW88" s="13"/>
+      <c r="AX88" s="13"/>
+      <c r="AY88" s="13"/>
+      <c r="AZ88" s="13"/>
+      <c r="BA88" s="13"/>
+      <c r="BB88" s="13"/>
+      <c r="BC88" s="13"/>
+      <c r="BD88" s="13"/>
+      <c r="BE88" s="13"/>
+      <c r="BF88" s="13"/>
+      <c r="BG88" s="13"/>
+      <c r="BH88" s="13"/>
+      <c r="BI88" s="13"/>
+      <c r="BJ88" s="13"/>
+      <c r="BK88" s="13"/>
+      <c r="BL88" s="13"/>
+      <c r="BM88" s="13"/>
+      <c r="BN88" s="13"/>
+      <c r="BO88" s="13"/>
+      <c r="BP88" s="13"/>
+      <c r="BQ88" s="13"/>
+      <c r="BR88" s="13"/>
+      <c r="BS88" s="13"/>
+      <c r="BT88" s="13"/>
+      <c r="BU88" s="13"/>
+      <c r="BV88" s="13"/>
+      <c r="BW88" s="13"/>
+      <c r="BX88" s="13"/>
+      <c r="BY88" s="13"/>
+      <c r="BZ88" s="13"/>
+      <c r="CA88" s="13"/>
+      <c r="CB88" s="13"/>
+      <c r="CC88" s="13"/>
+      <c r="CD88" s="13"/>
+      <c r="CE88" s="13"/>
+      <c r="CF88" s="13"/>
+      <c r="CG88" s="13"/>
+      <c r="CH88" s="13"/>
+      <c r="CI88" s="13"/>
+      <c r="CJ88" s="13"/>
+      <c r="CK88" s="13"/>
+      <c r="CL88" s="13"/>
+      <c r="CM88" s="13"/>
+      <c r="CN88" s="13"/>
+      <c r="CO88" s="13"/>
+      <c r="CP88" s="13"/>
+      <c r="CQ88" s="13"/>
+      <c r="CR88" s="15"/>
+    </row>
+    <row r="89" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
+      <c r="X89" s="13"/>
+      <c r="Y89" s="13"/>
+      <c r="Z89" s="13"/>
+      <c r="AA89" s="13"/>
+      <c r="AB89" s="13"/>
+      <c r="AC89" s="13"/>
+      <c r="AD89" s="13"/>
+      <c r="AE89" s="13"/>
+      <c r="AF89" s="13"/>
+      <c r="AG89" s="13"/>
+      <c r="AH89" s="13"/>
+      <c r="AI89" s="13"/>
+      <c r="AJ89" s="13"/>
+      <c r="AK89" s="13"/>
+      <c r="AL89" s="13"/>
+      <c r="AM89" s="13"/>
+      <c r="AN89" s="13"/>
+      <c r="AO89" s="13"/>
+      <c r="AP89" s="13"/>
+      <c r="AQ89" s="13"/>
+      <c r="AR89" s="13"/>
+      <c r="AS89" s="13"/>
+      <c r="AT89" s="13"/>
+      <c r="AU89" s="13"/>
+      <c r="AV89" s="13"/>
+      <c r="AW89" s="13"/>
+      <c r="AX89" s="13"/>
+      <c r="AY89" s="13"/>
+      <c r="AZ89" s="13"/>
+      <c r="BA89" s="13"/>
+      <c r="BB89" s="13"/>
+      <c r="BC89" s="13"/>
+      <c r="BD89" s="13"/>
+      <c r="BE89" s="13"/>
+      <c r="BF89" s="13"/>
+      <c r="BG89" s="13"/>
+      <c r="BH89" s="13"/>
+      <c r="BI89" s="13"/>
+      <c r="BJ89" s="13"/>
+      <c r="BK89" s="13"/>
+      <c r="BL89" s="13"/>
+      <c r="BM89" s="13"/>
+      <c r="BN89" s="13"/>
+      <c r="BO89" s="13"/>
+      <c r="BP89" s="13"/>
+      <c r="BQ89" s="13"/>
+      <c r="BR89" s="13"/>
+      <c r="BS89" s="13"/>
+      <c r="BT89" s="13"/>
+      <c r="BU89" s="13"/>
+      <c r="BV89" s="13"/>
+      <c r="BW89" s="13"/>
+      <c r="BX89" s="13"/>
+      <c r="BY89" s="13"/>
+      <c r="BZ89" s="13"/>
+      <c r="CA89" s="13"/>
+      <c r="CB89" s="13"/>
+      <c r="CC89" s="13"/>
+      <c r="CD89" s="13"/>
+      <c r="CE89" s="13"/>
+      <c r="CF89" s="13"/>
+      <c r="CG89" s="13"/>
+      <c r="CH89" s="13"/>
+      <c r="CI89" s="13"/>
+      <c r="CJ89" s="13"/>
+      <c r="CK89" s="13"/>
+      <c r="CL89" s="13"/>
+      <c r="CM89" s="13"/>
+      <c r="CN89" s="13"/>
+      <c r="CO89" s="13"/>
+      <c r="CP89" s="13"/>
+      <c r="CQ89" s="13"/>
+      <c r="CR89" s="15"/>
+    </row>
+    <row r="90" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
+      <c r="X90" s="13"/>
+      <c r="Y90" s="13"/>
+      <c r="Z90" s="13"/>
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13"/>
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="13"/>
+      <c r="AG90" s="13"/>
+      <c r="AH90" s="13"/>
+      <c r="AI90" s="13"/>
+      <c r="AJ90" s="13"/>
+      <c r="AK90" s="13"/>
+      <c r="AL90" s="13"/>
+      <c r="AM90" s="13"/>
+      <c r="AN90" s="13"/>
+      <c r="AO90" s="13"/>
+      <c r="AP90" s="13"/>
+      <c r="AQ90" s="13"/>
+      <c r="AR90" s="13"/>
+      <c r="AS90" s="13"/>
+      <c r="AT90" s="13"/>
+      <c r="AU90" s="13"/>
+      <c r="AV90" s="13"/>
+      <c r="AW90" s="13"/>
+      <c r="AX90" s="13"/>
+      <c r="AY90" s="13"/>
+      <c r="AZ90" s="13"/>
+      <c r="BA90" s="13"/>
+      <c r="BB90" s="13"/>
+      <c r="BC90" s="13"/>
+      <c r="BD90" s="13"/>
+      <c r="BE90" s="13"/>
+      <c r="BF90" s="13"/>
+      <c r="BG90" s="13"/>
+      <c r="BH90" s="13"/>
+      <c r="BI90" s="13"/>
+      <c r="BJ90" s="13"/>
+      <c r="BK90" s="13"/>
+      <c r="BL90" s="13"/>
+      <c r="BM90" s="13"/>
+      <c r="BN90" s="13"/>
+      <c r="BO90" s="13"/>
+      <c r="BP90" s="13"/>
+      <c r="BQ90" s="13"/>
+      <c r="BR90" s="13"/>
+      <c r="BS90" s="13"/>
+      <c r="BT90" s="13"/>
+      <c r="BU90" s="13"/>
+      <c r="BV90" s="13"/>
+      <c r="BW90" s="13"/>
+      <c r="BX90" s="13"/>
+      <c r="BY90" s="13"/>
+      <c r="BZ90" s="13"/>
+      <c r="CA90" s="13"/>
+      <c r="CB90" s="13"/>
+      <c r="CC90" s="13"/>
+      <c r="CD90" s="13"/>
+      <c r="CE90" s="13"/>
+      <c r="CF90" s="13"/>
+      <c r="CG90" s="13"/>
+      <c r="CH90" s="13"/>
+      <c r="CI90" s="13"/>
+      <c r="CJ90" s="13"/>
+      <c r="CK90" s="13"/>
+      <c r="CL90" s="13"/>
+      <c r="CM90" s="13"/>
+      <c r="CN90" s="13"/>
+      <c r="CO90" s="13"/>
+      <c r="CP90" s="13"/>
+      <c r="CQ90" s="13"/>
+      <c r="CR90" s="15"/>
+    </row>
+    <row r="91" spans="1:96" ht="15.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
+      <c r="V91" s="22"/>
+      <c r="W91" s="22"/>
+      <c r="X91" s="22"/>
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="22"/>
+      <c r="AA91" s="22"/>
+      <c r="AB91" s="22"/>
+      <c r="AC91" s="22"/>
+      <c r="AD91" s="22"/>
+      <c r="AE91" s="22"/>
+      <c r="AF91" s="22"/>
+      <c r="AG91" s="22"/>
+      <c r="AH91" s="22"/>
+      <c r="AI91" s="22"/>
+      <c r="AJ91" s="22"/>
+      <c r="AK91" s="22"/>
+      <c r="AL91" s="22"/>
+      <c r="AM91" s="22"/>
+      <c r="AN91" s="22"/>
+      <c r="AO91" s="22"/>
+      <c r="AP91" s="22"/>
+      <c r="AQ91" s="22"/>
+      <c r="AR91" s="22"/>
+      <c r="AS91" s="22"/>
+      <c r="AT91" s="22"/>
+      <c r="AU91" s="22"/>
+      <c r="AV91" s="22"/>
+      <c r="AW91" s="22"/>
+      <c r="AX91" s="22"/>
+      <c r="AY91" s="22"/>
+      <c r="AZ91" s="22"/>
+      <c r="BA91" s="22"/>
+      <c r="BB91" s="22"/>
+      <c r="BC91" s="22"/>
+      <c r="BD91" s="22"/>
+      <c r="BE91" s="22"/>
+      <c r="BF91" s="22"/>
+      <c r="BG91" s="22"/>
+      <c r="BH91" s="22"/>
+      <c r="BI91" s="22"/>
+      <c r="BJ91" s="22"/>
+      <c r="BK91" s="22"/>
+      <c r="BL91" s="22"/>
+      <c r="BM91" s="22"/>
+      <c r="BN91" s="22"/>
+      <c r="BO91" s="22"/>
+      <c r="BP91" s="22"/>
+      <c r="BQ91" s="22"/>
+      <c r="BR91" s="22"/>
+      <c r="BS91" s="22"/>
+      <c r="BT91" s="22"/>
+      <c r="BU91" s="22"/>
+      <c r="BV91" s="22"/>
+      <c r="BW91" s="22"/>
+      <c r="BX91" s="22"/>
+      <c r="BY91" s="22"/>
+      <c r="BZ91" s="22"/>
+      <c r="CA91" s="22"/>
+      <c r="CB91" s="22"/>
+      <c r="CC91" s="22"/>
+      <c r="CD91" s="22"/>
+      <c r="CE91" s="22"/>
+      <c r="CF91" s="22"/>
+      <c r="CG91" s="22"/>
+      <c r="CH91" s="22"/>
+      <c r="CI91" s="22"/>
+      <c r="CJ91" s="22"/>
+      <c r="CK91" s="22"/>
+      <c r="CL91" s="22"/>
+      <c r="CM91" s="22"/>
+      <c r="CN91" s="22"/>
+      <c r="CO91" s="22"/>
+      <c r="CP91" s="22"/>
+      <c r="CQ91" s="22"/>
+      <c r="CR91" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11493,13 +12953,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" fitToHeight="5" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="5" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;L&amp;A&amp;R&amp;F</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="42" max="96" man="1"/>
+    <brk id="50" max="96" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/03.要件定義/〇×ゲーム_要件定義書.xlsx
+++ b/03.要件定義/〇×ゲーム_要件定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DORAMI\public\新人研修\2017\03.社内プロジェクト\10.要件定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahari\Documents\○×定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$K$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">要件定義書!$A$1:$CS$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">要件定義書!$A$1:$CS$91</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>・開発ツール</t>
     <rPh sb="1" eb="3">
@@ -324,28 +324,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・更新された盤面データを次手番のクライアントプログラムに送信する。</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>●モニタープログラム</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -372,13 +350,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>盤面データ</t>
-    <rPh sb="0" eb="2">
-      <t>バンメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -391,29 +362,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・クライアントプログラムから指し手データを受信する。</t>
-    <rPh sb="14" eb="15">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジュシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>指し手データ</t>
-    <rPh sb="0" eb="1">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>：ルール判定（既に○or×が置かれている箇所に重ねて置いていないか等の判定）</t>
     <rPh sb="4" eb="6">
       <t>ハンテイ</t>
@@ -438,25 +386,6 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・データベースから指し手データを取得し、画面表示する。</t>
-    <rPh sb="9" eb="10">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -526,85 +455,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・次の手を決定するロジック（Brain）で決定した手を反映させた盤面データを、サーバプログラムに送信する。</t>
-    <rPh sb="21" eb="23">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・クライアントから取得した盤面データを元にサーバー内の盤面データを更新。</t>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・クライアントから取得した盤面データ、サーバー内盤面データを元に指し手データを作成。</t>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・指し手データと勝敗データをデータベースに送信する。</t>
-    <rPh sb="1" eb="2">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -701,55 +551,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>：試合結果データ</t>
-    <rPh sb="1" eb="3">
-      <t>シアイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>：指し手情報データ</t>
-    <rPh sb="1" eb="2">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>指し手情報データ、試合結果データ</t>
-    <rPh sb="0" eb="1">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ロジック情報データ</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>：先攻後攻判定</t>
     <rPh sb="1" eb="3">
       <t>センコウ</t>
@@ -759,80 +560,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>当システムは、アプリケーション間通信を使用し2つのマシン間で○×ゲーム</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(三目並べ)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を行うシステムである。</t>
-    </r>
-    <rPh sb="36" eb="37">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>モク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ナラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クライアントプログラムがサーバープログラムから</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>盤面データを受信し、次の手を決定する。</t>
-    </r>
-    <rPh sb="24" eb="26">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -992,6 +719,542 @@
   <si>
     <t>0.1版の修正
 システム概要図追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当システムは、アプリケーション間通信を使用し2つのマシン間で○×ゲーム(三目並べ)を行うシステムである。</t>
+    <rPh sb="36" eb="37">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロジック情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指し手情報、試合結果情報</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>盤面情報</t>
+    <rPh sb="0" eb="2">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>：指し手情報</t>
+    <rPh sb="1" eb="2">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>：試合結果情報</t>
+    <rPh sb="1" eb="3">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・指し手情報と試合結果情報をデータベースに送信する。</t>
+    <rPh sb="1" eb="2">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・クライアントプログラムがサーバープログラムから盤面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を受信し、次の手を決定する。</t>
+    </r>
+    <rPh sb="24" eb="26">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・更新された盤面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を次手番のクライアントプログラムに送信する。</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・クライアントプログラムから指し手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>情報とロジック情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を受信する。</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指し手情報、ロジック情報</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>webサーバーが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データベースから</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>指し手情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を取得し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ブラウザで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>画面表示する。</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各情報</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各情報</t>
+    <rPh sb="0" eb="3">
+      <t>カクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <r>
+      <t>・次の手を決定するロジック（Brain）で決定した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>指し手情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を、サーバプログラムに送信する。</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・クライアントから取得した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>指し手情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を元にサーバー内の盤面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を更新。</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・クライアントから取得した指し手情報、サーバー内盤面データを元に指し手データを作成。</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各章
+「データ」→「情報」に統一（★20）
+３　機能要件
+必要のなくなった処理を削除（★20）
+4　システム概要図
+webサーバー図の追加（★20）</t>
+    <rPh sb="0" eb="2">
+      <t>カクショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1048,19 +1311,19 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="0"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
+      <strike/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
@@ -1299,7 +1562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -1353,17 +1616,18 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,6 +1670,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1428,15 +1696,75 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058025" y="11763375"/>
+          <a:ext cx="2505075" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1487,13 +1815,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1538,14 +1866,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>クライアント</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" strike="sngStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>１</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" strike="sngStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1555,13 +1880,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1606,14 +1931,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>クライアント</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" strike="sngStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>２</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" strike="sngStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -1636,13 +1953,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1652,8 +1969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="9963150"/>
-          <a:ext cx="1362075" cy="1828800"/>
+          <a:off x="4429125" y="11868149"/>
+          <a:ext cx="1362075" cy="2209801"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1694,22 +2011,58 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>指し手データ</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>指し手情報</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>勝敗データ</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>試合結果情報</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ロジック情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1719,13 +2072,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1766,13 +2119,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1813,13 +2166,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1861,15 +2214,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1879,8 +2232,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1962150" y="11877675"/>
-          <a:ext cx="866775" cy="1190625"/>
+          <a:off x="2095500" y="13982700"/>
+          <a:ext cx="733425" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1910,13 +2263,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1960,13 +2313,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2030,13 +2383,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2100,13 +2453,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2168,15 +2521,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2186,8 +2539,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7096125" y="10134600"/>
-          <a:ext cx="1552575" cy="2038350"/>
+          <a:off x="7553325" y="14897100"/>
+          <a:ext cx="1552575" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2230,15 +2583,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2287,15 +2640,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2305,8 +2658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7667625" y="10620375"/>
-          <a:ext cx="323850" cy="324000"/>
+          <a:off x="8124825" y="15506700"/>
+          <a:ext cx="323850" cy="447825"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2344,15 +2697,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2401,15 +2754,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2458,15 +2811,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2515,15 +2868,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2572,15 +2925,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2629,15 +2982,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2686,15 +3039,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2743,15 +3096,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>15975</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>44550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2805,15 +3158,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>92175</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>168375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2867,15 +3220,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>82650</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>168375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2929,15 +3282,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>6450</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>101700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2991,15 +3344,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3053,15 +3406,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3115,15 +3468,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3177,15 +3530,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3239,15 +3592,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3303,13 +3656,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3364,34 +3717,108 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5857875" y="12496800"/>
-          <a:ext cx="1209675" cy="600075"/>
+          <a:off x="7210425" y="12039600"/>
+          <a:ext cx="1876425" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>サーバー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="13096875"/>
+          <a:ext cx="1495425" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3416,10 +3843,70 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各情報の取得、送信</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048625" y="13773150"/>
+          <a:ext cx="9525" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="127000">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3688,10 +4175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J10"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3771,11 +4258,11 @@
       <c r="E6" s="8">
         <v>42935</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>89</v>
+      <c r="F6" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>33</v>
@@ -3792,16 +4279,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E7" s="8">
         <v>42935</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>90</v>
+        <v>54</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>33</v>
@@ -3810,7 +4297,7 @@
         <v>34</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.15">
@@ -3818,16 +4305,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E8" s="8">
         <v>42940</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>89</v>
+        <v>59</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>33</v>
@@ -3836,7 +4323,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="90" x14ac:dyDescent="0.15">
@@ -3844,25 +4331,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E9" s="8">
         <v>42942</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>89</v>
+      <c r="F9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="90" x14ac:dyDescent="0.15">
@@ -3870,16 +4357,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E10" s="8">
         <v>42947</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>89</v>
+      <c r="F10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>33</v>
@@ -3888,7 +4375,33 @@
         <v>34</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="90" x14ac:dyDescent="0.15">
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42949</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3907,423 +4420,423 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR91"/>
+  <dimension ref="A1:CR90"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="2" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:96" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="33"/>
-      <c r="BY1" s="33"/>
-      <c r="BZ1" s="33"/>
-      <c r="CA1" s="33"/>
-      <c r="CB1" s="33"/>
-      <c r="CC1" s="33"/>
-      <c r="CD1" s="33"/>
-      <c r="CE1" s="33"/>
-      <c r="CF1" s="33"/>
-      <c r="CG1" s="33"/>
-      <c r="CH1" s="33"/>
-      <c r="CI1" s="33"/>
-      <c r="CJ1" s="33"/>
-      <c r="CK1" s="33"/>
-      <c r="CL1" s="33"/>
-      <c r="CM1" s="33"/>
-      <c r="CN1" s="33"/>
-      <c r="CO1" s="33"/>
-      <c r="CP1" s="33"/>
-      <c r="CQ1" s="33"/>
-      <c r="CR1" s="36"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="34"/>
+      <c r="CC1" s="34"/>
+      <c r="CD1" s="34"/>
+      <c r="CE1" s="34"/>
+      <c r="CF1" s="34"/>
+      <c r="CG1" s="34"/>
+      <c r="CH1" s="34"/>
+      <c r="CI1" s="34"/>
+      <c r="CJ1" s="34"/>
+      <c r="CK1" s="34"/>
+      <c r="CL1" s="34"/>
+      <c r="CM1" s="34"/>
+      <c r="CN1" s="34"/>
+      <c r="CO1" s="34"/>
+      <c r="CP1" s="34"/>
+      <c r="CQ1" s="34"/>
+      <c r="CR1" s="37"/>
     </row>
-    <row r="2" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="35"/>
-      <c r="BN2" s="35"/>
-      <c r="BO2" s="35"/>
-      <c r="BP2" s="35"/>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="35"/>
-      <c r="CC2" s="35"/>
-      <c r="CD2" s="35"/>
-      <c r="CE2" s="35"/>
-      <c r="CF2" s="35"/>
-      <c r="CG2" s="35"/>
-      <c r="CH2" s="35"/>
-      <c r="CI2" s="35"/>
-      <c r="CJ2" s="35"/>
-      <c r="CK2" s="35"/>
-      <c r="CL2" s="35"/>
-      <c r="CM2" s="35"/>
-      <c r="CN2" s="35"/>
-      <c r="CO2" s="35"/>
-      <c r="CP2" s="35"/>
-      <c r="CQ2" s="35"/>
-      <c r="CR2" s="37"/>
+    <row r="2" spans="1:96" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="36"/>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36"/>
+      <c r="BO2" s="36"/>
+      <c r="BP2" s="36"/>
+      <c r="BQ2" s="36"/>
+      <c r="BR2" s="36"/>
+      <c r="BS2" s="36"/>
+      <c r="BT2" s="36"/>
+      <c r="BU2" s="36"/>
+      <c r="BV2" s="36"/>
+      <c r="BW2" s="36"/>
+      <c r="BX2" s="36"/>
+      <c r="BY2" s="36"/>
+      <c r="BZ2" s="36"/>
+      <c r="CA2" s="36"/>
+      <c r="CB2" s="36"/>
+      <c r="CC2" s="36"/>
+      <c r="CD2" s="36"/>
+      <c r="CE2" s="36"/>
+      <c r="CF2" s="36"/>
+      <c r="CG2" s="36"/>
+      <c r="CH2" s="36"/>
+      <c r="CI2" s="36"/>
+      <c r="CJ2" s="36"/>
+      <c r="CK2" s="36"/>
+      <c r="CL2" s="36"/>
+      <c r="CM2" s="36"/>
+      <c r="CN2" s="36"/>
+      <c r="CO2" s="36"/>
+      <c r="CP2" s="36"/>
+      <c r="CQ2" s="36"/>
+      <c r="CR2" s="38"/>
     </row>
-    <row r="3" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:96" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="42" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42" t="s">
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="42"/>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="42"/>
-      <c r="CC3" s="42"/>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="42"/>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="42"/>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42"/>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42"/>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="44"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="43"/>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="43"/>
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="45"/>
     </row>
-    <row r="4" spans="1:96" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="43"/>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="43"/>
-      <c r="BN4" s="43"/>
-      <c r="BO4" s="43"/>
-      <c r="BP4" s="43"/>
-      <c r="BQ4" s="43"/>
-      <c r="BR4" s="43"/>
-      <c r="BS4" s="43"/>
-      <c r="BT4" s="43"/>
-      <c r="BU4" s="43"/>
-      <c r="BV4" s="43"/>
-      <c r="BW4" s="43"/>
-      <c r="BX4" s="43"/>
-      <c r="BY4" s="43"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="43"/>
-      <c r="CB4" s="43"/>
-      <c r="CC4" s="43"/>
-      <c r="CD4" s="43"/>
-      <c r="CE4" s="43"/>
-      <c r="CF4" s="43"/>
-      <c r="CG4" s="43"/>
-      <c r="CH4" s="43"/>
-      <c r="CI4" s="43"/>
-      <c r="CJ4" s="43"/>
-      <c r="CK4" s="43"/>
-      <c r="CL4" s="43"/>
-      <c r="CM4" s="43"/>
-      <c r="CN4" s="43"/>
-      <c r="CO4" s="43"/>
-      <c r="CP4" s="43"/>
-      <c r="CQ4" s="43"/>
-      <c r="CR4" s="45"/>
+    <row r="4" spans="1:96" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="44"/>
+      <c r="BJ4" s="44"/>
+      <c r="BK4" s="44"/>
+      <c r="BL4" s="44"/>
+      <c r="BM4" s="44"/>
+      <c r="BN4" s="44"/>
+      <c r="BO4" s="44"/>
+      <c r="BP4" s="44"/>
+      <c r="BQ4" s="44"/>
+      <c r="BR4" s="44"/>
+      <c r="BS4" s="44"/>
+      <c r="BT4" s="44"/>
+      <c r="BU4" s="44"/>
+      <c r="BV4" s="44"/>
+      <c r="BW4" s="44"/>
+      <c r="BX4" s="44"/>
+      <c r="BY4" s="44"/>
+      <c r="BZ4" s="44"/>
+      <c r="CA4" s="44"/>
+      <c r="CB4" s="44"/>
+      <c r="CC4" s="44"/>
+      <c r="CD4" s="44"/>
+      <c r="CE4" s="44"/>
+      <c r="CF4" s="44"/>
+      <c r="CG4" s="44"/>
+      <c r="CH4" s="44"/>
+      <c r="CI4" s="44"/>
+      <c r="CJ4" s="44"/>
+      <c r="CK4" s="44"/>
+      <c r="CL4" s="44"/>
+      <c r="CM4" s="44"/>
+      <c r="CN4" s="44"/>
+      <c r="CO4" s="44"/>
+      <c r="CP4" s="44"/>
+      <c r="CQ4" s="44"/>
+      <c r="CR4" s="46"/>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4421,7 +4934,7 @@
       <c r="CQ5" s="13"/>
       <c r="CR5" s="15"/>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -4523,7 +5036,7 @@
       <c r="CQ6" s="17"/>
       <c r="CR6" s="18"/>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4621,10 +5134,10 @@
       <c r="CQ7" s="13"/>
       <c r="CR7" s="15"/>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4721,7 +5234,7 @@
       <c r="CQ8" s="13"/>
       <c r="CR8" s="15"/>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4819,58 +5332,58 @@
       <c r="CQ9" s="13"/>
       <c r="CR9" s="15"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
-      <c r="B10" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="30"/>
+      <c r="B10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
       <c r="AY10" s="13"/>
       <c r="AZ10" s="13"/>
@@ -4919,58 +5432,58 @@
       <c r="CQ10" s="13"/>
       <c r="CR10" s="15"/>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="30"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
       <c r="AX11" s="13"/>
       <c r="AY11" s="13"/>
       <c r="AZ11" s="13"/>
@@ -5019,58 +5532,58 @@
       <c r="CQ11" s="13"/>
       <c r="CR11" s="15"/>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
-      <c r="AQ12" s="30"/>
-      <c r="AR12" s="30"/>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="30"/>
-      <c r="AU12" s="30"/>
-      <c r="AV12" s="30"/>
-      <c r="AW12" s="30"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
       <c r="AX12" s="13"/>
       <c r="AY12" s="13"/>
       <c r="AZ12" s="13"/>
@@ -5119,7 +5632,7 @@
       <c r="CQ12" s="13"/>
       <c r="CR12" s="15"/>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -5217,7 +5730,7 @@
       <c r="CQ13" s="13"/>
       <c r="CR13" s="15"/>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
@@ -5317,7 +5830,7 @@
       <c r="CQ14" s="13"/>
       <c r="CR14" s="15"/>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -5417,7 +5930,7 @@
       <c r="CQ15" s="13"/>
       <c r="CR15" s="15"/>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -5515,7 +6028,7 @@
       <c r="CQ16" s="13"/>
       <c r="CR16" s="15"/>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
         <v>38</v>
@@ -5615,7 +6128,7 @@
       <c r="CQ17" s="13"/>
       <c r="CR17" s="15"/>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -5713,11 +6226,11 @@
       <c r="CQ18" s="13"/>
       <c r="CR18" s="15"/>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -5813,11 +6326,11 @@
       <c r="CQ19" s="13"/>
       <c r="CR19" s="15"/>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -5913,7 +6426,7 @@
       <c r="CQ20" s="13"/>
       <c r="CR20" s="15"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
@@ -6013,7 +6526,7 @@
       <c r="CQ21" s="13"/>
       <c r="CR21" s="15"/>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
@@ -6113,7 +6626,7 @@
       <c r="CQ22" s="13"/>
       <c r="CR22" s="15"/>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -6211,7 +6724,7 @@
       <c r="CQ23" s="13"/>
       <c r="CR23" s="15"/>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2</v>
       </c>
@@ -6313,7 +6826,7 @@
       <c r="CQ24" s="17"/>
       <c r="CR24" s="18"/>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -6411,7 +6924,7 @@
       <c r="CQ25" s="13"/>
       <c r="CR25" s="15"/>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
         <v>22</v>
@@ -6515,10 +7028,10 @@
       <c r="CQ26" s="13"/>
       <c r="CR26" s="15"/>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -6538,7 +7051,7 @@
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
@@ -6553,7 +7066,7 @@
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
@@ -6618,7 +7131,7 @@
       <c r="CQ27" s="13"/>
       <c r="CR27" s="15"/>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="13" t="s">
         <v>0</v>
@@ -6722,7 +7235,7 @@
       <c r="CQ28" s="13"/>
       <c r="CR28" s="15"/>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="13" t="s">
         <v>41</v>
@@ -6761,7 +7274,7 @@
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
       <c r="AH29" s="13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -6826,7 +7339,7 @@
       <c r="CQ29" s="13"/>
       <c r="CR29" s="15"/>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -6924,7 +7437,7 @@
       <c r="CQ30" s="13"/>
       <c r="CR30" s="15"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>3</v>
       </c>
@@ -7026,7 +7539,7 @@
       <c r="CQ31" s="17"/>
       <c r="CR31" s="18"/>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -7124,7 +7637,7 @@
       <c r="CQ32" s="13"/>
       <c r="CR32" s="15"/>
     </row>
-    <row r="33" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13" t="s">
         <v>28</v>
@@ -7226,7 +7739,7 @@
       <c r="CQ33" s="13"/>
       <c r="CR33" s="15"/>
     </row>
-    <row r="34" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13" t="s">
@@ -7326,7 +7839,7 @@
       <c r="CQ34" s="13"/>
       <c r="CR34" s="15"/>
     </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
@@ -7426,11 +7939,11 @@
       <c r="CQ35" s="13"/>
       <c r="CR35" s="15"/>
     </row>
-    <row r="36" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -7526,11 +8039,11 @@
       <c r="CQ36" s="13"/>
       <c r="CR36" s="15"/>
     </row>
-    <row r="37" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -7626,11 +8139,11 @@
       <c r="CQ37" s="13"/>
       <c r="CR37" s="15"/>
     </row>
-    <row r="38" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -7726,7 +8239,7 @@
       <c r="CQ38" s="13"/>
       <c r="CR38" s="15"/>
     </row>
-    <row r="39" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -7824,7 +8337,7 @@
       <c r="CQ39" s="13"/>
       <c r="CR39" s="15"/>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="13" t="s">
         <v>30</v>
@@ -7924,11 +8437,11 @@
       <c r="CQ40" s="13"/>
       <c r="CR40" s="15"/>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -8024,7 +8537,7 @@
       <c r="CQ41" s="13"/>
       <c r="CR41" s="15"/>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13" t="s">
@@ -8123,12 +8636,12 @@
       <c r="CQ42" s="13"/>
       <c r="CR42" s="15"/>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -8222,12 +8735,12 @@
       <c r="CQ43" s="13"/>
       <c r="CR43" s="15"/>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
-      <c r="E44" s="30" t="s">
-        <v>82</v>
+      <c r="E44" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -8321,7 +8834,7 @@
       <c r="CQ44" s="13"/>
       <c r="CR44" s="15"/>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -8420,7 +8933,7 @@
       <c r="CQ45" s="13"/>
       <c r="CR45" s="15"/>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -8519,11 +9032,11 @@
       <c r="CQ46" s="13"/>
       <c r="CR46" s="15"/>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -8619,111 +9132,111 @@
       <c r="CQ47" s="13"/>
       <c r="CR47" s="15"/>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="13"/>
-      <c r="AL48" s="13"/>
-      <c r="AM48" s="13"/>
-      <c r="AN48" s="13"/>
-      <c r="AO48" s="13"/>
-      <c r="AP48" s="13"/>
-      <c r="AQ48" s="13"/>
-      <c r="AR48" s="13"/>
-      <c r="AS48" s="13"/>
-      <c r="AT48" s="13"/>
-      <c r="AU48" s="13"/>
-      <c r="AV48" s="13"/>
-      <c r="AW48" s="13"/>
-      <c r="AX48" s="13"/>
-      <c r="AY48" s="13"/>
-      <c r="AZ48" s="13"/>
-      <c r="BA48" s="13"/>
-      <c r="BB48" s="13"/>
-      <c r="BC48" s="13"/>
-      <c r="BD48" s="13"/>
-      <c r="BE48" s="13"/>
-      <c r="BF48" s="13"/>
-      <c r="BG48" s="13"/>
-      <c r="BH48" s="13"/>
-      <c r="BI48" s="13"/>
-      <c r="BJ48" s="13"/>
-      <c r="BK48" s="13"/>
-      <c r="BL48" s="13"/>
-      <c r="BM48" s="13"/>
-      <c r="BN48" s="13"/>
-      <c r="BO48" s="13"/>
-      <c r="BP48" s="13"/>
-      <c r="BQ48" s="13"/>
-      <c r="BR48" s="13"/>
-      <c r="BS48" s="13"/>
-      <c r="BT48" s="13"/>
-      <c r="BU48" s="13"/>
-      <c r="BV48" s="13"/>
-      <c r="BW48" s="13"/>
-      <c r="BX48" s="13"/>
-      <c r="BY48" s="13"/>
-      <c r="BZ48" s="13"/>
-      <c r="CA48" s="13"/>
-      <c r="CB48" s="13"/>
-      <c r="CC48" s="13"/>
-      <c r="CD48" s="13"/>
-      <c r="CE48" s="13"/>
-      <c r="CF48" s="13"/>
-      <c r="CG48" s="13"/>
-      <c r="CH48" s="13"/>
-      <c r="CI48" s="13"/>
-      <c r="CJ48" s="13"/>
-      <c r="CK48" s="13"/>
-      <c r="CL48" s="13"/>
-      <c r="CM48" s="13"/>
-      <c r="CN48" s="13"/>
-      <c r="CO48" s="13"/>
-      <c r="CP48" s="13"/>
-      <c r="CQ48" s="13"/>
-      <c r="CR48" s="15"/>
+    <row r="48" spans="1:96" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="48"/>
+      <c r="AB48" s="48"/>
+      <c r="AC48" s="48"/>
+      <c r="AD48" s="48"/>
+      <c r="AE48" s="48"/>
+      <c r="AF48" s="48"/>
+      <c r="AG48" s="48"/>
+      <c r="AH48" s="48"/>
+      <c r="AI48" s="48"/>
+      <c r="AJ48" s="48"/>
+      <c r="AK48" s="48"/>
+      <c r="AL48" s="48"/>
+      <c r="AM48" s="48"/>
+      <c r="AN48" s="48"/>
+      <c r="AO48" s="48"/>
+      <c r="AP48" s="48"/>
+      <c r="AQ48" s="48"/>
+      <c r="AR48" s="48"/>
+      <c r="AS48" s="48"/>
+      <c r="AT48" s="48"/>
+      <c r="AU48" s="48"/>
+      <c r="AV48" s="48"/>
+      <c r="AW48" s="48"/>
+      <c r="AX48" s="48"/>
+      <c r="AY48" s="48"/>
+      <c r="AZ48" s="48"/>
+      <c r="BA48" s="48"/>
+      <c r="BB48" s="48"/>
+      <c r="BC48" s="48"/>
+      <c r="BD48" s="48"/>
+      <c r="BE48" s="48"/>
+      <c r="BF48" s="48"/>
+      <c r="BG48" s="48"/>
+      <c r="BH48" s="48"/>
+      <c r="BI48" s="48"/>
+      <c r="BJ48" s="48"/>
+      <c r="BK48" s="48"/>
+      <c r="BL48" s="48"/>
+      <c r="BM48" s="48"/>
+      <c r="BN48" s="48"/>
+      <c r="BO48" s="48"/>
+      <c r="BP48" s="48"/>
+      <c r="BQ48" s="48"/>
+      <c r="BR48" s="48"/>
+      <c r="BS48" s="48"/>
+      <c r="BT48" s="48"/>
+      <c r="BU48" s="48"/>
+      <c r="BV48" s="48"/>
+      <c r="BW48" s="48"/>
+      <c r="BX48" s="48"/>
+      <c r="BY48" s="48"/>
+      <c r="BZ48" s="48"/>
+      <c r="CA48" s="48"/>
+      <c r="CB48" s="48"/>
+      <c r="CC48" s="48"/>
+      <c r="CD48" s="48"/>
+      <c r="CE48" s="48"/>
+      <c r="CF48" s="48"/>
+      <c r="CG48" s="48"/>
+      <c r="CH48" s="48"/>
+      <c r="CI48" s="48"/>
+      <c r="CJ48" s="48"/>
+      <c r="CK48" s="48"/>
+      <c r="CL48" s="48"/>
+      <c r="CM48" s="48"/>
+      <c r="CN48" s="48"/>
+      <c r="CO48" s="48"/>
+      <c r="CP48" s="48"/>
+      <c r="CQ48" s="48"/>
+      <c r="CR48" s="49"/>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -8819,11 +9332,11 @@
       <c r="CQ49" s="13"/>
       <c r="CR49" s="15"/>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -8919,7 +9432,7 @@
       <c r="CQ50" s="13"/>
       <c r="CR50" s="15"/>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="D51" s="13"/>
@@ -9016,9 +9529,11 @@
       <c r="CQ51" s="13"/>
       <c r="CR51" s="15"/>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
+      <c r="B52" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -9114,12 +9629,12 @@
       <c r="CQ52" s="13"/>
       <c r="CR52" s="15"/>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -9214,12 +9729,10 @@
       <c r="CQ53" s="13"/>
       <c r="CR53" s="15"/>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -9314,10 +9827,14 @@
       <c r="CQ54" s="13"/>
       <c r="CR54" s="15"/>
     </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
@@ -9412,13 +9929,11 @@
       <c r="CQ55" s="13"/>
       <c r="CR55" s="15"/>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
-      <c r="B56" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B56" s="13"/>
       <c r="C56" s="13" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -9514,15 +10029,15 @@
       <c r="CQ56" s="13"/>
       <c r="CR56" s="15"/>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -9614,15 +10129,15 @@
       <c r="CQ57" s="13"/>
       <c r="CR57" s="15"/>
     </row>
-    <row r="58" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="D58" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
@@ -9714,15 +10229,15 @@
       <c r="CQ58" s="13"/>
       <c r="CR58" s="15"/>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="D59" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -9814,209 +10329,189 @@
       <c r="CQ59" s="13"/>
       <c r="CR59" s="15"/>
     </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13"/>
-      <c r="AA60" s="13"/>
-      <c r="AB60" s="13"/>
-      <c r="AC60" s="13"/>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="13"/>
-      <c r="AF60" s="13"/>
-      <c r="AG60" s="13"/>
-      <c r="AH60" s="13"/>
-      <c r="AI60" s="13"/>
-      <c r="AJ60" s="13"/>
-      <c r="AK60" s="13"/>
-      <c r="AL60" s="13"/>
-      <c r="AM60" s="13"/>
-      <c r="AN60" s="13"/>
-      <c r="AO60" s="13"/>
-      <c r="AP60" s="13"/>
-      <c r="AQ60" s="13"/>
-      <c r="AR60" s="13"/>
-      <c r="AS60" s="13"/>
-      <c r="AT60" s="13"/>
-      <c r="AU60" s="13"/>
-      <c r="AV60" s="13"/>
-      <c r="AW60" s="13"/>
-      <c r="AX60" s="13"/>
-      <c r="AY60" s="13"/>
-      <c r="AZ60" s="13"/>
-      <c r="BA60" s="13"/>
-      <c r="BB60" s="13"/>
-      <c r="BC60" s="13"/>
-      <c r="BD60" s="13"/>
-      <c r="BE60" s="13"/>
-      <c r="BF60" s="13"/>
-      <c r="BG60" s="13"/>
-      <c r="BH60" s="13"/>
-      <c r="BI60" s="13"/>
-      <c r="BJ60" s="13"/>
-      <c r="BK60" s="13"/>
-      <c r="BL60" s="13"/>
-      <c r="BM60" s="13"/>
-      <c r="BN60" s="13"/>
-      <c r="BO60" s="13"/>
-      <c r="BP60" s="13"/>
-      <c r="BQ60" s="13"/>
-      <c r="BR60" s="13"/>
-      <c r="BS60" s="13"/>
-      <c r="BT60" s="13"/>
-      <c r="BU60" s="13"/>
-      <c r="BV60" s="13"/>
-      <c r="BW60" s="13"/>
-      <c r="BX60" s="13"/>
-      <c r="BY60" s="13"/>
-      <c r="BZ60" s="13"/>
-      <c r="CA60" s="13"/>
-      <c r="CB60" s="13"/>
-      <c r="CC60" s="13"/>
-      <c r="CD60" s="13"/>
-      <c r="CE60" s="13"/>
-      <c r="CF60" s="13"/>
-      <c r="CG60" s="13"/>
-      <c r="CH60" s="13"/>
-      <c r="CI60" s="13"/>
-      <c r="CJ60" s="13"/>
-      <c r="CK60" s="13"/>
-      <c r="CL60" s="13"/>
-      <c r="CM60" s="13"/>
-      <c r="CN60" s="13"/>
-      <c r="CO60" s="13"/>
-      <c r="CP60" s="13"/>
-      <c r="CQ60" s="13"/>
-      <c r="CR60" s="15"/>
+    <row r="60" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16">
+        <v>4</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
+      <c r="AJ60" s="17"/>
+      <c r="AK60" s="17"/>
+      <c r="AL60" s="17"/>
+      <c r="AM60" s="17"/>
+      <c r="AN60" s="17"/>
+      <c r="AO60" s="17"/>
+      <c r="AP60" s="17"/>
+      <c r="AQ60" s="17"/>
+      <c r="AR60" s="17"/>
+      <c r="AS60" s="17"/>
+      <c r="AT60" s="17"/>
+      <c r="AU60" s="17"/>
+      <c r="AV60" s="17"/>
+      <c r="AW60" s="17"/>
+      <c r="AX60" s="17"/>
+      <c r="AY60" s="17"/>
+      <c r="AZ60" s="17"/>
+      <c r="BA60" s="17"/>
+      <c r="BB60" s="17"/>
+      <c r="BC60" s="17"/>
+      <c r="BD60" s="17"/>
+      <c r="BE60" s="17"/>
+      <c r="BF60" s="17"/>
+      <c r="BG60" s="17"/>
+      <c r="BH60" s="17"/>
+      <c r="BI60" s="17"/>
+      <c r="BJ60" s="17"/>
+      <c r="BK60" s="17"/>
+      <c r="BL60" s="17"/>
+      <c r="BM60" s="17"/>
+      <c r="BN60" s="17"/>
+      <c r="BO60" s="17"/>
+      <c r="BP60" s="17"/>
+      <c r="BQ60" s="17"/>
+      <c r="BR60" s="17"/>
+      <c r="BS60" s="17"/>
+      <c r="BT60" s="17"/>
+      <c r="BU60" s="17"/>
+      <c r="BV60" s="17"/>
+      <c r="BW60" s="17"/>
+      <c r="BX60" s="17"/>
+      <c r="BY60" s="17"/>
+      <c r="BZ60" s="17"/>
+      <c r="CA60" s="17"/>
+      <c r="CB60" s="17"/>
+      <c r="CC60" s="17"/>
+      <c r="CD60" s="17"/>
+      <c r="CE60" s="17"/>
+      <c r="CF60" s="17"/>
+      <c r="CG60" s="17"/>
+      <c r="CH60" s="17"/>
+      <c r="CI60" s="17"/>
+      <c r="CJ60" s="17"/>
+      <c r="CK60" s="17"/>
+      <c r="CL60" s="17"/>
+      <c r="CM60" s="17"/>
+      <c r="CN60" s="17"/>
+      <c r="CO60" s="17"/>
+      <c r="CP60" s="17"/>
+      <c r="CQ60" s="17"/>
+      <c r="CR60" s="18"/>
     </row>
-    <row r="61" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A61" s="16">
-        <v>4</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
-      <c r="Z61" s="17"/>
-      <c r="AA61" s="17"/>
-      <c r="AB61" s="17"/>
-      <c r="AC61" s="17"/>
-      <c r="AD61" s="17"/>
-      <c r="AE61" s="17"/>
-      <c r="AF61" s="17"/>
-      <c r="AG61" s="17"/>
-      <c r="AH61" s="17"/>
-      <c r="AI61" s="17"/>
-      <c r="AJ61" s="17"/>
-      <c r="AK61" s="17"/>
-      <c r="AL61" s="17"/>
-      <c r="AM61" s="17"/>
-      <c r="AN61" s="17"/>
-      <c r="AO61" s="17"/>
-      <c r="AP61" s="17"/>
-      <c r="AQ61" s="17"/>
-      <c r="AR61" s="17"/>
-      <c r="AS61" s="17"/>
-      <c r="AT61" s="17"/>
-      <c r="AU61" s="17"/>
-      <c r="AV61" s="17"/>
-      <c r="AW61" s="17"/>
-      <c r="AX61" s="17"/>
-      <c r="AY61" s="17"/>
-      <c r="AZ61" s="17"/>
-      <c r="BA61" s="17"/>
-      <c r="BB61" s="17"/>
-      <c r="BC61" s="17"/>
-      <c r="BD61" s="17"/>
-      <c r="BE61" s="17"/>
-      <c r="BF61" s="17"/>
-      <c r="BG61" s="17"/>
-      <c r="BH61" s="17"/>
-      <c r="BI61" s="17"/>
-      <c r="BJ61" s="17"/>
-      <c r="BK61" s="17"/>
-      <c r="BL61" s="17"/>
-      <c r="BM61" s="17"/>
-      <c r="BN61" s="17"/>
-      <c r="BO61" s="17"/>
-      <c r="BP61" s="17"/>
-      <c r="BQ61" s="17"/>
-      <c r="BR61" s="17"/>
-      <c r="BS61" s="17"/>
-      <c r="BT61" s="17"/>
-      <c r="BU61" s="17"/>
-      <c r="BV61" s="17"/>
-      <c r="BW61" s="17"/>
-      <c r="BX61" s="17"/>
-      <c r="BY61" s="17"/>
-      <c r="BZ61" s="17"/>
-      <c r="CA61" s="17"/>
-      <c r="CB61" s="17"/>
-      <c r="CC61" s="17"/>
-      <c r="CD61" s="17"/>
-      <c r="CE61" s="17"/>
-      <c r="CF61" s="17"/>
-      <c r="CG61" s="17"/>
-      <c r="CH61" s="17"/>
-      <c r="CI61" s="17"/>
-      <c r="CJ61" s="17"/>
-      <c r="CK61" s="17"/>
-      <c r="CL61" s="17"/>
-      <c r="CM61" s="17"/>
-      <c r="CN61" s="17"/>
-      <c r="CO61" s="17"/>
-      <c r="CP61" s="17"/>
-      <c r="CQ61" s="17"/>
-      <c r="CR61" s="18"/>
+    <row r="61" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13"/>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="13"/>
+      <c r="AI61" s="13"/>
+      <c r="AJ61" s="13"/>
+      <c r="AK61" s="13"/>
+      <c r="AL61" s="13"/>
+      <c r="AM61" s="13"/>
+      <c r="AN61" s="13"/>
+      <c r="AO61" s="13"/>
+      <c r="AP61" s="13"/>
+      <c r="AQ61" s="13"/>
+      <c r="AR61" s="13"/>
+      <c r="AS61" s="13"/>
+      <c r="AT61" s="13"/>
+      <c r="AU61" s="13"/>
+      <c r="AV61" s="13"/>
+      <c r="AW61" s="13"/>
+      <c r="AX61" s="13"/>
+      <c r="AY61" s="13"/>
+      <c r="AZ61" s="13"/>
+      <c r="BA61" s="13"/>
+      <c r="BB61" s="13"/>
+      <c r="BC61" s="13"/>
+      <c r="BD61" s="13"/>
+      <c r="BE61" s="13"/>
+      <c r="BF61" s="13"/>
+      <c r="BG61" s="13"/>
+      <c r="BH61" s="13"/>
+      <c r="BZ61" s="13"/>
+      <c r="CA61" s="13"/>
+      <c r="CB61" s="13"/>
+      <c r="CC61" s="13"/>
+      <c r="CD61" s="13"/>
+      <c r="CE61" s="13"/>
+      <c r="CF61" s="13"/>
+      <c r="CG61" s="13"/>
+      <c r="CH61" s="13"/>
+      <c r="CI61" s="13"/>
+      <c r="CJ61" s="13"/>
+      <c r="CK61" s="13"/>
+      <c r="CL61" s="13"/>
+      <c r="CM61" s="13"/>
+      <c r="CN61" s="13"/>
+      <c r="CO61" s="13"/>
+      <c r="CP61" s="13"/>
+      <c r="CQ61" s="13"/>
+      <c r="CR61" s="15"/>
     </row>
-    <row r="62" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -10076,23 +10571,6 @@
       <c r="BF62" s="13"/>
       <c r="BG62" s="13"/>
       <c r="BH62" s="13"/>
-      <c r="BI62" s="13"/>
-      <c r="BJ62" s="13"/>
-      <c r="BK62" s="13"/>
-      <c r="BL62" s="13"/>
-      <c r="BM62" s="13"/>
-      <c r="BN62" s="13"/>
-      <c r="BO62" s="13"/>
-      <c r="BP62" s="13"/>
-      <c r="BQ62" s="13"/>
-      <c r="BR62" s="13"/>
-      <c r="BS62" s="13"/>
-      <c r="BT62" s="13"/>
-      <c r="BU62" s="13"/>
-      <c r="BV62" s="13"/>
-      <c r="BW62" s="13"/>
-      <c r="BX62" s="13"/>
-      <c r="BY62" s="13"/>
       <c r="BZ62" s="13"/>
       <c r="CA62" s="13"/>
       <c r="CB62" s="13"/>
@@ -10113,7 +10591,7 @@
       <c r="CQ62" s="13"/>
       <c r="CR62" s="15"/>
     </row>
-    <row r="63" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -10134,7 +10612,6 @@
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
       <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
       <c r="W63" s="13"/>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -10173,23 +10650,6 @@
       <c r="BF63" s="13"/>
       <c r="BG63" s="13"/>
       <c r="BH63" s="13"/>
-      <c r="BI63" s="13"/>
-      <c r="BJ63" s="13"/>
-      <c r="BK63" s="13"/>
-      <c r="BL63" s="13"/>
-      <c r="BM63" s="13"/>
-      <c r="BN63" s="13"/>
-      <c r="BO63" s="13"/>
-      <c r="BP63" s="13"/>
-      <c r="BQ63" s="13"/>
-      <c r="BR63" s="13"/>
-      <c r="BS63" s="13"/>
-      <c r="BT63" s="13"/>
-      <c r="BU63" s="13"/>
-      <c r="BV63" s="13"/>
-      <c r="BW63" s="13"/>
-      <c r="BX63" s="13"/>
-      <c r="BY63" s="13"/>
       <c r="BZ63" s="13"/>
       <c r="CA63" s="13"/>
       <c r="CB63" s="13"/>
@@ -10231,18 +10691,21 @@
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
       <c r="U64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="13"/>
-      <c r="AC64" s="13"/>
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="13"/>
-      <c r="AF64" s="13"/>
-      <c r="AG64" s="13"/>
-      <c r="AH64" s="13"/>
+      <c r="V64" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="28"/>
+      <c r="AC64" s="28"/>
+      <c r="AD64" s="28"/>
+      <c r="AE64" s="28"/>
+      <c r="AF64" s="28"/>
+      <c r="AG64" s="28"/>
+      <c r="AH64" s="28"/>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
       <c r="AK64" s="13"/>
@@ -10269,23 +10732,6 @@
       <c r="BF64" s="13"/>
       <c r="BG64" s="13"/>
       <c r="BH64" s="13"/>
-      <c r="BI64" s="13"/>
-      <c r="BJ64" s="27"/>
-      <c r="BK64" s="27"/>
-      <c r="BL64" s="27"/>
-      <c r="BM64" s="27"/>
-      <c r="BN64" s="27"/>
-      <c r="BO64" s="27"/>
-      <c r="BP64" s="27"/>
-      <c r="BQ64" s="27"/>
-      <c r="BR64" s="27"/>
-      <c r="BS64" s="27"/>
-      <c r="BT64" s="27"/>
-      <c r="BU64" s="13"/>
-      <c r="BV64" s="13"/>
-      <c r="BW64" s="13"/>
-      <c r="BX64" s="13"/>
-      <c r="BY64" s="13"/>
       <c r="BZ64" s="13"/>
       <c r="CA64" s="13"/>
       <c r="CB64" s="13"/>
@@ -10327,21 +10773,21 @@
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
-      <c r="V65" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
-      <c r="AA65" s="13"/>
-      <c r="AB65" s="13"/>
-      <c r="AC65" s="13"/>
-      <c r="AD65" s="13"/>
-      <c r="AE65" s="13"/>
-      <c r="AF65" s="13"/>
-      <c r="AG65" s="13"/>
-      <c r="AH65" s="13"/>
+      <c r="V65" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="28"/>
+      <c r="AD65" s="28"/>
+      <c r="AE65" s="28"/>
+      <c r="AF65" s="28"/>
+      <c r="AG65" s="28"/>
+      <c r="AH65" s="28"/>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
       <c r="AK65" s="13"/>
@@ -10368,23 +10814,6 @@
       <c r="BF65" s="13"/>
       <c r="BG65" s="13"/>
       <c r="BH65" s="13"/>
-      <c r="BI65" s="13"/>
-      <c r="BJ65" s="27"/>
-      <c r="BK65" s="27"/>
-      <c r="BL65" s="27"/>
-      <c r="BM65" s="27"/>
-      <c r="BN65" s="27"/>
-      <c r="BO65" s="27"/>
-      <c r="BP65" s="27"/>
-      <c r="BQ65" s="27"/>
-      <c r="BR65" s="27"/>
-      <c r="BS65" s="27"/>
-      <c r="BT65" s="27"/>
-      <c r="BU65" s="13"/>
-      <c r="BV65" s="13"/>
-      <c r="BW65" s="13"/>
-      <c r="BX65" s="13"/>
-      <c r="BY65" s="13"/>
       <c r="BZ65" s="13"/>
       <c r="CA65" s="13"/>
       <c r="CB65" s="13"/>
@@ -10405,7 +10834,7 @@
       <c r="CQ65" s="13"/>
       <c r="CR65" s="15"/>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -10426,9 +10855,7 @@
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
       <c r="U66" s="13"/>
-      <c r="V66" s="31" t="s">
-        <v>81</v>
-      </c>
+      <c r="V66" s="13"/>
       <c r="W66" s="13"/>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -10467,23 +10894,6 @@
       <c r="BF66" s="13"/>
       <c r="BG66" s="13"/>
       <c r="BH66" s="13"/>
-      <c r="BI66" s="13"/>
-      <c r="BJ66" s="13"/>
-      <c r="BK66" s="28"/>
-      <c r="BL66" s="28"/>
-      <c r="BM66" s="28"/>
-      <c r="BN66" s="28"/>
-      <c r="BO66" s="28"/>
-      <c r="BP66" s="28"/>
-      <c r="BQ66" s="28"/>
-      <c r="BR66" s="28"/>
-      <c r="BS66" s="28"/>
-      <c r="BT66" s="13"/>
-      <c r="BU66" s="13"/>
-      <c r="BV66" s="13"/>
-      <c r="BW66" s="13"/>
-      <c r="BX66" s="13"/>
-      <c r="BY66" s="13"/>
       <c r="BZ66" s="13"/>
       <c r="CA66" s="13"/>
       <c r="CB66" s="13"/>
@@ -10504,7 +10914,7 @@
       <c r="CQ66" s="13"/>
       <c r="CR66" s="15"/>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -10564,23 +10974,6 @@
       <c r="BF67" s="13"/>
       <c r="BG67" s="13"/>
       <c r="BH67" s="13"/>
-      <c r="BI67" s="13"/>
-      <c r="BJ67" s="13"/>
-      <c r="BK67" s="28"/>
-      <c r="BL67" s="28"/>
-      <c r="BM67" s="28"/>
-      <c r="BN67" s="28"/>
-      <c r="BO67" s="28"/>
-      <c r="BP67" s="28"/>
-      <c r="BQ67" s="28"/>
-      <c r="BR67" s="28"/>
-      <c r="BS67" s="28"/>
-      <c r="BT67" s="13"/>
-      <c r="BU67" s="13"/>
-      <c r="BV67" s="13"/>
-      <c r="BW67" s="13"/>
-      <c r="BX67" s="13"/>
-      <c r="BY67" s="13"/>
       <c r="BZ67" s="13"/>
       <c r="CA67" s="13"/>
       <c r="CB67" s="13"/>
@@ -10601,7 +10994,7 @@
       <c r="CQ67" s="13"/>
       <c r="CR67" s="15"/>
     </row>
-    <row r="68" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -10661,23 +11054,6 @@
       <c r="BF68" s="13"/>
       <c r="BG68" s="13"/>
       <c r="BH68" s="13"/>
-      <c r="BI68" s="13"/>
-      <c r="BJ68" s="13"/>
-      <c r="BK68" s="28"/>
-      <c r="BL68" s="28"/>
-      <c r="BM68" s="28"/>
-      <c r="BN68" s="28"/>
-      <c r="BO68" s="28"/>
-      <c r="BP68" s="28"/>
-      <c r="BQ68" s="28"/>
-      <c r="BR68" s="28"/>
-      <c r="BS68" s="28"/>
-      <c r="BT68" s="13"/>
-      <c r="BU68" s="13"/>
-      <c r="BV68" s="13"/>
-      <c r="BW68" s="13"/>
-      <c r="BX68" s="13"/>
-      <c r="BY68" s="13"/>
       <c r="BZ68" s="13"/>
       <c r="CA68" s="13"/>
       <c r="CB68" s="13"/>
@@ -10698,7 +11074,7 @@
       <c r="CQ68" s="13"/>
       <c r="CR68" s="15"/>
     </row>
-    <row r="69" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -10750,7 +11126,9 @@
       <c r="AX69" s="13"/>
       <c r="AY69" s="13"/>
       <c r="AZ69" s="13"/>
-      <c r="BA69" s="13"/>
+      <c r="BA69" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="BB69" s="13"/>
       <c r="BC69" s="13"/>
       <c r="BD69" s="13"/>
@@ -10758,23 +11136,6 @@
       <c r="BF69" s="13"/>
       <c r="BG69" s="13"/>
       <c r="BH69" s="13"/>
-      <c r="BI69" s="13"/>
-      <c r="BJ69" s="13"/>
-      <c r="BK69" s="28"/>
-      <c r="BL69" s="28"/>
-      <c r="BM69" s="28"/>
-      <c r="BN69" s="28"/>
-      <c r="BO69" s="28"/>
-      <c r="BP69" s="28"/>
-      <c r="BQ69" s="28"/>
-      <c r="BR69" s="28"/>
-      <c r="BS69" s="28"/>
-      <c r="BT69" s="13"/>
-      <c r="BU69" s="13"/>
-      <c r="BV69" s="13"/>
-      <c r="BW69" s="13"/>
-      <c r="BX69" s="13"/>
-      <c r="BY69" s="13"/>
       <c r="BZ69" s="13"/>
       <c r="CA69" s="13"/>
       <c r="CB69" s="13"/>
@@ -10795,7 +11156,7 @@
       <c r="CQ69" s="13"/>
       <c r="CR69" s="15"/>
     </row>
-    <row r="70" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -10847,9 +11208,7 @@
       <c r="AX70" s="13"/>
       <c r="AY70" s="13"/>
       <c r="AZ70" s="13"/>
-      <c r="BA70" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="BA70" s="13"/>
       <c r="BB70" s="13"/>
       <c r="BC70" s="13"/>
       <c r="BD70" s="13"/>
@@ -10857,23 +11216,6 @@
       <c r="BF70" s="13"/>
       <c r="BG70" s="13"/>
       <c r="BH70" s="13"/>
-      <c r="BI70" s="13"/>
-      <c r="BJ70" s="13"/>
-      <c r="BK70" s="28"/>
-      <c r="BL70" s="28"/>
-      <c r="BM70" s="28"/>
-      <c r="BN70" s="28"/>
-      <c r="BO70" s="28"/>
-      <c r="BP70" s="28"/>
-      <c r="BQ70" s="28"/>
-      <c r="BR70" s="28"/>
-      <c r="BS70" s="28"/>
-      <c r="BT70" s="13"/>
-      <c r="BU70" s="13"/>
-      <c r="BV70" s="13"/>
-      <c r="BW70" s="13"/>
-      <c r="BX70" s="13"/>
-      <c r="BY70" s="13"/>
       <c r="BZ70" s="13"/>
       <c r="CA70" s="13"/>
       <c r="CB70" s="13"/>
@@ -10894,7 +11236,7 @@
       <c r="CQ70" s="13"/>
       <c r="CR70" s="15"/>
     </row>
-    <row r="71" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -10954,29 +11296,6 @@
       <c r="BF71" s="13"/>
       <c r="BG71" s="13"/>
       <c r="BH71" s="13"/>
-      <c r="BI71" s="13"/>
-      <c r="BJ71" s="13"/>
-      <c r="BK71" s="28"/>
-      <c r="BL71" s="28"/>
-      <c r="BM71" s="28"/>
-      <c r="BN71" s="28"/>
-      <c r="BO71" s="28"/>
-      <c r="BP71" s="28"/>
-      <c r="BQ71" s="28"/>
-      <c r="BR71" s="28"/>
-      <c r="BS71" s="28"/>
-      <c r="BT71" s="13"/>
-      <c r="BU71" s="13"/>
-      <c r="BV71" s="13"/>
-      <c r="BW71" s="13"/>
-      <c r="BX71" s="13"/>
-      <c r="BY71" s="13"/>
-      <c r="BZ71" s="13"/>
-      <c r="CA71" s="13"/>
-      <c r="CB71" s="13"/>
-      <c r="CC71" s="13"/>
-      <c r="CD71" s="13"/>
-      <c r="CE71" s="13"/>
       <c r="CF71" s="13"/>
       <c r="CG71" s="13"/>
       <c r="CH71" s="13"/>
@@ -10991,38 +11310,43 @@
       <c r="CQ71" s="13"/>
       <c r="CR71" s="15"/>
     </row>
-    <row r="72" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="13"/>
-      <c r="AA72" s="13"/>
-      <c r="AB72" s="13"/>
-      <c r="AC72" s="13"/>
-      <c r="AD72" s="13"/>
-      <c r="AE72" s="13"/>
-      <c r="AF72" s="13"/>
+    <row r="72" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="32"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="28"/>
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
+      <c r="AD72" s="28"/>
+      <c r="AE72" s="28"/>
+      <c r="AF72" s="28"/>
       <c r="AG72" s="13"/>
       <c r="AH72" s="13"/>
       <c r="AI72" s="13"/>
@@ -11051,29 +11375,6 @@
       <c r="BF72" s="13"/>
       <c r="BG72" s="13"/>
       <c r="BH72" s="13"/>
-      <c r="BI72" s="13"/>
-      <c r="BJ72" s="13"/>
-      <c r="BK72" s="13"/>
-      <c r="BL72" s="13"/>
-      <c r="BM72" s="13"/>
-      <c r="BN72" s="13"/>
-      <c r="BO72" s="13"/>
-      <c r="BP72" s="13"/>
-      <c r="BQ72" s="13"/>
-      <c r="BR72" s="13"/>
-      <c r="BS72" s="13"/>
-      <c r="BT72" s="13"/>
-      <c r="BU72" s="13"/>
-      <c r="BV72" s="13"/>
-      <c r="BW72" s="13"/>
-      <c r="BX72" s="13"/>
-      <c r="BY72" s="13"/>
-      <c r="BZ72" s="13"/>
-      <c r="CA72" s="13"/>
-      <c r="CB72" s="13"/>
-      <c r="CC72" s="13"/>
-      <c r="CD72" s="13"/>
-      <c r="CE72" s="13"/>
       <c r="CF72" s="13"/>
       <c r="CG72" s="13"/>
       <c r="CH72" s="13"/>
@@ -11088,42 +11389,39 @@
       <c r="CQ72" s="13"/>
       <c r="CR72" s="15"/>
     </row>
-    <row r="73" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="13"/>
-      <c r="AA73" s="13"/>
-      <c r="AB73" s="13"/>
-      <c r="AC73" s="13"/>
-      <c r="AD73" s="13"/>
-      <c r="AE73" s="13"/>
-      <c r="AF73" s="13"/>
+    <row r="73" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="32"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+      <c r="AC73" s="28"/>
+      <c r="AD73" s="28"/>
+      <c r="AE73" s="28"/>
+      <c r="AF73" s="28"/>
       <c r="AG73" s="13"/>
       <c r="AH73" s="13"/>
       <c r="AI73" s="13"/>
@@ -11152,29 +11450,6 @@
       <c r="BF73" s="13"/>
       <c r="BG73" s="13"/>
       <c r="BH73" s="13"/>
-      <c r="BI73" s="13"/>
-      <c r="BJ73" s="13"/>
-      <c r="BK73" s="13"/>
-      <c r="BL73" s="13"/>
-      <c r="BM73" s="13"/>
-      <c r="BN73" s="13"/>
-      <c r="BO73" s="13"/>
-      <c r="BP73" s="13"/>
-      <c r="BQ73" s="13"/>
-      <c r="BR73" s="13"/>
-      <c r="BS73" s="13"/>
-      <c r="BT73" s="13"/>
-      <c r="BU73" s="13"/>
-      <c r="BV73" s="13"/>
-      <c r="BW73" s="13"/>
-      <c r="BX73" s="13"/>
-      <c r="BY73" s="13"/>
-      <c r="BZ73" s="13"/>
-      <c r="CA73" s="13"/>
-      <c r="CB73" s="13"/>
-      <c r="CC73" s="13"/>
-      <c r="CD73" s="13"/>
-      <c r="CE73" s="13"/>
       <c r="CF73" s="13"/>
       <c r="CG73" s="13"/>
       <c r="CH73" s="13"/>
@@ -11189,38 +11464,39 @@
       <c r="CQ73" s="13"/>
       <c r="CR73" s="15"/>
     </row>
-    <row r="74" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="13"/>
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
-      <c r="AC74" s="13"/>
-      <c r="AD74" s="13"/>
-      <c r="AE74" s="13"/>
-      <c r="AF74" s="13"/>
+    <row r="74" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="32"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="28"/>
+      <c r="AC74" s="28"/>
+      <c r="AD74" s="28"/>
+      <c r="AE74" s="28"/>
+      <c r="AF74" s="28"/>
       <c r="AG74" s="13"/>
       <c r="AH74" s="13"/>
       <c r="AI74" s="13"/>
@@ -11255,23 +11531,9 @@
       <c r="BL74" s="13"/>
       <c r="BM74" s="13"/>
       <c r="BN74" s="13"/>
-      <c r="BO74" s="13"/>
-      <c r="BP74" s="13"/>
-      <c r="BQ74" s="13"/>
-      <c r="BR74" s="13"/>
-      <c r="BS74" s="13"/>
-      <c r="BT74" s="13"/>
-      <c r="BU74" s="13"/>
-      <c r="BV74" s="13"/>
-      <c r="BW74" s="13"/>
-      <c r="BX74" s="13"/>
-      <c r="BY74" s="13"/>
-      <c r="BZ74" s="13"/>
-      <c r="CA74" s="13"/>
-      <c r="CB74" s="13"/>
-      <c r="CC74" s="13"/>
-      <c r="CD74" s="13"/>
-      <c r="CE74" s="13"/>
+      <c r="BU74" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="CF74" s="13"/>
       <c r="CG74" s="13"/>
       <c r="CH74" s="13"/>
@@ -11286,38 +11548,39 @@
       <c r="CQ74" s="13"/>
       <c r="CR74" s="15"/>
     </row>
-    <row r="75" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
-      <c r="AA75" s="13"/>
-      <c r="AB75" s="13"/>
-      <c r="AC75" s="13"/>
-      <c r="AD75" s="13"/>
-      <c r="AE75" s="13"/>
-      <c r="AF75" s="13"/>
+    <row r="75" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="32"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
+      <c r="AD75" s="28"/>
+      <c r="AE75" s="28"/>
+      <c r="AF75" s="28"/>
       <c r="AG75" s="13"/>
       <c r="AH75" s="13"/>
       <c r="AI75" s="13"/>
@@ -11352,23 +11615,6 @@
       <c r="BL75" s="13"/>
       <c r="BM75" s="13"/>
       <c r="BN75" s="13"/>
-      <c r="BO75" s="13"/>
-      <c r="BP75" s="13"/>
-      <c r="BQ75" s="13"/>
-      <c r="BR75" s="13"/>
-      <c r="BS75" s="13"/>
-      <c r="BT75" s="13"/>
-      <c r="BU75" s="13"/>
-      <c r="BV75" s="13"/>
-      <c r="BW75" s="13"/>
-      <c r="BX75" s="13"/>
-      <c r="BY75" s="13"/>
-      <c r="BZ75" s="13"/>
-      <c r="CA75" s="13"/>
-      <c r="CB75" s="13"/>
-      <c r="CC75" s="13"/>
-      <c r="CD75" s="13"/>
-      <c r="CE75" s="13"/>
       <c r="CF75" s="13"/>
       <c r="CG75" s="13"/>
       <c r="CH75" s="13"/>
@@ -11383,38 +11629,39 @@
       <c r="CQ75" s="13"/>
       <c r="CR75" s="15"/>
     </row>
-    <row r="76" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="13"/>
-      <c r="AA76" s="13"/>
-      <c r="AB76" s="13"/>
-      <c r="AC76" s="13"/>
-      <c r="AD76" s="13"/>
-      <c r="AE76" s="13"/>
-      <c r="AF76" s="13"/>
+    <row r="76" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="32"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="28"/>
+      <c r="AC76" s="28"/>
+      <c r="AD76" s="28"/>
+      <c r="AE76" s="28"/>
+      <c r="AF76" s="28"/>
       <c r="AG76" s="13"/>
       <c r="AH76" s="13"/>
       <c r="AI76" s="13"/>
@@ -11449,23 +11696,6 @@
       <c r="BL76" s="13"/>
       <c r="BM76" s="13"/>
       <c r="BN76" s="13"/>
-      <c r="BO76" s="13"/>
-      <c r="BP76" s="13"/>
-      <c r="BQ76" s="13"/>
-      <c r="BR76" s="13"/>
-      <c r="BS76" s="13"/>
-      <c r="BT76" s="13"/>
-      <c r="BU76" s="13"/>
-      <c r="BV76" s="13"/>
-      <c r="BW76" s="13"/>
-      <c r="BX76" s="13"/>
-      <c r="BY76" s="13"/>
-      <c r="BZ76" s="13"/>
-      <c r="CA76" s="13"/>
-      <c r="CB76" s="13"/>
-      <c r="CC76" s="13"/>
-      <c r="CD76" s="13"/>
-      <c r="CE76" s="13"/>
       <c r="CF76" s="13"/>
       <c r="CG76" s="13"/>
       <c r="CH76" s="13"/>
@@ -11480,38 +11710,39 @@
       <c r="CQ76" s="13"/>
       <c r="CR76" s="15"/>
     </row>
-    <row r="77" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
-      <c r="AA77" s="13"/>
-      <c r="AB77" s="13"/>
-      <c r="AC77" s="13"/>
-      <c r="AD77" s="13"/>
-      <c r="AE77" s="13"/>
-      <c r="AF77" s="13"/>
+    <row r="77" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="32"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="28"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
+      <c r="AB77" s="28"/>
+      <c r="AC77" s="28"/>
+      <c r="AD77" s="28"/>
+      <c r="AE77" s="28"/>
+      <c r="AF77" s="28"/>
       <c r="AG77" s="13"/>
       <c r="AH77" s="13"/>
       <c r="AI77" s="13"/>
@@ -11544,25 +11775,6 @@
       <c r="BJ77" s="13"/>
       <c r="BK77" s="13"/>
       <c r="BL77" s="13"/>
-      <c r="BM77" s="13"/>
-      <c r="BN77" s="13"/>
-      <c r="BO77" s="13"/>
-      <c r="BP77" s="13"/>
-      <c r="BQ77" s="13"/>
-      <c r="BR77" s="13"/>
-      <c r="BS77" s="13"/>
-      <c r="BT77" s="13"/>
-      <c r="BU77" s="13"/>
-      <c r="BV77" s="13"/>
-      <c r="BW77" s="13"/>
-      <c r="BX77" s="13"/>
-      <c r="BY77" s="13"/>
-      <c r="BZ77" s="13"/>
-      <c r="CA77" s="13"/>
-      <c r="CB77" s="13"/>
-      <c r="CC77" s="13"/>
-      <c r="CD77" s="13"/>
-      <c r="CE77" s="13"/>
       <c r="CF77" s="13"/>
       <c r="CG77" s="13"/>
       <c r="CH77" s="13"/>
@@ -11577,38 +11789,39 @@
       <c r="CQ77" s="13"/>
       <c r="CR77" s="15"/>
     </row>
-    <row r="78" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="13"/>
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="13"/>
-      <c r="AC78" s="13"/>
-      <c r="AD78" s="13"/>
-      <c r="AE78" s="13"/>
-      <c r="AF78" s="13"/>
+    <row r="78" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="32"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="28"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="28"/>
+      <c r="W78" s="28"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="28"/>
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="28"/>
+      <c r="AC78" s="28"/>
+      <c r="AD78" s="28"/>
+      <c r="AE78" s="28"/>
+      <c r="AF78" s="28"/>
       <c r="AG78" s="13"/>
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
@@ -11658,8 +11871,6 @@
       <c r="CA78" s="13"/>
       <c r="CB78" s="13"/>
       <c r="CC78" s="13"/>
-      <c r="CD78" s="13"/>
-      <c r="CE78" s="13"/>
       <c r="CF78" s="13"/>
       <c r="CG78" s="13"/>
       <c r="CH78" s="13"/>
@@ -11674,38 +11885,43 @@
       <c r="CQ78" s="13"/>
       <c r="CR78" s="15"/>
     </row>
-    <row r="79" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
-      <c r="Z79" s="13"/>
-      <c r="AA79" s="13"/>
-      <c r="AB79" s="13"/>
-      <c r="AC79" s="13"/>
-      <c r="AD79" s="13"/>
-      <c r="AE79" s="13"/>
-      <c r="AF79" s="13"/>
+    <row r="79" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="32"/>
+      <c r="B79" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="28"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V79" s="28"/>
+      <c r="W79" s="28"/>
+      <c r="X79" s="28"/>
+      <c r="Y79" s="28"/>
+      <c r="Z79" s="28"/>
+      <c r="AA79" s="28"/>
+      <c r="AB79" s="28"/>
+      <c r="AC79" s="28"/>
+      <c r="AD79" s="28"/>
+      <c r="AE79" s="28"/>
+      <c r="AF79" s="28"/>
       <c r="AG79" s="13"/>
       <c r="AH79" s="13"/>
       <c r="AI79" s="13"/>
@@ -11755,8 +11971,6 @@
       <c r="CA79" s="13"/>
       <c r="CB79" s="13"/>
       <c r="CC79" s="13"/>
-      <c r="CD79" s="13"/>
-      <c r="CE79" s="13"/>
       <c r="CF79" s="13"/>
       <c r="CG79" s="13"/>
       <c r="CH79" s="13"/>
@@ -11771,11 +11985,9 @@
       <c r="CQ79" s="13"/>
       <c r="CR79" s="15"/>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
@@ -11793,9 +12005,7 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
-      <c r="U80" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="U80" s="13"/>
       <c r="V80" s="13"/>
       <c r="W80" s="13"/>
       <c r="X80" s="13"/>
@@ -11840,24 +12050,22 @@
       <c r="BK80" s="13"/>
       <c r="BL80" s="13"/>
       <c r="BM80" s="13"/>
-      <c r="BN80" s="13"/>
-      <c r="BO80" s="13"/>
-      <c r="BP80" s="13"/>
-      <c r="BQ80" s="13"/>
-      <c r="BR80" s="13"/>
-      <c r="BS80" s="13"/>
-      <c r="BT80" s="13"/>
-      <c r="BU80" s="13"/>
-      <c r="BV80" s="13"/>
-      <c r="BW80" s="13"/>
-      <c r="BX80" s="13"/>
+      <c r="BN80" s="30"/>
+      <c r="BO80" s="30"/>
+      <c r="BP80" s="30"/>
+      <c r="BQ80" s="30"/>
+      <c r="BR80" s="30"/>
+      <c r="BS80" s="30"/>
+      <c r="BT80" s="30"/>
+      <c r="BU80" s="30"/>
+      <c r="BV80" s="30"/>
+      <c r="BW80" s="30"/>
+      <c r="BX80" s="30"/>
       <c r="BY80" s="13"/>
       <c r="BZ80" s="13"/>
       <c r="CA80" s="13"/>
       <c r="CB80" s="13"/>
       <c r="CC80" s="13"/>
-      <c r="CD80" s="13"/>
-      <c r="CE80" s="13"/>
       <c r="CF80" s="13"/>
       <c r="CG80" s="13"/>
       <c r="CH80" s="13"/>
@@ -11872,7 +12080,7 @@
       <c r="CQ80" s="13"/>
       <c r="CR80" s="15"/>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -11937,24 +12145,22 @@
       <c r="BK81" s="13"/>
       <c r="BL81" s="13"/>
       <c r="BM81" s="13"/>
-      <c r="BN81" s="13"/>
-      <c r="BO81" s="13"/>
-      <c r="BP81" s="13"/>
-      <c r="BQ81" s="13"/>
-      <c r="BR81" s="13"/>
-      <c r="BS81" s="13"/>
-      <c r="BT81" s="13"/>
-      <c r="BU81" s="13"/>
-      <c r="BV81" s="13"/>
-      <c r="BW81" s="13"/>
-      <c r="BX81" s="13"/>
+      <c r="BN81" s="30"/>
+      <c r="BO81" s="30"/>
+      <c r="BP81" s="30"/>
+      <c r="BQ81" s="30"/>
+      <c r="BR81" s="30"/>
+      <c r="BS81" s="30"/>
+      <c r="BT81" s="30"/>
+      <c r="BU81" s="30"/>
+      <c r="BV81" s="30"/>
+      <c r="BW81" s="30"/>
+      <c r="BX81" s="30"/>
       <c r="BY81" s="13"/>
       <c r="BZ81" s="13"/>
       <c r="CA81" s="13"/>
       <c r="CB81" s="13"/>
       <c r="CC81" s="13"/>
-      <c r="CD81" s="13"/>
-      <c r="CE81" s="13"/>
       <c r="CF81" s="13"/>
       <c r="CG81" s="13"/>
       <c r="CH81" s="13"/>
@@ -11969,7 +12175,7 @@
       <c r="CQ81" s="13"/>
       <c r="CR81" s="15"/>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -12035,23 +12241,21 @@
       <c r="BL82" s="13"/>
       <c r="BM82" s="13"/>
       <c r="BN82" s="13"/>
-      <c r="BO82" s="13"/>
-      <c r="BP82" s="13"/>
-      <c r="BQ82" s="13"/>
-      <c r="BR82" s="13"/>
-      <c r="BS82" s="13"/>
-      <c r="BT82" s="13"/>
-      <c r="BU82" s="13"/>
-      <c r="BV82" s="13"/>
-      <c r="BW82" s="13"/>
+      <c r="BO82" s="31"/>
+      <c r="BP82" s="31"/>
+      <c r="BQ82" s="31"/>
+      <c r="BR82" s="31"/>
+      <c r="BS82" s="31"/>
+      <c r="BT82" s="31"/>
+      <c r="BU82" s="31"/>
+      <c r="BV82" s="31"/>
+      <c r="BW82" s="31"/>
       <c r="BX82" s="13"/>
       <c r="BY82" s="13"/>
       <c r="BZ82" s="13"/>
       <c r="CA82" s="13"/>
       <c r="CB82" s="13"/>
       <c r="CC82" s="13"/>
-      <c r="CD82" s="13"/>
-      <c r="CE82" s="13"/>
       <c r="CF82" s="13"/>
       <c r="CG82" s="13"/>
       <c r="CH82" s="13"/>
@@ -12066,7 +12270,7 @@
       <c r="CQ82" s="13"/>
       <c r="CR82" s="15"/>
     </row>
-    <row r="83" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -12132,23 +12336,21 @@
       <c r="BL83" s="13"/>
       <c r="BM83" s="13"/>
       <c r="BN83" s="13"/>
-      <c r="BO83" s="13"/>
-      <c r="BP83" s="13"/>
-      <c r="BQ83" s="13"/>
-      <c r="BR83" s="13"/>
-      <c r="BS83" s="13"/>
-      <c r="BT83" s="13"/>
-      <c r="BU83" s="13"/>
-      <c r="BV83" s="13"/>
-      <c r="BW83" s="13"/>
+      <c r="BO83" s="31"/>
+      <c r="BP83" s="31"/>
+      <c r="BQ83" s="31"/>
+      <c r="BR83" s="31"/>
+      <c r="BS83" s="31"/>
+      <c r="BT83" s="31"/>
+      <c r="BU83" s="31"/>
+      <c r="BV83" s="31"/>
+      <c r="BW83" s="31"/>
       <c r="BX83" s="13"/>
       <c r="BY83" s="13"/>
       <c r="BZ83" s="13"/>
       <c r="CA83" s="13"/>
       <c r="CB83" s="13"/>
       <c r="CC83" s="13"/>
-      <c r="CD83" s="13"/>
-      <c r="CE83" s="13"/>
       <c r="CF83" s="13"/>
       <c r="CG83" s="13"/>
       <c r="CH83" s="13"/>
@@ -12163,7 +12365,7 @@
       <c r="CQ83" s="13"/>
       <c r="CR83" s="15"/>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -12229,15 +12431,15 @@
       <c r="BL84" s="13"/>
       <c r="BM84" s="13"/>
       <c r="BN84" s="13"/>
-      <c r="BO84" s="13"/>
-      <c r="BP84" s="13"/>
-      <c r="BQ84" s="13"/>
-      <c r="BR84" s="13"/>
-      <c r="BS84" s="13"/>
-      <c r="BT84" s="13"/>
-      <c r="BU84" s="13"/>
-      <c r="BV84" s="13"/>
-      <c r="BW84" s="13"/>
+      <c r="BO84" s="31"/>
+      <c r="BP84" s="31"/>
+      <c r="BQ84" s="31"/>
+      <c r="BR84" s="31"/>
+      <c r="BS84" s="31"/>
+      <c r="BT84" s="31"/>
+      <c r="BU84" s="31"/>
+      <c r="BV84" s="31"/>
+      <c r="BW84" s="31"/>
       <c r="BX84" s="13"/>
       <c r="BY84" s="13"/>
       <c r="BZ84" s="13"/>
@@ -12260,7 +12462,7 @@
       <c r="CQ84" s="13"/>
       <c r="CR84" s="15"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -12326,15 +12528,15 @@
       <c r="BL85" s="13"/>
       <c r="BM85" s="13"/>
       <c r="BN85" s="13"/>
-      <c r="BO85" s="13"/>
-      <c r="BP85" s="13"/>
-      <c r="BQ85" s="13"/>
-      <c r="BR85" s="13"/>
-      <c r="BS85" s="13"/>
-      <c r="BT85" s="13"/>
-      <c r="BU85" s="13"/>
-      <c r="BV85" s="13"/>
-      <c r="BW85" s="13"/>
+      <c r="BO85" s="31"/>
+      <c r="BP85" s="31"/>
+      <c r="BQ85" s="31"/>
+      <c r="BR85" s="31"/>
+      <c r="BS85" s="31"/>
+      <c r="BT85" s="31"/>
+      <c r="BU85" s="31"/>
+      <c r="BV85" s="31"/>
+      <c r="BW85" s="31"/>
       <c r="BX85" s="13"/>
       <c r="BY85" s="13"/>
       <c r="BZ85" s="13"/>
@@ -12357,7 +12559,7 @@
       <c r="CQ85" s="13"/>
       <c r="CR85" s="15"/>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -12423,15 +12625,15 @@
       <c r="BL86" s="13"/>
       <c r="BM86" s="13"/>
       <c r="BN86" s="13"/>
-      <c r="BO86" s="13"/>
-      <c r="BP86" s="13"/>
-      <c r="BQ86" s="13"/>
-      <c r="BR86" s="13"/>
-      <c r="BS86" s="13"/>
-      <c r="BT86" s="13"/>
-      <c r="BU86" s="13"/>
-      <c r="BV86" s="13"/>
-      <c r="BW86" s="13"/>
+      <c r="BO86" s="31"/>
+      <c r="BP86" s="31"/>
+      <c r="BQ86" s="31"/>
+      <c r="BR86" s="31"/>
+      <c r="BS86" s="31"/>
+      <c r="BT86" s="31"/>
+      <c r="BU86" s="31"/>
+      <c r="BV86" s="31"/>
+      <c r="BW86" s="31"/>
       <c r="BX86" s="13"/>
       <c r="BY86" s="13"/>
       <c r="BZ86" s="13"/>
@@ -12454,7 +12656,7 @@
       <c r="CQ86" s="13"/>
       <c r="CR86" s="15"/>
     </row>
-    <row r="87" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -12520,15 +12722,15 @@
       <c r="BL87" s="13"/>
       <c r="BM87" s="13"/>
       <c r="BN87" s="13"/>
-      <c r="BO87" s="13"/>
-      <c r="BP87" s="13"/>
-      <c r="BQ87" s="13"/>
-      <c r="BR87" s="13"/>
-      <c r="BS87" s="13"/>
-      <c r="BT87" s="13"/>
-      <c r="BU87" s="13"/>
-      <c r="BV87" s="13"/>
-      <c r="BW87" s="13"/>
+      <c r="BO87" s="31"/>
+      <c r="BP87" s="31"/>
+      <c r="BQ87" s="31"/>
+      <c r="BR87" s="31"/>
+      <c r="BS87" s="31"/>
+      <c r="BT87" s="31"/>
+      <c r="BU87" s="31"/>
+      <c r="BV87" s="31"/>
+      <c r="BW87" s="31"/>
       <c r="BX87" s="13"/>
       <c r="BY87" s="13"/>
       <c r="BZ87" s="13"/>
@@ -12551,7 +12753,7 @@
       <c r="CQ87" s="13"/>
       <c r="CR87" s="15"/>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -12648,7 +12850,7 @@
       <c r="CQ88" s="13"/>
       <c r="CR88" s="15"/>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -12745,200 +12947,103 @@
       <c r="CQ89" s="13"/>
       <c r="CR89" s="15"/>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="13"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="13"/>
-      <c r="Y90" s="13"/>
-      <c r="Z90" s="13"/>
-      <c r="AA90" s="13"/>
-      <c r="AB90" s="13"/>
-      <c r="AC90" s="13"/>
-      <c r="AD90" s="13"/>
-      <c r="AE90" s="13"/>
-      <c r="AF90" s="13"/>
-      <c r="AG90" s="13"/>
-      <c r="AH90" s="13"/>
-      <c r="AI90" s="13"/>
-      <c r="AJ90" s="13"/>
-      <c r="AK90" s="13"/>
-      <c r="AL90" s="13"/>
-      <c r="AM90" s="13"/>
-      <c r="AN90" s="13"/>
-      <c r="AO90" s="13"/>
-      <c r="AP90" s="13"/>
-      <c r="AQ90" s="13"/>
-      <c r="AR90" s="13"/>
-      <c r="AS90" s="13"/>
-      <c r="AT90" s="13"/>
-      <c r="AU90" s="13"/>
-      <c r="AV90" s="13"/>
-      <c r="AW90" s="13"/>
-      <c r="AX90" s="13"/>
-      <c r="AY90" s="13"/>
-      <c r="AZ90" s="13"/>
-      <c r="BA90" s="13"/>
-      <c r="BB90" s="13"/>
-      <c r="BC90" s="13"/>
-      <c r="BD90" s="13"/>
-      <c r="BE90" s="13"/>
-      <c r="BF90" s="13"/>
-      <c r="BG90" s="13"/>
-      <c r="BH90" s="13"/>
-      <c r="BI90" s="13"/>
-      <c r="BJ90" s="13"/>
-      <c r="BK90" s="13"/>
-      <c r="BL90" s="13"/>
-      <c r="BM90" s="13"/>
-      <c r="BN90" s="13"/>
-      <c r="BO90" s="13"/>
-      <c r="BP90" s="13"/>
-      <c r="BQ90" s="13"/>
-      <c r="BR90" s="13"/>
-      <c r="BS90" s="13"/>
-      <c r="BT90" s="13"/>
-      <c r="BU90" s="13"/>
-      <c r="BV90" s="13"/>
-      <c r="BW90" s="13"/>
-      <c r="BX90" s="13"/>
-      <c r="BY90" s="13"/>
-      <c r="BZ90" s="13"/>
-      <c r="CA90" s="13"/>
-      <c r="CB90" s="13"/>
-      <c r="CC90" s="13"/>
-      <c r="CD90" s="13"/>
-      <c r="CE90" s="13"/>
-      <c r="CF90" s="13"/>
-      <c r="CG90" s="13"/>
-      <c r="CH90" s="13"/>
-      <c r="CI90" s="13"/>
-      <c r="CJ90" s="13"/>
-      <c r="CK90" s="13"/>
-      <c r="CL90" s="13"/>
-      <c r="CM90" s="13"/>
-      <c r="CN90" s="13"/>
-      <c r="CO90" s="13"/>
-      <c r="CP90" s="13"/>
-      <c r="CQ90" s="13"/>
-      <c r="CR90" s="15"/>
-    </row>
-    <row r="91" spans="1:96" ht="15.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
-      <c r="AA91" s="22"/>
-      <c r="AB91" s="22"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="22"/>
-      <c r="AE91" s="22"/>
-      <c r="AF91" s="22"/>
-      <c r="AG91" s="22"/>
-      <c r="AH91" s="22"/>
-      <c r="AI91" s="22"/>
-      <c r="AJ91" s="22"/>
-      <c r="AK91" s="22"/>
-      <c r="AL91" s="22"/>
-      <c r="AM91" s="22"/>
-      <c r="AN91" s="22"/>
-      <c r="AO91" s="22"/>
-      <c r="AP91" s="22"/>
-      <c r="AQ91" s="22"/>
-      <c r="AR91" s="22"/>
-      <c r="AS91" s="22"/>
-      <c r="AT91" s="22"/>
-      <c r="AU91" s="22"/>
-      <c r="AV91" s="22"/>
-      <c r="AW91" s="22"/>
-      <c r="AX91" s="22"/>
-      <c r="AY91" s="22"/>
-      <c r="AZ91" s="22"/>
-      <c r="BA91" s="22"/>
-      <c r="BB91" s="22"/>
-      <c r="BC91" s="22"/>
-      <c r="BD91" s="22"/>
-      <c r="BE91" s="22"/>
-      <c r="BF91" s="22"/>
-      <c r="BG91" s="22"/>
-      <c r="BH91" s="22"/>
-      <c r="BI91" s="22"/>
-      <c r="BJ91" s="22"/>
-      <c r="BK91" s="22"/>
-      <c r="BL91" s="22"/>
-      <c r="BM91" s="22"/>
-      <c r="BN91" s="22"/>
-      <c r="BO91" s="22"/>
-      <c r="BP91" s="22"/>
-      <c r="BQ91" s="22"/>
-      <c r="BR91" s="22"/>
-      <c r="BS91" s="22"/>
-      <c r="BT91" s="22"/>
-      <c r="BU91" s="22"/>
-      <c r="BV91" s="22"/>
-      <c r="BW91" s="22"/>
-      <c r="BX91" s="22"/>
-      <c r="BY91" s="22"/>
-      <c r="BZ91" s="22"/>
-      <c r="CA91" s="22"/>
-      <c r="CB91" s="22"/>
-      <c r="CC91" s="22"/>
-      <c r="CD91" s="22"/>
-      <c r="CE91" s="22"/>
-      <c r="CF91" s="22"/>
-      <c r="CG91" s="22"/>
-      <c r="CH91" s="22"/>
-      <c r="CI91" s="22"/>
-      <c r="CJ91" s="22"/>
-      <c r="CK91" s="22"/>
-      <c r="CL91" s="22"/>
-      <c r="CM91" s="22"/>
-      <c r="CN91" s="22"/>
-      <c r="CO91" s="22"/>
-      <c r="CP91" s="22"/>
-      <c r="CQ91" s="22"/>
-      <c r="CR91" s="23"/>
+    <row r="90" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="22"/>
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="22"/>
+      <c r="AA90" s="22"/>
+      <c r="AB90" s="22"/>
+      <c r="AC90" s="22"/>
+      <c r="AD90" s="22"/>
+      <c r="AE90" s="22"/>
+      <c r="AF90" s="22"/>
+      <c r="AG90" s="22"/>
+      <c r="AH90" s="22"/>
+      <c r="AI90" s="22"/>
+      <c r="AJ90" s="22"/>
+      <c r="AK90" s="22"/>
+      <c r="AL90" s="22"/>
+      <c r="AM90" s="22"/>
+      <c r="AN90" s="22"/>
+      <c r="AO90" s="22"/>
+      <c r="AP90" s="22"/>
+      <c r="AQ90" s="22"/>
+      <c r="AR90" s="22"/>
+      <c r="AS90" s="22"/>
+      <c r="AT90" s="22"/>
+      <c r="AU90" s="22"/>
+      <c r="AV90" s="22"/>
+      <c r="AW90" s="22"/>
+      <c r="AX90" s="22"/>
+      <c r="AY90" s="22"/>
+      <c r="AZ90" s="22"/>
+      <c r="BA90" s="22"/>
+      <c r="BB90" s="22"/>
+      <c r="BC90" s="22"/>
+      <c r="BD90" s="22"/>
+      <c r="BE90" s="22"/>
+      <c r="BF90" s="22"/>
+      <c r="BG90" s="22"/>
+      <c r="BH90" s="22"/>
+      <c r="BI90" s="22"/>
+      <c r="BJ90" s="22"/>
+      <c r="BK90" s="22"/>
+      <c r="BL90" s="22"/>
+      <c r="BM90" s="22"/>
+      <c r="BN90" s="22"/>
+      <c r="BO90" s="22"/>
+      <c r="BP90" s="22"/>
+      <c r="BQ90" s="22"/>
+      <c r="BR90" s="22"/>
+      <c r="BS90" s="22"/>
+      <c r="BT90" s="22"/>
+      <c r="BU90" s="22"/>
+      <c r="BV90" s="22"/>
+      <c r="BW90" s="22"/>
+      <c r="BX90" s="22"/>
+      <c r="BY90" s="22"/>
+      <c r="BZ90" s="22"/>
+      <c r="CA90" s="22"/>
+      <c r="CB90" s="22"/>
+      <c r="CC90" s="22"/>
+      <c r="CD90" s="22"/>
+      <c r="CE90" s="22"/>
+      <c r="CF90" s="22"/>
+      <c r="CG90" s="22"/>
+      <c r="CH90" s="22"/>
+      <c r="CI90" s="22"/>
+      <c r="CJ90" s="22"/>
+      <c r="CK90" s="22"/>
+      <c r="CL90" s="22"/>
+      <c r="CM90" s="22"/>
+      <c r="CN90" s="22"/>
+      <c r="CO90" s="22"/>
+      <c r="CP90" s="22"/>
+      <c r="CQ90" s="22"/>
+      <c r="CR90" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/03.要件定義/〇×ゲーム_要件定義書.xlsx
+++ b/03.要件定義/〇×ゲーム_要件定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahari\Documents\○×定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DORAMI\public\新人研修\2017\03.社内プロジェクト\10.要件定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$K$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">要件定義書!$A$1:$CS$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">要件定義書!$A$1:$CS$92</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>・開発ツール</t>
     <rPh sb="1" eb="3">
@@ -822,135 +822,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>・クライアントプログラムがサーバープログラムから盤面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を受信し、次の手を決定する。</t>
-    </r>
-    <rPh sb="24" eb="26">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・更新された盤面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を次手番のクライアントプログラムに送信する。</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・クライアントプログラムから指し手</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>情報とロジック情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を受信する。</t>
-    </r>
-    <rPh sb="14" eb="15">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジュシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>指し手情報、ロジック情報</t>
     <rPh sb="0" eb="1">
       <t>サ</t>
@@ -963,87 +834,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>webサーバーが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データベースから</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>指し手情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を取得し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ブラウザで</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>画面表示する。</t>
-    </r>
-    <rPh sb="17" eb="18">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1066,151 +856,6 @@
   </si>
   <si>
     <t>0.7</t>
-  </si>
-  <si>
-    <r>
-      <t>・次の手を決定するロジック（Brain）で決定した</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>指し手情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を、サーバプログラムに送信する。</t>
-    </r>
-    <rPh sb="21" eb="23">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・クライアントから取得した</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>指し手情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を元にサーバー内の盤面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を更新。</t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・クライアントから取得した指し手情報、サーバー内盤面データを元に指し手データを作成。</t>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>各章
@@ -1257,12 +902,241 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>・クライアントプログラムがサーバープログラムから盤面情報を受信し、次の手を決定する。</t>
+    <rPh sb="24" eb="26">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・次の手を決定するロジック（Brain）で決定した指し手情報を、サーバプログラムに送信する。</t>
+    <rPh sb="21" eb="23">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・クライアントプログラムから指し手情報とロジック情報を受信する。</t>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・クライアントから取得した指し手情報を元にサーバー内の盤面情報を更新。</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・更新された盤面情報を次手番のクライアントプログラムに送信する。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・webサーバーがデータベースから指し手情報を取得し、ブラウザで画面表示する。</t>
+    <rPh sb="17" eb="18">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・1台目のクライアントプログラムを起動してから30秒以内に2台目のクライアントプログラムの起動を行うものとする。</t>
+    <rPh sb="2" eb="4">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダイメ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・試合を開始して30秒以上サーバーから応答が無い場合手動でクライアントプログラムを終了させるものとする。</t>
+    <rPh sb="1" eb="3">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ビョウイジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様変更箇所の反映</t>
+    <rPh sb="0" eb="1">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クライアントプログラムの機能要件を現行のプログラミングに合わせて修正</t>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1318,14 +1192,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1562,7 +1428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -1628,6 +1494,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,10 +1538,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1696,75 +1560,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7058025" y="11763375"/>
-          <a:ext cx="2505075" cy="2952750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1815,13 +1619,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1880,13 +1684,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1953,13 +1757,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2013,14 +1817,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>指し手情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2029,14 +1833,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>試合結果情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2045,14 +1849,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>ロジック情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2060,7 +1864,7 @@
           <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2072,13 +1876,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2119,13 +1923,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2166,13 +1970,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2216,13 +2020,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2263,13 +2067,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2313,13 +2117,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2383,13 +2187,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2453,13 +2257,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2523,13 +2327,13 @@
     <xdr:from>
       <xdr:col>65</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>79</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2585,13 +2389,13 @@
     <xdr:from>
       <xdr:col>67</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>76350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2642,13 +2446,13 @@
     <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>76350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2699,13 +2503,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>76350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2756,13 +2560,13 @@
     <xdr:from>
       <xdr:col>67</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2813,13 +2617,13 @@
     <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2870,13 +2674,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2927,13 +2731,13 @@
     <xdr:from>
       <xdr:col>67</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>152550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2984,13 +2788,13 @@
     <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>152550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3041,13 +2845,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>152550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3098,13 +2902,13 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>15975</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>44550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3160,13 +2964,13 @@
     <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>92175</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>168375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3222,13 +3026,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>82650</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>168375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3284,13 +3088,13 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>6450</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>101700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3346,13 +3150,13 @@
     <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3408,13 +3212,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3470,13 +3274,13 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3532,13 +3336,13 @@
     <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3594,13 +3398,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3656,13 +3460,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3719,13 +3523,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3791,13 +3595,13 @@
     <xdr:from>
       <xdr:col>64</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3861,13 +3665,13 @@
     <xdr:from>
       <xdr:col>69</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4175,10 +3979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4383,13 +4187,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E11" s="8">
         <v>42949</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>74</v>
@@ -4401,6 +4205,32 @@
         <v>34</v>
       </c>
       <c r="J11" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="8">
+        <v>43026</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4420,10 +4250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR90"/>
+  <dimension ref="A1:CR91"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X48" sqref="X48"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4433,408 +4263,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34" t="s">
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="34"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="34"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="34"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="34"/>
-      <c r="CE1" s="34"/>
-      <c r="CF1" s="34"/>
-      <c r="CG1" s="34"/>
-      <c r="CH1" s="34"/>
-      <c r="CI1" s="34"/>
-      <c r="CJ1" s="34"/>
-      <c r="CK1" s="34"/>
-      <c r="CL1" s="34"/>
-      <c r="CM1" s="34"/>
-      <c r="CN1" s="34"/>
-      <c r="CO1" s="34"/>
-      <c r="CP1" s="34"/>
-      <c r="CQ1" s="34"/>
-      <c r="CR1" s="37"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
+      <c r="CJ1" s="36"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="39"/>
     </row>
     <row r="2" spans="1:96" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="36"/>
-      <c r="BS2" s="36"/>
-      <c r="BT2" s="36"/>
-      <c r="BU2" s="36"/>
-      <c r="BV2" s="36"/>
-      <c r="BW2" s="36"/>
-      <c r="BX2" s="36"/>
-      <c r="BY2" s="36"/>
-      <c r="BZ2" s="36"/>
-      <c r="CA2" s="36"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
-      <c r="CJ2" s="36"/>
-      <c r="CK2" s="36"/>
-      <c r="CL2" s="36"/>
-      <c r="CM2" s="36"/>
-      <c r="CN2" s="36"/>
-      <c r="CO2" s="36"/>
-      <c r="CP2" s="36"/>
-      <c r="CQ2" s="36"/>
-      <c r="CR2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="38"/>
+      <c r="BT2" s="38"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="38"/>
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="38"/>
+      <c r="CB2" s="38"/>
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="38"/>
+      <c r="CE2" s="38"/>
+      <c r="CF2" s="38"/>
+      <c r="CG2" s="38"/>
+      <c r="CH2" s="38"/>
+      <c r="CI2" s="38"/>
+      <c r="CJ2" s="38"/>
+      <c r="CK2" s="38"/>
+      <c r="CL2" s="38"/>
+      <c r="CM2" s="38"/>
+      <c r="CN2" s="38"/>
+      <c r="CO2" s="38"/>
+      <c r="CP2" s="38"/>
+      <c r="CQ2" s="38"/>
+      <c r="CR2" s="40"/>
     </row>
     <row r="3" spans="1:96" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="43" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="43"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="43"/>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="43"/>
-      <c r="CG3" s="43"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="43"/>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43"/>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43"/>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="45"/>
+      <c r="BU3" s="45"/>
+      <c r="BV3" s="45"/>
+      <c r="BW3" s="45"/>
+      <c r="BX3" s="45"/>
+      <c r="BY3" s="45"/>
+      <c r="BZ3" s="45"/>
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="45"/>
+      <c r="CC3" s="45"/>
+      <c r="CD3" s="45"/>
+      <c r="CE3" s="45"/>
+      <c r="CF3" s="45"/>
+      <c r="CG3" s="45"/>
+      <c r="CH3" s="45"/>
+      <c r="CI3" s="45"/>
+      <c r="CJ3" s="45"/>
+      <c r="CK3" s="45"/>
+      <c r="CL3" s="45"/>
+      <c r="CM3" s="45"/>
+      <c r="CN3" s="45"/>
+      <c r="CO3" s="45"/>
+      <c r="CP3" s="45"/>
+      <c r="CQ3" s="45"/>
+      <c r="CR3" s="47"/>
     </row>
     <row r="4" spans="1:96" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="44"/>
-      <c r="BE4" s="44"/>
-      <c r="BF4" s="44"/>
-      <c r="BG4" s="44"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="44"/>
-      <c r="BJ4" s="44"/>
-      <c r="BK4" s="44"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="44"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="44"/>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="44"/>
-      <c r="BZ4" s="44"/>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="44"/>
-      <c r="CE4" s="44"/>
-      <c r="CF4" s="44"/>
-      <c r="CG4" s="44"/>
-      <c r="CH4" s="44"/>
-      <c r="CI4" s="44"/>
-      <c r="CJ4" s="44"/>
-      <c r="CK4" s="44"/>
-      <c r="CL4" s="44"/>
-      <c r="CM4" s="44"/>
-      <c r="CN4" s="44"/>
-      <c r="CO4" s="44"/>
-      <c r="CP4" s="44"/>
-      <c r="CQ4" s="44"/>
-      <c r="CR4" s="46"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="46"/>
+      <c r="BC4" s="46"/>
+      <c r="BD4" s="46"/>
+      <c r="BE4" s="46"/>
+      <c r="BF4" s="46"/>
+      <c r="BG4" s="46"/>
+      <c r="BH4" s="46"/>
+      <c r="BI4" s="46"/>
+      <c r="BJ4" s="46"/>
+      <c r="BK4" s="46"/>
+      <c r="BL4" s="46"/>
+      <c r="BM4" s="46"/>
+      <c r="BN4" s="46"/>
+      <c r="BO4" s="46"/>
+      <c r="BP4" s="46"/>
+      <c r="BQ4" s="46"/>
+      <c r="BR4" s="46"/>
+      <c r="BS4" s="46"/>
+      <c r="BT4" s="46"/>
+      <c r="BU4" s="46"/>
+      <c r="BV4" s="46"/>
+      <c r="BW4" s="46"/>
+      <c r="BX4" s="46"/>
+      <c r="BY4" s="46"/>
+      <c r="BZ4" s="46"/>
+      <c r="CA4" s="46"/>
+      <c r="CB4" s="46"/>
+      <c r="CC4" s="46"/>
+      <c r="CD4" s="46"/>
+      <c r="CE4" s="46"/>
+      <c r="CF4" s="46"/>
+      <c r="CG4" s="46"/>
+      <c r="CH4" s="46"/>
+      <c r="CI4" s="46"/>
+      <c r="CJ4" s="46"/>
+      <c r="CK4" s="46"/>
+      <c r="CL4" s="46"/>
+      <c r="CM4" s="46"/>
+      <c r="CN4" s="46"/>
+      <c r="CO4" s="46"/>
+      <c r="CP4" s="46"/>
+      <c r="CQ4" s="46"/>
+      <c r="CR4" s="48"/>
     </row>
     <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
@@ -7843,7 +7673,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -7943,7 +7773,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -8239,217 +8069,217 @@
       <c r="CQ38" s="13"/>
       <c r="CR38" s="15"/>
     </row>
-    <row r="39" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="13"/>
-      <c r="AP39" s="13"/>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13"/>
-      <c r="AS39" s="13"/>
-      <c r="AT39" s="13"/>
-      <c r="AU39" s="13"/>
-      <c r="AV39" s="13"/>
-      <c r="AW39" s="13"/>
-      <c r="AX39" s="13"/>
-      <c r="AY39" s="13"/>
-      <c r="AZ39" s="13"/>
-      <c r="BA39" s="13"/>
-      <c r="BB39" s="13"/>
-      <c r="BC39" s="13"/>
-      <c r="BD39" s="13"/>
-      <c r="BE39" s="13"/>
-      <c r="BF39" s="13"/>
-      <c r="BG39" s="13"/>
-      <c r="BH39" s="13"/>
-      <c r="BI39" s="13"/>
-      <c r="BJ39" s="13"/>
-      <c r="BK39" s="13"/>
-      <c r="BL39" s="13"/>
-      <c r="BM39" s="13"/>
-      <c r="BN39" s="13"/>
-      <c r="BO39" s="13"/>
-      <c r="BP39" s="13"/>
-      <c r="BQ39" s="13"/>
-      <c r="BR39" s="13"/>
-      <c r="BS39" s="13"/>
-      <c r="BT39" s="13"/>
-      <c r="BU39" s="13"/>
-      <c r="BV39" s="13"/>
-      <c r="BW39" s="13"/>
-      <c r="BX39" s="13"/>
-      <c r="BY39" s="13"/>
-      <c r="BZ39" s="13"/>
-      <c r="CA39" s="13"/>
-      <c r="CB39" s="13"/>
-      <c r="CC39" s="13"/>
-      <c r="CD39" s="13"/>
-      <c r="CE39" s="13"/>
-      <c r="CF39" s="13"/>
-      <c r="CG39" s="13"/>
-      <c r="CH39" s="13"/>
-      <c r="CI39" s="13"/>
-      <c r="CJ39" s="13"/>
-      <c r="CK39" s="13"/>
-      <c r="CL39" s="13"/>
-      <c r="CM39" s="13"/>
-      <c r="CN39" s="13"/>
-      <c r="CO39" s="13"/>
-      <c r="CP39" s="13"/>
-      <c r="CQ39" s="13"/>
-      <c r="CR39" s="15"/>
+    <row r="39" spans="1:96" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="32"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="28"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="28"/>
+      <c r="AQ39" s="28"/>
+      <c r="AR39" s="28"/>
+      <c r="AS39" s="28"/>
+      <c r="AT39" s="28"/>
+      <c r="AU39" s="28"/>
+      <c r="AV39" s="28"/>
+      <c r="AW39" s="28"/>
+      <c r="AX39" s="28"/>
+      <c r="AY39" s="28"/>
+      <c r="AZ39" s="28"/>
+      <c r="BA39" s="28"/>
+      <c r="BB39" s="28"/>
+      <c r="BC39" s="28"/>
+      <c r="BD39" s="28"/>
+      <c r="BE39" s="28"/>
+      <c r="BF39" s="28"/>
+      <c r="BG39" s="28"/>
+      <c r="BH39" s="28"/>
+      <c r="BI39" s="28"/>
+      <c r="BJ39" s="28"/>
+      <c r="BK39" s="28"/>
+      <c r="BL39" s="28"/>
+      <c r="BM39" s="28"/>
+      <c r="BN39" s="28"/>
+      <c r="BO39" s="28"/>
+      <c r="BP39" s="28"/>
+      <c r="BQ39" s="28"/>
+      <c r="BR39" s="28"/>
+      <c r="BS39" s="28"/>
+      <c r="BT39" s="28"/>
+      <c r="BU39" s="28"/>
+      <c r="BV39" s="28"/>
+      <c r="BW39" s="28"/>
+      <c r="BX39" s="28"/>
+      <c r="BY39" s="28"/>
+      <c r="BZ39" s="28"/>
+      <c r="CA39" s="28"/>
+      <c r="CB39" s="28"/>
+      <c r="CC39" s="28"/>
+      <c r="CD39" s="28"/>
+      <c r="CE39" s="28"/>
+      <c r="CF39" s="28"/>
+      <c r="CG39" s="28"/>
+      <c r="CH39" s="28"/>
+      <c r="CI39" s="28"/>
+      <c r="CJ39" s="28"/>
+      <c r="CK39" s="28"/>
+      <c r="CL39" s="28"/>
+      <c r="CM39" s="28"/>
+      <c r="CN39" s="28"/>
+      <c r="CO39" s="28"/>
+      <c r="CP39" s="28"/>
+      <c r="CQ39" s="28"/>
+      <c r="CR39" s="34"/>
     </row>
-    <row r="40" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="13"/>
-      <c r="AP40" s="13"/>
-      <c r="AQ40" s="13"/>
-      <c r="AR40" s="13"/>
-      <c r="AS40" s="13"/>
-      <c r="AT40" s="13"/>
-      <c r="AU40" s="13"/>
-      <c r="AV40" s="13"/>
-      <c r="AW40" s="13"/>
-      <c r="AX40" s="13"/>
-      <c r="AY40" s="13"/>
-      <c r="AZ40" s="13"/>
-      <c r="BA40" s="13"/>
-      <c r="BB40" s="13"/>
-      <c r="BC40" s="13"/>
-      <c r="BD40" s="13"/>
-      <c r="BE40" s="13"/>
-      <c r="BF40" s="13"/>
-      <c r="BG40" s="13"/>
-      <c r="BH40" s="13"/>
-      <c r="BI40" s="13"/>
-      <c r="BJ40" s="13"/>
-      <c r="BK40" s="13"/>
-      <c r="BL40" s="13"/>
-      <c r="BM40" s="13"/>
-      <c r="BN40" s="13"/>
-      <c r="BO40" s="13"/>
-      <c r="BP40" s="13"/>
-      <c r="BQ40" s="13"/>
-      <c r="BR40" s="13"/>
-      <c r="BS40" s="13"/>
-      <c r="BT40" s="13"/>
-      <c r="BU40" s="13"/>
-      <c r="BV40" s="13"/>
-      <c r="BW40" s="13"/>
-      <c r="BX40" s="13"/>
-      <c r="BY40" s="13"/>
-      <c r="BZ40" s="13"/>
-      <c r="CA40" s="13"/>
-      <c r="CB40" s="13"/>
-      <c r="CC40" s="13"/>
-      <c r="CD40" s="13"/>
-      <c r="CE40" s="13"/>
-      <c r="CF40" s="13"/>
-      <c r="CG40" s="13"/>
-      <c r="CH40" s="13"/>
-      <c r="CI40" s="13"/>
-      <c r="CJ40" s="13"/>
-      <c r="CK40" s="13"/>
-      <c r="CL40" s="13"/>
-      <c r="CM40" s="13"/>
-      <c r="CN40" s="13"/>
-      <c r="CO40" s="13"/>
-      <c r="CP40" s="13"/>
-      <c r="CQ40" s="13"/>
-      <c r="CR40" s="15"/>
+    <row r="40" spans="1:96" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="32"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
+      <c r="AS40" s="28"/>
+      <c r="AT40" s="28"/>
+      <c r="AU40" s="28"/>
+      <c r="AV40" s="28"/>
+      <c r="AW40" s="28"/>
+      <c r="AX40" s="28"/>
+      <c r="AY40" s="28"/>
+      <c r="AZ40" s="28"/>
+      <c r="BA40" s="28"/>
+      <c r="BB40" s="28"/>
+      <c r="BC40" s="28"/>
+      <c r="BD40" s="28"/>
+      <c r="BE40" s="28"/>
+      <c r="BF40" s="28"/>
+      <c r="BG40" s="28"/>
+      <c r="BH40" s="28"/>
+      <c r="BI40" s="28"/>
+      <c r="BJ40" s="28"/>
+      <c r="BK40" s="28"/>
+      <c r="BL40" s="28"/>
+      <c r="BM40" s="28"/>
+      <c r="BN40" s="28"/>
+      <c r="BO40" s="28"/>
+      <c r="BP40" s="28"/>
+      <c r="BQ40" s="28"/>
+      <c r="BR40" s="28"/>
+      <c r="BS40" s="28"/>
+      <c r="BT40" s="28"/>
+      <c r="BU40" s="28"/>
+      <c r="BV40" s="28"/>
+      <c r="BW40" s="28"/>
+      <c r="BX40" s="28"/>
+      <c r="BY40" s="28"/>
+      <c r="BZ40" s="28"/>
+      <c r="CA40" s="28"/>
+      <c r="CB40" s="28"/>
+      <c r="CC40" s="28"/>
+      <c r="CD40" s="28"/>
+      <c r="CE40" s="28"/>
+      <c r="CF40" s="28"/>
+      <c r="CG40" s="28"/>
+      <c r="CH40" s="28"/>
+      <c r="CI40" s="28"/>
+      <c r="CJ40" s="28"/>
+      <c r="CK40" s="28"/>
+      <c r="CL40" s="28"/>
+      <c r="CM40" s="28"/>
+      <c r="CN40" s="28"/>
+      <c r="CO40" s="28"/>
+      <c r="CP40" s="28"/>
+      <c r="CQ40" s="28"/>
+      <c r="CR40" s="34"/>
     </row>
     <row r="41" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
@@ -8539,10 +8369,11 @@
     </row>
     <row r="42" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="B42" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -8639,10 +8470,11 @@
     <row r="43" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="C43" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -8738,10 +8570,10 @@
     <row r="44" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="E44" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="C44" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -8839,7 +8671,7 @@
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -8938,7 +8770,7 @@
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -9035,11 +8867,10 @@
     <row r="47" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
-      <c r="C47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="E47" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
@@ -9132,111 +8963,110 @@
       <c r="CQ47" s="13"/>
       <c r="CR47" s="15"/>
     </row>
-    <row r="48" spans="1:96" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
-      <c r="X48" s="48"/>
-      <c r="Y48" s="48"/>
-      <c r="Z48" s="48"/>
-      <c r="AA48" s="48"/>
-      <c r="AB48" s="48"/>
-      <c r="AC48" s="48"/>
-      <c r="AD48" s="48"/>
-      <c r="AE48" s="48"/>
-      <c r="AF48" s="48"/>
-      <c r="AG48" s="48"/>
-      <c r="AH48" s="48"/>
-      <c r="AI48" s="48"/>
-      <c r="AJ48" s="48"/>
-      <c r="AK48" s="48"/>
-      <c r="AL48" s="48"/>
-      <c r="AM48" s="48"/>
-      <c r="AN48" s="48"/>
-      <c r="AO48" s="48"/>
-      <c r="AP48" s="48"/>
-      <c r="AQ48" s="48"/>
-      <c r="AR48" s="48"/>
-      <c r="AS48" s="48"/>
-      <c r="AT48" s="48"/>
-      <c r="AU48" s="48"/>
-      <c r="AV48" s="48"/>
-      <c r="AW48" s="48"/>
-      <c r="AX48" s="48"/>
-      <c r="AY48" s="48"/>
-      <c r="AZ48" s="48"/>
-      <c r="BA48" s="48"/>
-      <c r="BB48" s="48"/>
-      <c r="BC48" s="48"/>
-      <c r="BD48" s="48"/>
-      <c r="BE48" s="48"/>
-      <c r="BF48" s="48"/>
-      <c r="BG48" s="48"/>
-      <c r="BH48" s="48"/>
-      <c r="BI48" s="48"/>
-      <c r="BJ48" s="48"/>
-      <c r="BK48" s="48"/>
-      <c r="BL48" s="48"/>
-      <c r="BM48" s="48"/>
-      <c r="BN48" s="48"/>
-      <c r="BO48" s="48"/>
-      <c r="BP48" s="48"/>
-      <c r="BQ48" s="48"/>
-      <c r="BR48" s="48"/>
-      <c r="BS48" s="48"/>
-      <c r="BT48" s="48"/>
-      <c r="BU48" s="48"/>
-      <c r="BV48" s="48"/>
-      <c r="BW48" s="48"/>
-      <c r="BX48" s="48"/>
-      <c r="BY48" s="48"/>
-      <c r="BZ48" s="48"/>
-      <c r="CA48" s="48"/>
-      <c r="CB48" s="48"/>
-      <c r="CC48" s="48"/>
-      <c r="CD48" s="48"/>
-      <c r="CE48" s="48"/>
-      <c r="CF48" s="48"/>
-      <c r="CG48" s="48"/>
-      <c r="CH48" s="48"/>
-      <c r="CI48" s="48"/>
-      <c r="CJ48" s="48"/>
-      <c r="CK48" s="48"/>
-      <c r="CL48" s="48"/>
-      <c r="CM48" s="48"/>
-      <c r="CN48" s="48"/>
-      <c r="CO48" s="48"/>
-      <c r="CP48" s="48"/>
-      <c r="CQ48" s="48"/>
-      <c r="CR48" s="49"/>
+    <row r="48" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="E48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="13"/>
+      <c r="AM48" s="13"/>
+      <c r="AN48" s="13"/>
+      <c r="AO48" s="13"/>
+      <c r="AP48" s="13"/>
+      <c r="AQ48" s="13"/>
+      <c r="AR48" s="13"/>
+      <c r="AS48" s="13"/>
+      <c r="AT48" s="13"/>
+      <c r="AU48" s="13"/>
+      <c r="AV48" s="13"/>
+      <c r="AW48" s="13"/>
+      <c r="AX48" s="13"/>
+      <c r="AY48" s="13"/>
+      <c r="AZ48" s="13"/>
+      <c r="BA48" s="13"/>
+      <c r="BB48" s="13"/>
+      <c r="BC48" s="13"/>
+      <c r="BD48" s="13"/>
+      <c r="BE48" s="13"/>
+      <c r="BF48" s="13"/>
+      <c r="BG48" s="13"/>
+      <c r="BH48" s="13"/>
+      <c r="BI48" s="13"/>
+      <c r="BJ48" s="13"/>
+      <c r="BK48" s="13"/>
+      <c r="BL48" s="13"/>
+      <c r="BM48" s="13"/>
+      <c r="BN48" s="13"/>
+      <c r="BO48" s="13"/>
+      <c r="BP48" s="13"/>
+      <c r="BQ48" s="13"/>
+      <c r="BR48" s="13"/>
+      <c r="BS48" s="13"/>
+      <c r="BT48" s="13"/>
+      <c r="BU48" s="13"/>
+      <c r="BV48" s="13"/>
+      <c r="BW48" s="13"/>
+      <c r="BX48" s="13"/>
+      <c r="BY48" s="13"/>
+      <c r="BZ48" s="13"/>
+      <c r="CA48" s="13"/>
+      <c r="CB48" s="13"/>
+      <c r="CC48" s="13"/>
+      <c r="CD48" s="13"/>
+      <c r="CE48" s="13"/>
+      <c r="CF48" s="13"/>
+      <c r="CG48" s="13"/>
+      <c r="CH48" s="13"/>
+      <c r="CI48" s="13"/>
+      <c r="CJ48" s="13"/>
+      <c r="CK48" s="13"/>
+      <c r="CL48" s="13"/>
+      <c r="CM48" s="13"/>
+      <c r="CN48" s="13"/>
+      <c r="CO48" s="13"/>
+      <c r="CP48" s="13"/>
+      <c r="CQ48" s="13"/>
+      <c r="CR48" s="15"/>
     </row>
     <row r="49" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -9335,8 +9165,8 @@
     <row r="50" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="13" t="s">
-        <v>85</v>
+      <c r="C50" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -9435,6 +9265,9 @@
     <row r="51" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -9531,10 +9364,7 @@
     </row>
     <row r="52" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
-      <c r="B52" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="13"/>
+      <c r="B52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -9631,10 +9461,10 @@
     </row>
     <row r="53" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="B53" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -9732,7 +9562,9 @@
     <row r="54" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -9829,12 +9661,8 @@
     </row>
     <row r="55" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12"/>
-      <c r="B55" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
@@ -9931,9 +9759,11 @@
     </row>
     <row r="56" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
+      <c r="B56" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="C56" s="13" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -10032,12 +9862,12 @@
     <row r="57" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12"/>
       <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
+      <c r="C57" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -10133,11 +9963,11 @@
       <c r="A58" s="12"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
+      <c r="D58" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
@@ -10233,11 +10063,11 @@
       <c r="A59" s="12"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
+      <c r="D59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -10330,186 +10160,206 @@
       <c r="CR59" s="15"/>
     </row>
     <row r="60" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="16">
-        <v>4</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="17"/>
-      <c r="AB60" s="17"/>
-      <c r="AC60" s="17"/>
-      <c r="AD60" s="17"/>
-      <c r="AE60" s="17"/>
-      <c r="AF60" s="17"/>
-      <c r="AG60" s="17"/>
-      <c r="AH60" s="17"/>
-      <c r="AI60" s="17"/>
-      <c r="AJ60" s="17"/>
-      <c r="AK60" s="17"/>
-      <c r="AL60" s="17"/>
-      <c r="AM60" s="17"/>
-      <c r="AN60" s="17"/>
-      <c r="AO60" s="17"/>
-      <c r="AP60" s="17"/>
-      <c r="AQ60" s="17"/>
-      <c r="AR60" s="17"/>
-      <c r="AS60" s="17"/>
-      <c r="AT60" s="17"/>
-      <c r="AU60" s="17"/>
-      <c r="AV60" s="17"/>
-      <c r="AW60" s="17"/>
-      <c r="AX60" s="17"/>
-      <c r="AY60" s="17"/>
-      <c r="AZ60" s="17"/>
-      <c r="BA60" s="17"/>
-      <c r="BB60" s="17"/>
-      <c r="BC60" s="17"/>
-      <c r="BD60" s="17"/>
-      <c r="BE60" s="17"/>
-      <c r="BF60" s="17"/>
-      <c r="BG60" s="17"/>
-      <c r="BH60" s="17"/>
-      <c r="BI60" s="17"/>
-      <c r="BJ60" s="17"/>
-      <c r="BK60" s="17"/>
-      <c r="BL60" s="17"/>
-      <c r="BM60" s="17"/>
-      <c r="BN60" s="17"/>
-      <c r="BO60" s="17"/>
-      <c r="BP60" s="17"/>
-      <c r="BQ60" s="17"/>
-      <c r="BR60" s="17"/>
-      <c r="BS60" s="17"/>
-      <c r="BT60" s="17"/>
-      <c r="BU60" s="17"/>
-      <c r="BV60" s="17"/>
-      <c r="BW60" s="17"/>
-      <c r="BX60" s="17"/>
-      <c r="BY60" s="17"/>
-      <c r="BZ60" s="17"/>
-      <c r="CA60" s="17"/>
-      <c r="CB60" s="17"/>
-      <c r="CC60" s="17"/>
-      <c r="CD60" s="17"/>
-      <c r="CE60" s="17"/>
-      <c r="CF60" s="17"/>
-      <c r="CG60" s="17"/>
-      <c r="CH60" s="17"/>
-      <c r="CI60" s="17"/>
-      <c r="CJ60" s="17"/>
-      <c r="CK60" s="17"/>
-      <c r="CL60" s="17"/>
-      <c r="CM60" s="17"/>
-      <c r="CN60" s="17"/>
-      <c r="CO60" s="17"/>
-      <c r="CP60" s="17"/>
-      <c r="CQ60" s="17"/>
-      <c r="CR60" s="18"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="13"/>
+      <c r="AI60" s="13"/>
+      <c r="AJ60" s="13"/>
+      <c r="AK60" s="13"/>
+      <c r="AL60" s="13"/>
+      <c r="AM60" s="13"/>
+      <c r="AN60" s="13"/>
+      <c r="AO60" s="13"/>
+      <c r="AP60" s="13"/>
+      <c r="AQ60" s="13"/>
+      <c r="AR60" s="13"/>
+      <c r="AS60" s="13"/>
+      <c r="AT60" s="13"/>
+      <c r="AU60" s="13"/>
+      <c r="AV60" s="13"/>
+      <c r="AW60" s="13"/>
+      <c r="AX60" s="13"/>
+      <c r="AY60" s="13"/>
+      <c r="AZ60" s="13"/>
+      <c r="BA60" s="13"/>
+      <c r="BB60" s="13"/>
+      <c r="BC60" s="13"/>
+      <c r="BD60" s="13"/>
+      <c r="BE60" s="13"/>
+      <c r="BF60" s="13"/>
+      <c r="BG60" s="13"/>
+      <c r="BH60" s="13"/>
+      <c r="BI60" s="13"/>
+      <c r="BJ60" s="13"/>
+      <c r="BK60" s="13"/>
+      <c r="BL60" s="13"/>
+      <c r="BM60" s="13"/>
+      <c r="BN60" s="13"/>
+      <c r="BO60" s="13"/>
+      <c r="BP60" s="13"/>
+      <c r="BQ60" s="13"/>
+      <c r="BR60" s="13"/>
+      <c r="BS60" s="13"/>
+      <c r="BT60" s="13"/>
+      <c r="BU60" s="13"/>
+      <c r="BV60" s="13"/>
+      <c r="BW60" s="13"/>
+      <c r="BX60" s="13"/>
+      <c r="BY60" s="13"/>
+      <c r="BZ60" s="13"/>
+      <c r="CA60" s="13"/>
+      <c r="CB60" s="13"/>
+      <c r="CC60" s="13"/>
+      <c r="CD60" s="13"/>
+      <c r="CE60" s="13"/>
+      <c r="CF60" s="13"/>
+      <c r="CG60" s="13"/>
+      <c r="CH60" s="13"/>
+      <c r="CI60" s="13"/>
+      <c r="CJ60" s="13"/>
+      <c r="CK60" s="13"/>
+      <c r="CL60" s="13"/>
+      <c r="CM60" s="13"/>
+      <c r="CN60" s="13"/>
+      <c r="CO60" s="13"/>
+      <c r="CP60" s="13"/>
+      <c r="CQ60" s="13"/>
+      <c r="CR60" s="15"/>
     </row>
     <row r="61" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="13"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="13"/>
-      <c r="AG61" s="13"/>
-      <c r="AH61" s="13"/>
-      <c r="AI61" s="13"/>
-      <c r="AJ61" s="13"/>
-      <c r="AK61" s="13"/>
-      <c r="AL61" s="13"/>
-      <c r="AM61" s="13"/>
-      <c r="AN61" s="13"/>
-      <c r="AO61" s="13"/>
-      <c r="AP61" s="13"/>
-      <c r="AQ61" s="13"/>
-      <c r="AR61" s="13"/>
-      <c r="AS61" s="13"/>
-      <c r="AT61" s="13"/>
-      <c r="AU61" s="13"/>
-      <c r="AV61" s="13"/>
-      <c r="AW61" s="13"/>
-      <c r="AX61" s="13"/>
-      <c r="AY61" s="13"/>
-      <c r="AZ61" s="13"/>
-      <c r="BA61" s="13"/>
-      <c r="BB61" s="13"/>
-      <c r="BC61" s="13"/>
-      <c r="BD61" s="13"/>
-      <c r="BE61" s="13"/>
-      <c r="BF61" s="13"/>
-      <c r="BG61" s="13"/>
-      <c r="BH61" s="13"/>
-      <c r="BZ61" s="13"/>
-      <c r="CA61" s="13"/>
-      <c r="CB61" s="13"/>
-      <c r="CC61" s="13"/>
-      <c r="CD61" s="13"/>
-      <c r="CE61" s="13"/>
-      <c r="CF61" s="13"/>
-      <c r="CG61" s="13"/>
-      <c r="CH61" s="13"/>
-      <c r="CI61" s="13"/>
-      <c r="CJ61" s="13"/>
-      <c r="CK61" s="13"/>
-      <c r="CL61" s="13"/>
-      <c r="CM61" s="13"/>
-      <c r="CN61" s="13"/>
-      <c r="CO61" s="13"/>
-      <c r="CP61" s="13"/>
-      <c r="CQ61" s="13"/>
-      <c r="CR61" s="15"/>
+      <c r="A61" s="16">
+        <v>4</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="17"/>
+      <c r="AH61" s="17"/>
+      <c r="AI61" s="17"/>
+      <c r="AJ61" s="17"/>
+      <c r="AK61" s="17"/>
+      <c r="AL61" s="17"/>
+      <c r="AM61" s="17"/>
+      <c r="AN61" s="17"/>
+      <c r="AO61" s="17"/>
+      <c r="AP61" s="17"/>
+      <c r="AQ61" s="17"/>
+      <c r="AR61" s="17"/>
+      <c r="AS61" s="17"/>
+      <c r="AT61" s="17"/>
+      <c r="AU61" s="17"/>
+      <c r="AV61" s="17"/>
+      <c r="AW61" s="17"/>
+      <c r="AX61" s="17"/>
+      <c r="AY61" s="17"/>
+      <c r="AZ61" s="17"/>
+      <c r="BA61" s="17"/>
+      <c r="BB61" s="17"/>
+      <c r="BC61" s="17"/>
+      <c r="BD61" s="17"/>
+      <c r="BE61" s="17"/>
+      <c r="BF61" s="17"/>
+      <c r="BG61" s="17"/>
+      <c r="BH61" s="17"/>
+      <c r="BI61" s="17"/>
+      <c r="BJ61" s="17"/>
+      <c r="BK61" s="17"/>
+      <c r="BL61" s="17"/>
+      <c r="BM61" s="17"/>
+      <c r="BN61" s="17"/>
+      <c r="BO61" s="17"/>
+      <c r="BP61" s="17"/>
+      <c r="BQ61" s="17"/>
+      <c r="BR61" s="17"/>
+      <c r="BS61" s="17"/>
+      <c r="BT61" s="17"/>
+      <c r="BU61" s="17"/>
+      <c r="BV61" s="17"/>
+      <c r="BW61" s="17"/>
+      <c r="BX61" s="17"/>
+      <c r="BY61" s="17"/>
+      <c r="BZ61" s="17"/>
+      <c r="CA61" s="17"/>
+      <c r="CB61" s="17"/>
+      <c r="CC61" s="17"/>
+      <c r="CD61" s="17"/>
+      <c r="CE61" s="17"/>
+      <c r="CF61" s="17"/>
+      <c r="CG61" s="17"/>
+      <c r="CH61" s="17"/>
+      <c r="CI61" s="17"/>
+      <c r="CJ61" s="17"/>
+      <c r="CK61" s="17"/>
+      <c r="CL61" s="17"/>
+      <c r="CM61" s="17"/>
+      <c r="CN61" s="17"/>
+      <c r="CO61" s="17"/>
+      <c r="CP61" s="17"/>
+      <c r="CQ61" s="17"/>
+      <c r="CR61" s="18"/>
     </row>
     <row r="62" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
@@ -10612,6 +10462,7 @@
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
       <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
       <c r="W63" s="13"/>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -10691,21 +10542,18 @@
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
       <c r="U64" s="13"/>
-      <c r="V64" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="28"/>
-      <c r="AE64" s="28"/>
-      <c r="AF64" s="28"/>
-      <c r="AG64" s="28"/>
-      <c r="AH64" s="28"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="13"/>
+      <c r="AC64" s="13"/>
+      <c r="AD64" s="13"/>
+      <c r="AE64" s="13"/>
+      <c r="AF64" s="13"/>
+      <c r="AG64" s="13"/>
+      <c r="AH64" s="13"/>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
       <c r="AK64" s="13"/>
@@ -10773,21 +10621,21 @@
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
-      <c r="V65" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="28"/>
-      <c r="AE65" s="28"/>
-      <c r="AF65" s="28"/>
-      <c r="AG65" s="28"/>
-      <c r="AH65" s="28"/>
+      <c r="V65" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="13"/>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="13"/>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="13"/>
+      <c r="AE65" s="13"/>
+      <c r="AF65" s="13"/>
+      <c r="AG65" s="13"/>
+      <c r="AH65" s="13"/>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
       <c r="AK65" s="13"/>
@@ -10855,7 +10703,9 @@
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
       <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
+      <c r="V66" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="W66" s="13"/>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -11126,9 +10976,7 @@
       <c r="AX69" s="13"/>
       <c r="AY69" s="13"/>
       <c r="AZ69" s="13"/>
-      <c r="BA69" s="28" t="s">
-        <v>89</v>
-      </c>
+      <c r="BA69" s="13"/>
       <c r="BB69" s="13"/>
       <c r="BC69" s="13"/>
       <c r="BD69" s="13"/>
@@ -11208,7 +11056,9 @@
       <c r="AX70" s="13"/>
       <c r="AY70" s="13"/>
       <c r="AZ70" s="13"/>
-      <c r="BA70" s="13"/>
+      <c r="BA70" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="BB70" s="13"/>
       <c r="BC70" s="13"/>
       <c r="BD70" s="13"/>
@@ -11296,6 +11146,12 @@
       <c r="BF71" s="13"/>
       <c r="BG71" s="13"/>
       <c r="BH71" s="13"/>
+      <c r="BZ71" s="13"/>
+      <c r="CA71" s="13"/>
+      <c r="CB71" s="13"/>
+      <c r="CC71" s="13"/>
+      <c r="CD71" s="13"/>
+      <c r="CE71" s="13"/>
       <c r="CF71" s="13"/>
       <c r="CG71" s="13"/>
       <c r="CH71" s="13"/>
@@ -11311,42 +11167,37 @@
       <c r="CR71" s="15"/>
     </row>
     <row r="72" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="32"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="28"/>
-      <c r="AE72" s="28"/>
-      <c r="AF72" s="28"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="13"/>
+      <c r="AE72" s="13"/>
+      <c r="AF72" s="13"/>
       <c r="AG72" s="13"/>
       <c r="AH72" s="13"/>
       <c r="AI72" s="13"/>
@@ -11390,38 +11241,41 @@
       <c r="CR72" s="15"/>
     </row>
     <row r="73" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="32"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
-      <c r="AE73" s="28"/>
-      <c r="AF73" s="28"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+      <c r="AA73" s="13"/>
+      <c r="AB73" s="13"/>
+      <c r="AC73" s="13"/>
+      <c r="AD73" s="13"/>
+      <c r="AE73" s="13"/>
+      <c r="AF73" s="13"/>
       <c r="AG73" s="13"/>
       <c r="AH73" s="13"/>
       <c r="AI73" s="13"/>
@@ -11465,38 +11319,37 @@
       <c r="CR73" s="15"/>
     </row>
     <row r="74" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="32"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="28"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
-      <c r="AE74" s="28"/>
-      <c r="AF74" s="28"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
+      <c r="AC74" s="13"/>
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="13"/>
+      <c r="AF74" s="13"/>
       <c r="AG74" s="13"/>
       <c r="AH74" s="13"/>
       <c r="AI74" s="13"/>
@@ -11525,15 +11378,6 @@
       <c r="BF74" s="13"/>
       <c r="BG74" s="13"/>
       <c r="BH74" s="13"/>
-      <c r="BI74" s="13"/>
-      <c r="BJ74" s="13"/>
-      <c r="BK74" s="13"/>
-      <c r="BL74" s="13"/>
-      <c r="BM74" s="13"/>
-      <c r="BN74" s="13"/>
-      <c r="BU74" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="CF74" s="13"/>
       <c r="CG74" s="13"/>
       <c r="CH74" s="13"/>
@@ -11549,38 +11393,37 @@
       <c r="CR74" s="15"/>
     </row>
     <row r="75" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="32"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="28"/>
-      <c r="AC75" s="28"/>
-      <c r="AD75" s="28"/>
-      <c r="AE75" s="28"/>
-      <c r="AF75" s="28"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
+      <c r="AC75" s="13"/>
+      <c r="AD75" s="13"/>
+      <c r="AE75" s="13"/>
+      <c r="AF75" s="13"/>
       <c r="AG75" s="13"/>
       <c r="AH75" s="13"/>
       <c r="AI75" s="13"/>
@@ -11615,6 +11458,9 @@
       <c r="BL75" s="13"/>
       <c r="BM75" s="13"/>
       <c r="BN75" s="13"/>
+      <c r="BU75" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="CF75" s="13"/>
       <c r="CG75" s="13"/>
       <c r="CH75" s="13"/>
@@ -11630,38 +11476,37 @@
       <c r="CR75" s="15"/>
     </row>
     <row r="76" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="32"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-      <c r="AC76" s="28"/>
-      <c r="AD76" s="28"/>
-      <c r="AE76" s="28"/>
-      <c r="AF76" s="28"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="13"/>
+      <c r="AC76" s="13"/>
+      <c r="AD76" s="13"/>
+      <c r="AE76" s="13"/>
+      <c r="AF76" s="13"/>
       <c r="AG76" s="13"/>
       <c r="AH76" s="13"/>
       <c r="AI76" s="13"/>
@@ -11711,38 +11556,37 @@
       <c r="CR76" s="15"/>
     </row>
     <row r="77" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="32"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28"/>
-      <c r="AD77" s="28"/>
-      <c r="AE77" s="28"/>
-      <c r="AF77" s="28"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="13"/>
+      <c r="Y77" s="13"/>
+      <c r="Z77" s="13"/>
+      <c r="AA77" s="13"/>
+      <c r="AB77" s="13"/>
+      <c r="AC77" s="13"/>
+      <c r="AD77" s="13"/>
+      <c r="AE77" s="13"/>
+      <c r="AF77" s="13"/>
       <c r="AG77" s="13"/>
       <c r="AH77" s="13"/>
       <c r="AI77" s="13"/>
@@ -11775,6 +11619,8 @@
       <c r="BJ77" s="13"/>
       <c r="BK77" s="13"/>
       <c r="BL77" s="13"/>
+      <c r="BM77" s="13"/>
+      <c r="BN77" s="13"/>
       <c r="CF77" s="13"/>
       <c r="CG77" s="13"/>
       <c r="CH77" s="13"/>
@@ -11790,38 +11636,37 @@
       <c r="CR77" s="15"/>
     </row>
     <row r="78" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="32"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="28"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="28"/>
-      <c r="AE78" s="28"/>
-      <c r="AF78" s="28"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="13"/>
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="13"/>
+      <c r="AC78" s="13"/>
+      <c r="AD78" s="13"/>
+      <c r="AE78" s="13"/>
+      <c r="AF78" s="13"/>
       <c r="AG78" s="13"/>
       <c r="AH78" s="13"/>
       <c r="AI78" s="13"/>
@@ -11854,23 +11699,6 @@
       <c r="BJ78" s="13"/>
       <c r="BK78" s="13"/>
       <c r="BL78" s="13"/>
-      <c r="BM78" s="13"/>
-      <c r="BN78" s="13"/>
-      <c r="BO78" s="13"/>
-      <c r="BP78" s="13"/>
-      <c r="BQ78" s="13"/>
-      <c r="BR78" s="13"/>
-      <c r="BS78" s="13"/>
-      <c r="BT78" s="13"/>
-      <c r="BU78" s="13"/>
-      <c r="BV78" s="13"/>
-      <c r="BW78" s="13"/>
-      <c r="BX78" s="13"/>
-      <c r="BY78" s="13"/>
-      <c r="BZ78" s="13"/>
-      <c r="CA78" s="13"/>
-      <c r="CB78" s="13"/>
-      <c r="CC78" s="13"/>
       <c r="CF78" s="13"/>
       <c r="CG78" s="13"/>
       <c r="CH78" s="13"/>
@@ -11886,42 +11714,37 @@
       <c r="CR78" s="15"/>
     </row>
     <row r="79" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="32"/>
-      <c r="B79" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="28"/>
-      <c r="AC79" s="28"/>
-      <c r="AD79" s="28"/>
-      <c r="AE79" s="28"/>
-      <c r="AF79" s="28"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13"/>
+      <c r="Z79" s="13"/>
+      <c r="AA79" s="13"/>
+      <c r="AB79" s="13"/>
+      <c r="AC79" s="13"/>
+      <c r="AD79" s="13"/>
+      <c r="AE79" s="13"/>
+      <c r="AF79" s="13"/>
       <c r="AG79" s="13"/>
       <c r="AH79" s="13"/>
       <c r="AI79" s="13"/>
@@ -11987,7 +11810,9 @@
     </row>
     <row r="80" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
+      <c r="B80" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
@@ -12005,7 +11830,9 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
+      <c r="U80" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="V80" s="13"/>
       <c r="W80" s="13"/>
       <c r="X80" s="13"/>
@@ -12050,17 +11877,17 @@
       <c r="BK80" s="13"/>
       <c r="BL80" s="13"/>
       <c r="BM80" s="13"/>
-      <c r="BN80" s="30"/>
-      <c r="BO80" s="30"/>
-      <c r="BP80" s="30"/>
-      <c r="BQ80" s="30"/>
-      <c r="BR80" s="30"/>
-      <c r="BS80" s="30"/>
-      <c r="BT80" s="30"/>
-      <c r="BU80" s="30"/>
-      <c r="BV80" s="30"/>
-      <c r="BW80" s="30"/>
-      <c r="BX80" s="30"/>
+      <c r="BN80" s="13"/>
+      <c r="BO80" s="13"/>
+      <c r="BP80" s="13"/>
+      <c r="BQ80" s="13"/>
+      <c r="BR80" s="13"/>
+      <c r="BS80" s="13"/>
+      <c r="BT80" s="13"/>
+      <c r="BU80" s="13"/>
+      <c r="BV80" s="13"/>
+      <c r="BW80" s="13"/>
+      <c r="BX80" s="13"/>
       <c r="BY80" s="13"/>
       <c r="BZ80" s="13"/>
       <c r="CA80" s="13"/>
@@ -12240,17 +12067,17 @@
       <c r="BK82" s="13"/>
       <c r="BL82" s="13"/>
       <c r="BM82" s="13"/>
-      <c r="BN82" s="13"/>
-      <c r="BO82" s="31"/>
-      <c r="BP82" s="31"/>
-      <c r="BQ82" s="31"/>
-      <c r="BR82" s="31"/>
-      <c r="BS82" s="31"/>
-      <c r="BT82" s="31"/>
-      <c r="BU82" s="31"/>
-      <c r="BV82" s="31"/>
-      <c r="BW82" s="31"/>
-      <c r="BX82" s="13"/>
+      <c r="BN82" s="30"/>
+      <c r="BO82" s="30"/>
+      <c r="BP82" s="30"/>
+      <c r="BQ82" s="30"/>
+      <c r="BR82" s="30"/>
+      <c r="BS82" s="30"/>
+      <c r="BT82" s="30"/>
+      <c r="BU82" s="30"/>
+      <c r="BV82" s="30"/>
+      <c r="BW82" s="30"/>
+      <c r="BX82" s="30"/>
       <c r="BY82" s="13"/>
       <c r="BZ82" s="13"/>
       <c r="CA82" s="13"/>
@@ -12446,8 +12273,6 @@
       <c r="CA84" s="13"/>
       <c r="CB84" s="13"/>
       <c r="CC84" s="13"/>
-      <c r="CD84" s="13"/>
-      <c r="CE84" s="13"/>
       <c r="CF84" s="13"/>
       <c r="CG84" s="13"/>
       <c r="CH84" s="13"/>
@@ -12819,15 +12644,15 @@
       <c r="BL88" s="13"/>
       <c r="BM88" s="13"/>
       <c r="BN88" s="13"/>
-      <c r="BO88" s="13"/>
-      <c r="BP88" s="13"/>
-      <c r="BQ88" s="13"/>
-      <c r="BR88" s="13"/>
-      <c r="BS88" s="13"/>
-      <c r="BT88" s="13"/>
-      <c r="BU88" s="13"/>
-      <c r="BV88" s="13"/>
-      <c r="BW88" s="13"/>
+      <c r="BO88" s="31"/>
+      <c r="BP88" s="31"/>
+      <c r="BQ88" s="31"/>
+      <c r="BR88" s="31"/>
+      <c r="BS88" s="31"/>
+      <c r="BT88" s="31"/>
+      <c r="BU88" s="31"/>
+      <c r="BV88" s="31"/>
+      <c r="BW88" s="31"/>
       <c r="BX88" s="13"/>
       <c r="BY88" s="13"/>
       <c r="BZ88" s="13"/>
@@ -12947,103 +12772,200 @@
       <c r="CQ89" s="13"/>
       <c r="CR89" s="15"/>
     </row>
-    <row r="90" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="22"/>
-      <c r="V90" s="22"/>
-      <c r="W90" s="22"/>
-      <c r="X90" s="22"/>
-      <c r="Y90" s="22"/>
-      <c r="Z90" s="22"/>
-      <c r="AA90" s="22"/>
-      <c r="AB90" s="22"/>
-      <c r="AC90" s="22"/>
-      <c r="AD90" s="22"/>
-      <c r="AE90" s="22"/>
-      <c r="AF90" s="22"/>
-      <c r="AG90" s="22"/>
-      <c r="AH90" s="22"/>
-      <c r="AI90" s="22"/>
-      <c r="AJ90" s="22"/>
-      <c r="AK90" s="22"/>
-      <c r="AL90" s="22"/>
-      <c r="AM90" s="22"/>
-      <c r="AN90" s="22"/>
-      <c r="AO90" s="22"/>
-      <c r="AP90" s="22"/>
-      <c r="AQ90" s="22"/>
-      <c r="AR90" s="22"/>
-      <c r="AS90" s="22"/>
-      <c r="AT90" s="22"/>
-      <c r="AU90" s="22"/>
-      <c r="AV90" s="22"/>
-      <c r="AW90" s="22"/>
-      <c r="AX90" s="22"/>
-      <c r="AY90" s="22"/>
-      <c r="AZ90" s="22"/>
-      <c r="BA90" s="22"/>
-      <c r="BB90" s="22"/>
-      <c r="BC90" s="22"/>
-      <c r="BD90" s="22"/>
-      <c r="BE90" s="22"/>
-      <c r="BF90" s="22"/>
-      <c r="BG90" s="22"/>
-      <c r="BH90" s="22"/>
-      <c r="BI90" s="22"/>
-      <c r="BJ90" s="22"/>
-      <c r="BK90" s="22"/>
-      <c r="BL90" s="22"/>
-      <c r="BM90" s="22"/>
-      <c r="BN90" s="22"/>
-      <c r="BO90" s="22"/>
-      <c r="BP90" s="22"/>
-      <c r="BQ90" s="22"/>
-      <c r="BR90" s="22"/>
-      <c r="BS90" s="22"/>
-      <c r="BT90" s="22"/>
-      <c r="BU90" s="22"/>
-      <c r="BV90" s="22"/>
-      <c r="BW90" s="22"/>
-      <c r="BX90" s="22"/>
-      <c r="BY90" s="22"/>
-      <c r="BZ90" s="22"/>
-      <c r="CA90" s="22"/>
-      <c r="CB90" s="22"/>
-      <c r="CC90" s="22"/>
-      <c r="CD90" s="22"/>
-      <c r="CE90" s="22"/>
-      <c r="CF90" s="22"/>
-      <c r="CG90" s="22"/>
-      <c r="CH90" s="22"/>
-      <c r="CI90" s="22"/>
-      <c r="CJ90" s="22"/>
-      <c r="CK90" s="22"/>
-      <c r="CL90" s="22"/>
-      <c r="CM90" s="22"/>
-      <c r="CN90" s="22"/>
-      <c r="CO90" s="22"/>
-      <c r="CP90" s="22"/>
-      <c r="CQ90" s="22"/>
-      <c r="CR90" s="23"/>
+    <row r="90" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
+      <c r="X90" s="13"/>
+      <c r="Y90" s="13"/>
+      <c r="Z90" s="13"/>
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13"/>
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="13"/>
+      <c r="AG90" s="13"/>
+      <c r="AH90" s="13"/>
+      <c r="AI90" s="13"/>
+      <c r="AJ90" s="13"/>
+      <c r="AK90" s="13"/>
+      <c r="AL90" s="13"/>
+      <c r="AM90" s="13"/>
+      <c r="AN90" s="13"/>
+      <c r="AO90" s="13"/>
+      <c r="AP90" s="13"/>
+      <c r="AQ90" s="13"/>
+      <c r="AR90" s="13"/>
+      <c r="AS90" s="13"/>
+      <c r="AT90" s="13"/>
+      <c r="AU90" s="13"/>
+      <c r="AV90" s="13"/>
+      <c r="AW90" s="13"/>
+      <c r="AX90" s="13"/>
+      <c r="AY90" s="13"/>
+      <c r="AZ90" s="13"/>
+      <c r="BA90" s="13"/>
+      <c r="BB90" s="13"/>
+      <c r="BC90" s="13"/>
+      <c r="BD90" s="13"/>
+      <c r="BE90" s="13"/>
+      <c r="BF90" s="13"/>
+      <c r="BG90" s="13"/>
+      <c r="BH90" s="13"/>
+      <c r="BI90" s="13"/>
+      <c r="BJ90" s="13"/>
+      <c r="BK90" s="13"/>
+      <c r="BL90" s="13"/>
+      <c r="BM90" s="13"/>
+      <c r="BN90" s="13"/>
+      <c r="BO90" s="13"/>
+      <c r="BP90" s="13"/>
+      <c r="BQ90" s="13"/>
+      <c r="BR90" s="13"/>
+      <c r="BS90" s="13"/>
+      <c r="BT90" s="13"/>
+      <c r="BU90" s="13"/>
+      <c r="BV90" s="13"/>
+      <c r="BW90" s="13"/>
+      <c r="BX90" s="13"/>
+      <c r="BY90" s="13"/>
+      <c r="BZ90" s="13"/>
+      <c r="CA90" s="13"/>
+      <c r="CB90" s="13"/>
+      <c r="CC90" s="13"/>
+      <c r="CD90" s="13"/>
+      <c r="CE90" s="13"/>
+      <c r="CF90" s="13"/>
+      <c r="CG90" s="13"/>
+      <c r="CH90" s="13"/>
+      <c r="CI90" s="13"/>
+      <c r="CJ90" s="13"/>
+      <c r="CK90" s="13"/>
+      <c r="CL90" s="13"/>
+      <c r="CM90" s="13"/>
+      <c r="CN90" s="13"/>
+      <c r="CO90" s="13"/>
+      <c r="CP90" s="13"/>
+      <c r="CQ90" s="13"/>
+      <c r="CR90" s="15"/>
+    </row>
+    <row r="91" spans="1:96" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
+      <c r="V91" s="22"/>
+      <c r="W91" s="22"/>
+      <c r="X91" s="22"/>
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="22"/>
+      <c r="AA91" s="22"/>
+      <c r="AB91" s="22"/>
+      <c r="AC91" s="22"/>
+      <c r="AD91" s="22"/>
+      <c r="AE91" s="22"/>
+      <c r="AF91" s="22"/>
+      <c r="AG91" s="22"/>
+      <c r="AH91" s="22"/>
+      <c r="AI91" s="22"/>
+      <c r="AJ91" s="22"/>
+      <c r="AK91" s="22"/>
+      <c r="AL91" s="22"/>
+      <c r="AM91" s="22"/>
+      <c r="AN91" s="22"/>
+      <c r="AO91" s="22"/>
+      <c r="AP91" s="22"/>
+      <c r="AQ91" s="22"/>
+      <c r="AR91" s="22"/>
+      <c r="AS91" s="22"/>
+      <c r="AT91" s="22"/>
+      <c r="AU91" s="22"/>
+      <c r="AV91" s="22"/>
+      <c r="AW91" s="22"/>
+      <c r="AX91" s="22"/>
+      <c r="AY91" s="22"/>
+      <c r="AZ91" s="22"/>
+      <c r="BA91" s="22"/>
+      <c r="BB91" s="22"/>
+      <c r="BC91" s="22"/>
+      <c r="BD91" s="22"/>
+      <c r="BE91" s="22"/>
+      <c r="BF91" s="22"/>
+      <c r="BG91" s="22"/>
+      <c r="BH91" s="22"/>
+      <c r="BI91" s="22"/>
+      <c r="BJ91" s="22"/>
+      <c r="BK91" s="22"/>
+      <c r="BL91" s="22"/>
+      <c r="BM91" s="22"/>
+      <c r="BN91" s="22"/>
+      <c r="BO91" s="22"/>
+      <c r="BP91" s="22"/>
+      <c r="BQ91" s="22"/>
+      <c r="BR91" s="22"/>
+      <c r="BS91" s="22"/>
+      <c r="BT91" s="22"/>
+      <c r="BU91" s="22"/>
+      <c r="BV91" s="22"/>
+      <c r="BW91" s="22"/>
+      <c r="BX91" s="22"/>
+      <c r="BY91" s="22"/>
+      <c r="BZ91" s="22"/>
+      <c r="CA91" s="22"/>
+      <c r="CB91" s="22"/>
+      <c r="CC91" s="22"/>
+      <c r="CD91" s="22"/>
+      <c r="CE91" s="22"/>
+      <c r="CF91" s="22"/>
+      <c r="CG91" s="22"/>
+      <c r="CH91" s="22"/>
+      <c r="CI91" s="22"/>
+      <c r="CJ91" s="22"/>
+      <c r="CK91" s="22"/>
+      <c r="CL91" s="22"/>
+      <c r="CM91" s="22"/>
+      <c r="CN91" s="22"/>
+      <c r="CO91" s="22"/>
+      <c r="CP91" s="22"/>
+      <c r="CQ91" s="22"/>
+      <c r="CR91" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13058,13 +12980,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="5" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="5" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;L&amp;A&amp;R&amp;F</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="50" max="96" man="1"/>
+    <brk id="51" max="96" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
